--- a/genshin/490891861170010425_2021-02-12_20-31-08.xlsx
+++ b/genshin/490891861170010425_2021-02-12_20-31-08.xlsx
@@ -16,7 +16,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="yyyy-mm-dd h:mm:ss"/>
+  </numFmts>
   <fonts count="1">
     <font>
       <name val="Calibri"/>
@@ -46,8 +48,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -419,6 +422,19 @@
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="12" customWidth="1" min="1" max="1"/>
+    <col width="12" customWidth="1" min="2" max="2"/>
+    <col width="12" customWidth="1" min="3" max="3"/>
+    <col width="50" customWidth="1" min="5" max="5"/>
+    <col width="12" customWidth="1" min="7" max="7"/>
+    <col width="20" customWidth="1" min="8" max="8"/>
+    <col width="12" customWidth="1" min="11" max="11"/>
+    <col width="12" customWidth="1" min="13" max="13"/>
+    <col width="12" customWidth="1" min="15" max="15"/>
+    <col width="20" customWidth="1" min="16" max="16"/>
+    <col width="20" customWidth="1" min="17" max="17"/>
+  </cols>
   <sheetData>
     <row r="1">
       <c r="A1" t="inlineStr">
@@ -539,10 +555,8 @@
           <t>4110733857</t>
         </is>
       </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>2021-06-02 17:23:33</t>
-        </is>
+      <c r="H2" s="1" t="n">
+        <v>44349.7246875</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -606,10 +620,8 @@
           <t>4134839538</t>
         </is>
       </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>2021-02-17 03:39:38</t>
-        </is>
+      <c r="H3" s="1" t="n">
+        <v>44244.15252314815</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -681,10 +693,8 @@
           <t>4124449224</t>
         </is>
       </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>2021-02-15 10:44:13</t>
-        </is>
+      <c r="H4" s="1" t="n">
+        <v>44242.44737268519</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -760,10 +770,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>2021-02-14 20:25:35</t>
-        </is>
+      <c r="H5" s="1" t="n">
+        <v>44241.85109953704</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -827,10 +835,8 @@
           <t>4121356573</t>
         </is>
       </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>2021-02-14 19:11:47</t>
-        </is>
+      <c r="H6" s="1" t="n">
+        <v>44241.79984953703</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
@@ -902,10 +908,8 @@
           <t>4110739861</t>
         </is>
       </c>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>2021-02-14 17:48:54</t>
-        </is>
+      <c r="H7" s="1" t="n">
+        <v>44241.74229166667</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -981,10 +985,8 @@
           <t>4110804929</t>
         </is>
       </c>
-      <c r="H8" t="inlineStr">
-        <is>
-          <t>2021-02-14 10:57:49</t>
-        </is>
+      <c r="H8" s="1" t="n">
+        <v>44241.45681712963</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -1055,10 +1057,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H9" t="inlineStr">
-        <is>
-          <t>2021-02-14 10:47:37</t>
-        </is>
+      <c r="H9" s="1" t="n">
+        <v>44241.4497337963</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
@@ -1118,10 +1118,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H10" t="inlineStr">
-        <is>
-          <t>2021-02-14 00:34:01</t>
-        </is>
+      <c r="H10" s="1" t="n">
+        <v>44241.02362268518</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -1190,10 +1188,8 @@
           <t>4117046850</t>
         </is>
       </c>
-      <c r="H11" t="inlineStr">
-        <is>
-          <t>2021-02-13 23:07:10</t>
-        </is>
+      <c r="H11" s="1" t="n">
+        <v>44240.96331018519</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1253,10 +1249,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H12" t="inlineStr">
-        <is>
-          <t>2021-02-13 16:25:51</t>
-        </is>
+      <c r="H12" s="1" t="n">
+        <v>44240.68461805556</v>
       </c>
       <c r="I12" t="n">
         <v>1</v>
@@ -1320,10 +1314,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H13" t="inlineStr">
-        <is>
-          <t>2021-02-13 16:14:19</t>
-        </is>
+      <c r="H13" s="1" t="n">
+        <v>44240.6766087963</v>
       </c>
       <c r="I13" t="n">
         <v>2</v>
@@ -1395,10 +1387,8 @@
           <t>4110861733</t>
         </is>
       </c>
-      <c r="H14" t="inlineStr">
-        <is>
-          <t>2021-02-13 15:32:28</t>
-        </is>
+      <c r="H14" s="1" t="n">
+        <v>44240.6475462963</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1462,10 +1452,8 @@
           <t>4112152791</t>
         </is>
       </c>
-      <c r="H15" t="inlineStr">
-        <is>
-          <t>2021-02-13 15:31:11</t>
-        </is>
+      <c r="H15" s="1" t="n">
+        <v>44240.64665509259</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
@@ -1541,10 +1529,8 @@
           <t>4110752384</t>
         </is>
       </c>
-      <c r="H16" t="inlineStr">
-        <is>
-          <t>2021-02-13 14:51:28</t>
-        </is>
+      <c r="H16" s="1" t="n">
+        <v>44240.61907407407</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1612,10 +1598,8 @@
           <t>4110801983</t>
         </is>
       </c>
-      <c r="H17" t="inlineStr">
-        <is>
-          <t>2021-02-13 14:49:27</t>
-        </is>
+      <c r="H17" s="1" t="n">
+        <v>44240.61767361111</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1683,10 +1667,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H18" t="inlineStr">
-        <is>
-          <t>2021-02-13 14:29:34</t>
-        </is>
+      <c r="H18" s="1" t="n">
+        <v>44240.60386574074</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
@@ -1762,10 +1744,8 @@
           <t>4110861733</t>
         </is>
       </c>
-      <c r="H19" t="inlineStr">
-        <is>
-          <t>2021-02-13 13:36:30</t>
-        </is>
+      <c r="H19" s="1" t="n">
+        <v>44240.56701388889</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -1833,10 +1813,8 @@
           <t>4110836245</t>
         </is>
       </c>
-      <c r="H20" t="inlineStr">
-        <is>
-          <t>2021-02-13 13:28:48</t>
-        </is>
+      <c r="H20" s="1" t="n">
+        <v>44240.56166666667</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -1904,10 +1882,8 @@
           <t>4112214462</t>
         </is>
       </c>
-      <c r="H21" t="inlineStr">
-        <is>
-          <t>2021-02-13 13:27:54</t>
-        </is>
+      <c r="H21" s="1" t="n">
+        <v>44240.56104166667</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
@@ -1975,10 +1951,8 @@
           <t>4114107759</t>
         </is>
       </c>
-      <c r="H22" t="inlineStr">
-        <is>
-          <t>2021-02-13 13:27:35</t>
-        </is>
+      <c r="H22" s="1" t="n">
+        <v>44240.56082175926</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2046,10 +2020,8 @@
           <t>4110801983</t>
         </is>
       </c>
-      <c r="H23" t="inlineStr">
-        <is>
-          <t>2021-02-13 13:20:04</t>
-        </is>
+      <c r="H23" s="1" t="n">
+        <v>44240.55560185185</v>
       </c>
       <c r="I23" t="n">
         <v>1</v>
@@ -2125,10 +2097,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H24" t="inlineStr">
-        <is>
-          <t>2021-02-13 12:57:48</t>
-        </is>
+      <c r="H24" s="1" t="n">
+        <v>44240.54013888889</v>
       </c>
       <c r="I24" t="n">
         <v>1</v>
@@ -2196,10 +2166,8 @@
           <t>4113828689</t>
         </is>
       </c>
-      <c r="H25" t="inlineStr">
-        <is>
-          <t>2021-02-13 12:30:13</t>
-        </is>
+      <c r="H25" s="1" t="n">
+        <v>44240.5209837963</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2271,10 +2239,8 @@
           <t>4113093241</t>
         </is>
       </c>
-      <c r="H26" t="inlineStr">
-        <is>
-          <t>2021-02-13 12:25:49</t>
-        </is>
+      <c r="H26" s="1" t="n">
+        <v>44240.51792824074</v>
       </c>
       <c r="I26" t="n">
         <v>1</v>
@@ -2334,10 +2300,8 @@
           <t>4113725269</t>
         </is>
       </c>
-      <c r="H27" t="inlineStr">
-        <is>
-          <t>2021-02-13 12:09:12</t>
-        </is>
+      <c r="H27" s="1" t="n">
+        <v>44240.50638888889</v>
       </c>
       <c r="I27" t="n">
         <v>1</v>
@@ -2409,10 +2373,8 @@
           <t>4113633829</t>
         </is>
       </c>
-      <c r="H28" t="inlineStr">
-        <is>
-          <t>2021-02-13 11:53:40</t>
-        </is>
+      <c r="H28" s="1" t="n">
+        <v>44240.49560185185</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2488,10 +2450,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H29" t="inlineStr">
-        <is>
-          <t>2021-02-13 11:50:51</t>
-        </is>
+      <c r="H29" s="1" t="n">
+        <v>44240.49364583333</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2563,10 +2523,8 @@
           <t>4111649585</t>
         </is>
       </c>
-      <c r="H30" t="inlineStr">
-        <is>
-          <t>2021-02-13 11:46:43</t>
-        </is>
+      <c r="H30" s="1" t="n">
+        <v>44240.49077546296</v>
       </c>
       <c r="I30" t="n">
         <v>0</v>
@@ -2642,10 +2600,8 @@
           <t>4113589948</t>
         </is>
       </c>
-      <c r="H31" t="inlineStr">
-        <is>
-          <t>2021-02-13 11:44:32</t>
-        </is>
+      <c r="H31" s="1" t="n">
+        <v>44240.48925925926</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -2713,10 +2669,8 @@
           <t>4111252097</t>
         </is>
       </c>
-      <c r="H32" t="inlineStr">
-        <is>
-          <t>2021-02-13 11:29:55</t>
-        </is>
+      <c r="H32" s="1" t="n">
+        <v>44240.47910879629</v>
       </c>
       <c r="I32" t="n">
         <v>1</v>
@@ -2776,10 +2730,8 @@
           <t>4113479585</t>
         </is>
       </c>
-      <c r="H33" t="inlineStr">
-        <is>
-          <t>2021-02-13 11:19:56</t>
-        </is>
+      <c r="H33" s="1" t="n">
+        <v>44240.47217592593</v>
       </c>
       <c r="I33" t="n">
         <v>0</v>
@@ -2843,10 +2795,8 @@
           <t>4112433770</t>
         </is>
       </c>
-      <c r="H34" t="inlineStr">
-        <is>
-          <t>2021-02-13 11:19:04</t>
-        </is>
+      <c r="H34" s="1" t="n">
+        <v>44240.47157407407</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -2918,10 +2868,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H35" t="inlineStr">
-        <is>
-          <t>2021-02-13 11:15:22</t>
-        </is>
+      <c r="H35" s="1" t="n">
+        <v>44240.46900462963</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -2985,10 +2933,8 @@
           <t>4113093241</t>
         </is>
       </c>
-      <c r="H36" t="inlineStr">
-        <is>
-          <t>2021-02-13 10:32:48</t>
-        </is>
+      <c r="H36" s="1" t="n">
+        <v>44240.43944444445</v>
       </c>
       <c r="I36" t="n">
         <v>1</v>
@@ -3048,10 +2994,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H37" t="inlineStr">
-        <is>
-          <t>2021-02-13 10:27:10</t>
-        </is>
+      <c r="H37" s="1" t="n">
+        <v>44240.43553240741</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3115,10 +3059,8 @@
           <t>4113230779</t>
         </is>
       </c>
-      <c r="H38" t="inlineStr">
-        <is>
-          <t>2021-02-13 10:23:52</t>
-        </is>
+      <c r="H38" s="1" t="n">
+        <v>44240.43324074074</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3178,10 +3120,8 @@
           <t>4111177431</t>
         </is>
       </c>
-      <c r="H39" t="inlineStr">
-        <is>
-          <t>2021-02-13 09:58:39</t>
-        </is>
+      <c r="H39" s="1" t="n">
+        <v>44240.41572916666</v>
       </c>
       <c r="I39" t="n">
         <v>1</v>
@@ -3245,10 +3185,8 @@
           <t>4113093241</t>
         </is>
       </c>
-      <c r="H40" t="inlineStr">
-        <is>
-          <t>2021-02-13 09:51:19</t>
-        </is>
+      <c r="H40" s="1" t="n">
+        <v>44240.41063657407</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3308,10 +3246,8 @@
           <t>4112330921</t>
         </is>
       </c>
-      <c r="H41" t="inlineStr">
-        <is>
-          <t>2021-02-13 09:27:07</t>
-        </is>
+      <c r="H41" s="1" t="n">
+        <v>44240.39383101852</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3387,10 +3323,8 @@
           <t>4111082412</t>
         </is>
       </c>
-      <c r="H42" t="inlineStr">
-        <is>
-          <t>2021-02-13 08:55:54</t>
-        </is>
+      <c r="H42" s="1" t="n">
+        <v>44240.37215277777</v>
       </c>
       <c r="I42" t="n">
         <v>1</v>
@@ -3462,10 +3396,8 @@
           <t>4112842720</t>
         </is>
       </c>
-      <c r="H43" t="inlineStr">
-        <is>
-          <t>2021-02-13 08:36:04</t>
-        </is>
+      <c r="H43" s="1" t="n">
+        <v>44240.35837962963</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3529,10 +3461,8 @@
           <t>4112836558</t>
         </is>
       </c>
-      <c r="H44" t="inlineStr">
-        <is>
-          <t>2021-02-13 08:34:30</t>
-        </is>
+      <c r="H44" s="1" t="n">
+        <v>44240.35729166667</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -3596,10 +3526,8 @@
           <t>4110724731</t>
         </is>
       </c>
-      <c r="H45" t="inlineStr">
-        <is>
-          <t>2021-02-13 07:48:02</t>
-        </is>
+      <c r="H45" s="1" t="n">
+        <v>44240.32502314815</v>
       </c>
       <c r="I45" t="n">
         <v>0</v>
@@ -3671,10 +3599,8 @@
           <t>4112733245</t>
         </is>
       </c>
-      <c r="H46" t="inlineStr">
-        <is>
-          <t>2021-02-13 07:41:43</t>
-        </is>
+      <c r="H46" s="1" t="n">
+        <v>44240.32063657408</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -3746,10 +3672,8 @@
           <t>4110751941</t>
         </is>
       </c>
-      <c r="H47" t="inlineStr">
-        <is>
-          <t>2021-02-13 06:39:57</t>
-        </is>
+      <c r="H47" s="1" t="n">
+        <v>44240.27774305556</v>
       </c>
       <c r="I47" t="n">
         <v>0</v>
@@ -3817,10 +3741,8 @@
           <t>4110804929</t>
         </is>
       </c>
-      <c r="H48" t="inlineStr">
-        <is>
-          <t>2021-02-13 06:12:55</t>
-        </is>
+      <c r="H48" s="1" t="n">
+        <v>44240.25896990741</v>
       </c>
       <c r="I48" t="n">
         <v>0</v>
@@ -3888,10 +3810,8 @@
           <t>4110820991</t>
         </is>
       </c>
-      <c r="H49" t="inlineStr">
-        <is>
-          <t>2021-02-13 06:12:26</t>
-        </is>
+      <c r="H49" s="1" t="n">
+        <v>44240.25863425926</v>
       </c>
       <c r="I49" t="n">
         <v>0</v>
@@ -3959,10 +3879,8 @@
           <t>4112658396</t>
         </is>
       </c>
-      <c r="H50" t="inlineStr">
-        <is>
-          <t>2021-02-13 06:10:09</t>
-        </is>
+      <c r="H50" s="1" t="n">
+        <v>44240.25704861111</v>
       </c>
       <c r="I50" t="n">
         <v>0</v>
@@ -4030,10 +3948,8 @@
           <t>4112575339</t>
         </is>
       </c>
-      <c r="H51" t="inlineStr">
-        <is>
-          <t>2021-02-13 03:58:18</t>
-        </is>
+      <c r="H51" s="1" t="n">
+        <v>44240.16548611111</v>
       </c>
       <c r="I51" t="n">
         <v>0</v>
@@ -4097,10 +4013,8 @@
           <t>4112535982</t>
         </is>
       </c>
-      <c r="H52" t="inlineStr">
-        <is>
-          <t>2021-02-13 03:20:55</t>
-        </is>
+      <c r="H52" s="1" t="n">
+        <v>44240.13952546296</v>
       </c>
       <c r="I52" t="n">
         <v>0</v>
@@ -4176,10 +4090,8 @@
           <t>4112433770</t>
         </is>
       </c>
-      <c r="H53" t="inlineStr">
-        <is>
-          <t>2021-02-13 02:23:50</t>
-        </is>
+      <c r="H53" s="1" t="n">
+        <v>44240.09988425926</v>
       </c>
       <c r="I53" t="n">
         <v>0</v>
@@ -4243,10 +4155,8 @@
           <t>4110801983</t>
         </is>
       </c>
-      <c r="H54" t="inlineStr">
-        <is>
-          <t>2021-02-13 02:15:52</t>
-        </is>
+      <c r="H54" s="1" t="n">
+        <v>44240.09435185185</v>
       </c>
       <c r="I54" t="n">
         <v>0</v>
@@ -4314,10 +4224,8 @@
           <t>4112417985</t>
         </is>
       </c>
-      <c r="H55" t="inlineStr">
-        <is>
-          <t>2021-02-13 02:14:54</t>
-        </is>
+      <c r="H55" s="1" t="n">
+        <v>44240.09368055555</v>
       </c>
       <c r="I55" t="n">
         <v>7</v>
@@ -4385,10 +4293,8 @@
           <t>4111815271</t>
         </is>
       </c>
-      <c r="H56" t="inlineStr">
-        <is>
-          <t>2021-02-13 01:58:46</t>
-        </is>
+      <c r="H56" s="1" t="n">
+        <v>44240.08247685185</v>
       </c>
       <c r="I56" t="n">
         <v>0</v>
@@ -4456,10 +4362,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H57" t="inlineStr">
-        <is>
-          <t>2021-02-13 01:53:24</t>
-        </is>
+      <c r="H57" s="1" t="n">
+        <v>44240.07875</v>
       </c>
       <c r="I57" t="n">
         <v>0</v>
@@ -4527,10 +4431,8 @@
           <t>4112370451</t>
         </is>
       </c>
-      <c r="H58" t="inlineStr">
-        <is>
-          <t>2021-02-13 01:53:13</t>
-        </is>
+      <c r="H58" s="1" t="n">
+        <v>44240.07862268519</v>
       </c>
       <c r="I58" t="n">
         <v>0</v>
@@ -4606,10 +4508,8 @@
           <t>4112329055</t>
         </is>
       </c>
-      <c r="H59" t="inlineStr">
-        <is>
-          <t>2021-02-13 01:40:49</t>
-        </is>
+      <c r="H59" s="1" t="n">
+        <v>44240.07001157408</v>
       </c>
       <c r="I59" t="n">
         <v>0</v>
@@ -4685,10 +4585,8 @@
           <t>4112330921</t>
         </is>
       </c>
-      <c r="H60" t="inlineStr">
-        <is>
-          <t>2021-02-13 01:38:16</t>
-        </is>
+      <c r="H60" s="1" t="n">
+        <v>44240.06824074074</v>
       </c>
       <c r="I60" t="n">
         <v>0</v>
@@ -4764,10 +4662,8 @@
           <t>4112244989</t>
         </is>
       </c>
-      <c r="H61" t="inlineStr">
-        <is>
-          <t>2021-02-13 01:38:15</t>
-        </is>
+      <c r="H61" s="1" t="n">
+        <v>44240.06822916667</v>
       </c>
       <c r="I61" t="n">
         <v>0</v>
@@ -4839,10 +4735,8 @@
           <t>4112313671</t>
         </is>
       </c>
-      <c r="H62" t="inlineStr">
-        <is>
-          <t>2021-02-13 01:35:23</t>
-        </is>
+      <c r="H62" s="1" t="n">
+        <v>44240.06623842593</v>
       </c>
       <c r="I62" t="n">
         <v>0</v>
@@ -4918,10 +4812,8 @@
           <t>4112304736</t>
         </is>
       </c>
-      <c r="H63" t="inlineStr">
-        <is>
-          <t>2021-02-13 01:32:06</t>
-        </is>
+      <c r="H63" s="1" t="n">
+        <v>44240.06395833333</v>
       </c>
       <c r="I63" t="n">
         <v>1</v>
@@ -4993,10 +4885,8 @@
           <t>4112283437</t>
         </is>
       </c>
-      <c r="H64" t="inlineStr">
-        <is>
-          <t>2021-02-13 01:26:07</t>
-        </is>
+      <c r="H64" s="1" t="n">
+        <v>44240.05980324074</v>
       </c>
       <c r="I64" t="n">
         <v>0</v>
@@ -5064,10 +4954,8 @@
           <t>4110820270</t>
         </is>
       </c>
-      <c r="H65" t="inlineStr">
-        <is>
-          <t>2021-02-13 01:22:37</t>
-        </is>
+      <c r="H65" s="1" t="n">
+        <v>44240.05737268519</v>
       </c>
       <c r="I65" t="n">
         <v>1</v>
@@ -5135,10 +5023,8 @@
           <t>4112270495</t>
         </is>
       </c>
-      <c r="H66" t="inlineStr">
-        <is>
-          <t>2021-02-13 01:19:43</t>
-        </is>
+      <c r="H66" s="1" t="n">
+        <v>44240.05535879629</v>
       </c>
       <c r="I66" t="n">
         <v>0</v>
@@ -5206,10 +5092,8 @@
           <t>4112244989</t>
         </is>
       </c>
-      <c r="H67" t="inlineStr">
-        <is>
-          <t>2021-02-13 01:19:42</t>
-        </is>
+      <c r="H67" s="1" t="n">
+        <v>44240.05534722222</v>
       </c>
       <c r="I67" t="n">
         <v>0</v>
@@ -5281,10 +5165,8 @@
           <t>4112244989</t>
         </is>
       </c>
-      <c r="H68" t="inlineStr">
-        <is>
-          <t>2021-02-13 01:14:49</t>
-        </is>
+      <c r="H68" s="1" t="n">
+        <v>44240.05195601852</v>
       </c>
       <c r="I68" t="n">
         <v>0</v>
@@ -5352,10 +5234,8 @@
           <t>4112219688</t>
         </is>
       </c>
-      <c r="H69" t="inlineStr">
-        <is>
-          <t>2021-02-13 01:07:23</t>
-        </is>
+      <c r="H69" s="1" t="n">
+        <v>44240.04679398148</v>
       </c>
       <c r="I69" t="n">
         <v>0</v>
@@ -5423,10 +5303,8 @@
           <t>4112214462</t>
         </is>
       </c>
-      <c r="H70" t="inlineStr">
-        <is>
-          <t>2021-02-13 01:05:52</t>
-        </is>
+      <c r="H70" s="1" t="n">
+        <v>44240.04574074074</v>
       </c>
       <c r="I70" t="n">
         <v>12</v>
@@ -5502,10 +5380,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H71" t="inlineStr">
-        <is>
-          <t>2021-02-13 01:04:19</t>
-        </is>
+      <c r="H71" s="1" t="n">
+        <v>44240.04466435185</v>
       </c>
       <c r="I71" t="n">
         <v>1</v>
@@ -5577,10 +5453,8 @@
           <t>4111243686</t>
         </is>
       </c>
-      <c r="H72" t="inlineStr">
-        <is>
-          <t>2021-02-13 01:00:46</t>
-        </is>
+      <c r="H72" s="1" t="n">
+        <v>44240.04219907407</v>
       </c>
       <c r="I72" t="n">
         <v>2</v>
@@ -5648,10 +5522,8 @@
           <t>4110823441</t>
         </is>
       </c>
-      <c r="H73" t="inlineStr">
-        <is>
-          <t>2021-02-13 00:59:51</t>
-        </is>
+      <c r="H73" s="1" t="n">
+        <v>44240.0415625</v>
       </c>
       <c r="I73" t="n">
         <v>1</v>
@@ -5719,10 +5591,8 @@
           <t>4112187894</t>
         </is>
       </c>
-      <c r="H74" t="inlineStr">
-        <is>
-          <t>2021-02-13 00:58:06</t>
-        </is>
+      <c r="H74" s="1" t="n">
+        <v>44240.04034722222</v>
       </c>
       <c r="I74" t="n">
         <v>0</v>
@@ -5791,10 +5661,8 @@
           <t>4112180566</t>
         </is>
       </c>
-      <c r="H75" t="inlineStr">
-        <is>
-          <t>2021-02-13 00:54:51</t>
-        </is>
+      <c r="H75" s="1" t="n">
+        <v>44240.03809027778</v>
       </c>
       <c r="I75" t="n">
         <v>0</v>
@@ -5858,10 +5726,8 @@
           <t>4112168510</t>
         </is>
       </c>
-      <c r="H76" t="inlineStr">
-        <is>
-          <t>2021-02-13 00:53:20</t>
-        </is>
+      <c r="H76" s="1" t="n">
+        <v>44240.03703703704</v>
       </c>
       <c r="I76" t="n">
         <v>0</v>
@@ -5937,10 +5803,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H77" t="inlineStr">
-        <is>
-          <t>2021-02-13 00:52:49</t>
-        </is>
+      <c r="H77" s="1" t="n">
+        <v>44240.03667824074</v>
       </c>
       <c r="I77" t="n">
         <v>0</v>
@@ -6016,10 +5880,8 @@
           <t>4112152791</t>
         </is>
       </c>
-      <c r="H78" t="inlineStr">
-        <is>
-          <t>2021-02-13 00:49:11</t>
-        </is>
+      <c r="H78" s="1" t="n">
+        <v>44240.0341550926</v>
       </c>
       <c r="I78" t="n">
         <v>0</v>
@@ -6091,10 +5953,8 @@
           <t>4112136428</t>
         </is>
       </c>
-      <c r="H79" t="inlineStr">
-        <is>
-          <t>2021-02-13 00:44:44</t>
-        </is>
+      <c r="H79" s="1" t="n">
+        <v>44240.03106481482</v>
       </c>
       <c r="I79" t="n">
         <v>0</v>
@@ -6166,10 +6026,8 @@
           <t>4110725599</t>
         </is>
       </c>
-      <c r="H80" t="inlineStr">
-        <is>
-          <t>2021-02-13 00:39:43</t>
-        </is>
+      <c r="H80" s="1" t="n">
+        <v>44240.02758101852</v>
       </c>
       <c r="I80" t="n">
         <v>0</v>
@@ -6241,10 +6099,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H81" t="inlineStr">
-        <is>
-          <t>2021-02-13 00:38:45</t>
-        </is>
+      <c r="H81" s="1" t="n">
+        <v>44240.02690972222</v>
       </c>
       <c r="I81" t="n">
         <v>0</v>
@@ -6312,10 +6168,8 @@
           <t>4112054536</t>
         </is>
       </c>
-      <c r="H82" t="inlineStr">
-        <is>
-          <t>2021-02-13 00:38:16</t>
-        </is>
+      <c r="H82" s="1" t="n">
+        <v>44240.02657407407</v>
       </c>
       <c r="I82" t="n">
         <v>6</v>
@@ -6391,10 +6245,8 @@
           <t>4112101739</t>
         </is>
       </c>
-      <c r="H83" t="inlineStr">
-        <is>
-          <t>2021-02-13 00:37:38</t>
-        </is>
+      <c r="H83" s="1" t="n">
+        <v>44240.02613425926</v>
       </c>
       <c r="I83" t="n">
         <v>0</v>
@@ -6458,10 +6310,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H84" t="inlineStr">
-        <is>
-          <t>2021-02-13 00:32:34</t>
-        </is>
+      <c r="H84" s="1" t="n">
+        <v>44240.02261574074</v>
       </c>
       <c r="I84" t="n">
         <v>0</v>
@@ -6529,10 +6379,8 @@
           <t>4112068599</t>
         </is>
       </c>
-      <c r="H85" t="inlineStr">
-        <is>
-          <t>2021-02-13 00:30:05</t>
-        </is>
+      <c r="H85" s="1" t="n">
+        <v>44240.02089120371</v>
       </c>
       <c r="I85" t="n">
         <v>2</v>
@@ -6608,10 +6456,8 @@
           <t>4112054536</t>
         </is>
       </c>
-      <c r="H86" t="inlineStr">
-        <is>
-          <t>2021-02-13 00:27:27</t>
-        </is>
+      <c r="H86" s="1" t="n">
+        <v>44240.0190625</v>
       </c>
       <c r="I86" t="n">
         <v>0</v>
@@ -6675,10 +6521,8 @@
           <t>4112048952</t>
         </is>
       </c>
-      <c r="H87" t="inlineStr">
-        <is>
-          <t>2021-02-13 00:26:25</t>
-        </is>
+      <c r="H87" s="1" t="n">
+        <v>44240.01834490741</v>
       </c>
       <c r="I87" t="n">
         <v>0</v>
@@ -6742,10 +6586,8 @@
           <t>4112050607</t>
         </is>
       </c>
-      <c r="H88" t="inlineStr">
-        <is>
-          <t>2021-02-13 00:24:52</t>
-        </is>
+      <c r="H88" s="1" t="n">
+        <v>44240.01726851852</v>
       </c>
       <c r="I88" t="n">
         <v>0</v>
@@ -6809,10 +6651,8 @@
           <t>4112041826</t>
         </is>
       </c>
-      <c r="H89" t="inlineStr">
-        <is>
-          <t>2021-02-13 00:24:17</t>
-        </is>
+      <c r="H89" s="1" t="n">
+        <v>44240.01686342592</v>
       </c>
       <c r="I89" t="n">
         <v>0</v>
@@ -6888,10 +6728,8 @@
           <t>4111125876</t>
         </is>
       </c>
-      <c r="H90" t="inlineStr">
-        <is>
-          <t>2021-02-13 00:11:00</t>
-        </is>
+      <c r="H90" s="1" t="n">
+        <v>44240.00763888889</v>
       </c>
       <c r="I90" t="n">
         <v>0</v>
@@ -6959,10 +6797,8 @@
           <t>4111005739</t>
         </is>
       </c>
-      <c r="H91" t="inlineStr">
-        <is>
-          <t>2021-02-13 00:04:48</t>
-        </is>
+      <c r="H91" s="1" t="n">
+        <v>44240.00333333333</v>
       </c>
       <c r="I91" t="n">
         <v>0</v>
@@ -7026,10 +6862,8 @@
           <t>4111929891</t>
         </is>
       </c>
-      <c r="H92" t="inlineStr">
-        <is>
-          <t>2021-02-13 00:03:11</t>
-        </is>
+      <c r="H92" s="1" t="n">
+        <v>44240.00221064815</v>
       </c>
       <c r="I92" t="n">
         <v>0</v>
@@ -7097,10 +6931,8 @@
           <t>4110724170</t>
         </is>
       </c>
-      <c r="H93" t="inlineStr">
-        <is>
-          <t>2021-02-12 23:54:18</t>
-        </is>
+      <c r="H93" s="1" t="n">
+        <v>44239.99604166667</v>
       </c>
       <c r="I93" t="n">
         <v>0</v>
@@ -7176,10 +7008,8 @@
           <t>4110773183</t>
         </is>
       </c>
-      <c r="H94" t="inlineStr">
-        <is>
-          <t>2021-02-12 23:49:41</t>
-        </is>
+      <c r="H94" s="1" t="n">
+        <v>44239.99283564815</v>
       </c>
       <c r="I94" t="n">
         <v>0</v>
@@ -7251,10 +7081,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H95" t="inlineStr">
-        <is>
-          <t>2021-02-12 23:49:13</t>
-        </is>
+      <c r="H95" s="1" t="n">
+        <v>44239.99251157408</v>
       </c>
       <c r="I95" t="n">
         <v>0</v>
@@ -7322,10 +7150,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H96" t="inlineStr">
-        <is>
-          <t>2021-02-12 23:48:20</t>
-        </is>
+      <c r="H96" s="1" t="n">
+        <v>44239.99189814815</v>
       </c>
       <c r="I96" t="n">
         <v>0</v>
@@ -7393,10 +7219,8 @@
           <t>4111844941</t>
         </is>
       </c>
-      <c r="H97" t="inlineStr">
-        <is>
-          <t>2021-02-12 23:47:03</t>
-        </is>
+      <c r="H97" s="1" t="n">
+        <v>44239.99100694444</v>
       </c>
       <c r="I97" t="n">
         <v>0</v>
@@ -7472,10 +7296,8 @@
           <t>4111846148</t>
         </is>
       </c>
-      <c r="H98" t="inlineStr">
-        <is>
-          <t>2021-02-12 23:45:02</t>
-        </is>
+      <c r="H98" s="1" t="n">
+        <v>44239.98960648148</v>
       </c>
       <c r="I98" t="n">
         <v>1</v>
@@ -7551,10 +7373,8 @@
           <t>4110751941</t>
         </is>
       </c>
-      <c r="H99" t="inlineStr">
-        <is>
-          <t>2021-02-12 23:42:46</t>
-        </is>
+      <c r="H99" s="1" t="n">
+        <v>44239.9880324074</v>
       </c>
       <c r="I99" t="n">
         <v>0</v>
@@ -7626,10 +7446,8 @@
           <t>4111813911</t>
         </is>
       </c>
-      <c r="H100" t="inlineStr">
-        <is>
-          <t>2021-02-12 23:40:50</t>
-        </is>
+      <c r="H100" s="1" t="n">
+        <v>44239.98668981482</v>
       </c>
       <c r="I100" t="n">
         <v>0</v>
@@ -7693,10 +7511,8 @@
           <t>4111812141</t>
         </is>
       </c>
-      <c r="H101" t="inlineStr">
-        <is>
-          <t>2021-02-12 23:39:52</t>
-        </is>
+      <c r="H101" s="1" t="n">
+        <v>44239.98601851852</v>
       </c>
       <c r="I101" t="n">
         <v>0</v>
@@ -7772,10 +7588,8 @@
           <t>4111125876</t>
         </is>
       </c>
-      <c r="H102" t="inlineStr">
-        <is>
-          <t>2021-02-12 23:39:51</t>
-        </is>
+      <c r="H102" s="1" t="n">
+        <v>44239.98600694445</v>
       </c>
       <c r="I102" t="n">
         <v>0</v>
@@ -7839,10 +7653,8 @@
           <t>4111815271</t>
         </is>
       </c>
-      <c r="H103" t="inlineStr">
-        <is>
-          <t>2021-02-12 23:39:27</t>
-        </is>
+      <c r="H103" s="1" t="n">
+        <v>44239.98572916666</v>
       </c>
       <c r="I103" t="n">
         <v>0</v>
@@ -7906,10 +7718,8 @@
           <t>4110752384</t>
         </is>
       </c>
-      <c r="H104" t="inlineStr">
-        <is>
-          <t>2021-02-12 23:36:47</t>
-        </is>
+      <c r="H104" s="1" t="n">
+        <v>44239.98387731481</v>
       </c>
       <c r="I104" t="n">
         <v>0</v>
@@ -7981,10 +7791,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H105" t="inlineStr">
-        <is>
-          <t>2021-02-12 23:35:14</t>
-        </is>
+      <c r="H105" s="1" t="n">
+        <v>44239.98280092593</v>
       </c>
       <c r="I105" t="n">
         <v>0</v>
@@ -8048,10 +7856,8 @@
           <t>4110804929</t>
         </is>
       </c>
-      <c r="H106" t="inlineStr">
-        <is>
-          <t>2021-02-12 23:33:27</t>
-        </is>
+      <c r="H106" s="1" t="n">
+        <v>44239.9815625</v>
       </c>
       <c r="I106" t="n">
         <v>0</v>
@@ -8127,10 +7933,8 @@
           <t>4111776671</t>
         </is>
       </c>
-      <c r="H107" t="inlineStr">
-        <is>
-          <t>2021-02-12 23:33:15</t>
-        </is>
+      <c r="H107" s="1" t="n">
+        <v>44239.98142361111</v>
       </c>
       <c r="I107" t="n">
         <v>5</v>
@@ -8202,10 +8006,8 @@
           <t>4111772580</t>
         </is>
       </c>
-      <c r="H108" t="inlineStr">
-        <is>
-          <t>2021-02-12 23:33:05</t>
-        </is>
+      <c r="H108" s="1" t="n">
+        <v>44239.98130787037</v>
       </c>
       <c r="I108" t="n">
         <v>0</v>
@@ -8273,10 +8075,8 @@
           <t>4111762778</t>
         </is>
       </c>
-      <c r="H109" t="inlineStr">
-        <is>
-          <t>2021-02-12 23:31:11</t>
-        </is>
+      <c r="H109" s="1" t="n">
+        <v>44239.97998842593</v>
       </c>
       <c r="I109" t="n">
         <v>0</v>
@@ -8348,10 +8148,8 @@
           <t>4110794276</t>
         </is>
       </c>
-      <c r="H110" t="inlineStr">
-        <is>
-          <t>2021-02-12 23:30:40</t>
-        </is>
+      <c r="H110" s="1" t="n">
+        <v>44239.97962962963</v>
       </c>
       <c r="I110" t="n">
         <v>1</v>
@@ -8411,10 +8209,8 @@
           <t>4111735296</t>
         </is>
       </c>
-      <c r="H111" t="inlineStr">
-        <is>
-          <t>2021-02-12 23:25:31</t>
-        </is>
+      <c r="H111" s="1" t="n">
+        <v>44239.97605324074</v>
       </c>
       <c r="I111" t="n">
         <v>0</v>
@@ -8486,10 +8282,8 @@
           <t>4111723142</t>
         </is>
       </c>
-      <c r="H112" t="inlineStr">
-        <is>
-          <t>2021-02-12 23:24:20</t>
-        </is>
+      <c r="H112" s="1" t="n">
+        <v>44239.97523148148</v>
       </c>
       <c r="I112" t="n">
         <v>1</v>
@@ -8565,10 +8359,8 @@
           <t>4111710650</t>
         </is>
       </c>
-      <c r="H113" t="inlineStr">
-        <is>
-          <t>2021-02-12 23:22:10</t>
-        </is>
+      <c r="H113" s="1" t="n">
+        <v>44239.97372685185</v>
       </c>
       <c r="I113" t="n">
         <v>1</v>
@@ -8636,10 +8428,8 @@
           <t>4111708888</t>
         </is>
       </c>
-      <c r="H114" t="inlineStr">
-        <is>
-          <t>2021-02-12 23:22:07</t>
-        </is>
+      <c r="H114" s="1" t="n">
+        <v>44239.97369212963</v>
       </c>
       <c r="I114" t="n">
         <v>0</v>
@@ -8716,10 +8506,8 @@
           <t>4110909446</t>
         </is>
       </c>
-      <c r="H115" t="inlineStr">
-        <is>
-          <t>2021-02-12 23:17:42</t>
-        </is>
+      <c r="H115" s="1" t="n">
+        <v>44239.970625</v>
       </c>
       <c r="I115" t="n">
         <v>2</v>
@@ -8783,10 +8571,8 @@
           <t>4111663970</t>
         </is>
       </c>
-      <c r="H116" t="inlineStr">
-        <is>
-          <t>2021-02-12 23:14:24</t>
-        </is>
+      <c r="H116" s="1" t="n">
+        <v>44239.96833333333</v>
       </c>
       <c r="I116" t="n">
         <v>1</v>
@@ -8850,10 +8636,8 @@
           <t>4111658379</t>
         </is>
       </c>
-      <c r="H117" t="inlineStr">
-        <is>
-          <t>2021-02-12 23:13:50</t>
-        </is>
+      <c r="H117" s="1" t="n">
+        <v>44239.96793981481</v>
       </c>
       <c r="I117" t="n">
         <v>0</v>
@@ -8917,10 +8701,8 @@
           <t>4111660538</t>
         </is>
       </c>
-      <c r="H118" t="inlineStr">
-        <is>
-          <t>2021-02-12 23:12:40</t>
-        </is>
+      <c r="H118" s="1" t="n">
+        <v>44239.96712962963</v>
       </c>
       <c r="I118" t="n">
         <v>0</v>
@@ -8984,10 +8766,8 @@
           <t>4110773183</t>
         </is>
       </c>
-      <c r="H119" t="inlineStr">
-        <is>
-          <t>2021-02-12 23:12:20</t>
-        </is>
+      <c r="H119" s="1" t="n">
+        <v>44239.96689814814</v>
       </c>
       <c r="I119" t="n">
         <v>0</v>
@@ -9063,10 +8843,8 @@
           <t>4111649585</t>
         </is>
       </c>
-      <c r="H120" t="inlineStr">
-        <is>
-          <t>2021-02-12 23:12:05</t>
-        </is>
+      <c r="H120" s="1" t="n">
+        <v>44239.96672453704</v>
       </c>
       <c r="I120" t="n">
         <v>0</v>
@@ -9134,10 +8912,8 @@
           <t>4111636329</t>
         </is>
       </c>
-      <c r="H121" t="inlineStr">
-        <is>
-          <t>2021-02-12 23:10:14</t>
-        </is>
+      <c r="H121" s="1" t="n">
+        <v>44239.96543981481</v>
       </c>
       <c r="I121" t="n">
         <v>0</v>
@@ -9205,10 +8981,8 @@
           <t>4111636210</t>
         </is>
       </c>
-      <c r="H122" t="inlineStr">
-        <is>
-          <t>2021-02-12 23:10:10</t>
-        </is>
+      <c r="H122" s="1" t="n">
+        <v>44239.96539351852</v>
       </c>
       <c r="I122" t="n">
         <v>0</v>
@@ -9284,10 +9058,8 @@
           <t>4111629494</t>
         </is>
       </c>
-      <c r="H123" t="inlineStr">
-        <is>
-          <t>2021-02-12 23:09:35</t>
-        </is>
+      <c r="H123" s="1" t="n">
+        <v>44239.96498842593</v>
       </c>
       <c r="I123" t="n">
         <v>0</v>
@@ -9359,10 +9131,8 @@
           <t>4111629111</t>
         </is>
       </c>
-      <c r="H124" t="inlineStr">
-        <is>
-          <t>2021-02-12 23:09:25</t>
-        </is>
+      <c r="H124" s="1" t="n">
+        <v>44239.96487268519</v>
       </c>
       <c r="I124" t="n">
         <v>1</v>
@@ -9426,10 +9196,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H125" t="inlineStr">
-        <is>
-          <t>2021-02-12 23:08:57</t>
-        </is>
+      <c r="H125" s="1" t="n">
+        <v>44239.96454861111</v>
       </c>
       <c r="I125" t="n">
         <v>0</v>
@@ -9493,10 +9261,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H126" t="inlineStr">
-        <is>
-          <t>2021-02-12 23:07:49</t>
-        </is>
+      <c r="H126" s="1" t="n">
+        <v>44239.96376157407</v>
       </c>
       <c r="I126" t="n">
         <v>0</v>
@@ -9560,10 +9326,8 @@
           <t>4111614377</t>
         </is>
       </c>
-      <c r="H127" t="inlineStr">
-        <is>
-          <t>2021-02-12 23:07:01</t>
-        </is>
+      <c r="H127" s="1" t="n">
+        <v>44239.96320601852</v>
       </c>
       <c r="I127" t="n">
         <v>1</v>
@@ -9638,10 +9402,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H128" t="inlineStr">
-        <is>
-          <t>2021-02-12 23:05:01</t>
-        </is>
+      <c r="H128" s="1" t="n">
+        <v>44239.96181712963</v>
       </c>
       <c r="I128" t="n">
         <v>0</v>
@@ -9713,10 +9475,8 @@
           <t>4111602164</t>
         </is>
       </c>
-      <c r="H129" t="inlineStr">
-        <is>
-          <t>2021-02-12 23:03:49</t>
-        </is>
+      <c r="H129" s="1" t="n">
+        <v>44239.9609837963</v>
       </c>
       <c r="I129" t="n">
         <v>0</v>
@@ -9784,10 +9544,8 @@
           <t>4111596687</t>
         </is>
       </c>
-      <c r="H130" t="inlineStr">
-        <is>
-          <t>2021-02-12 23:03:04</t>
-        </is>
+      <c r="H130" s="1" t="n">
+        <v>44239.96046296296</v>
       </c>
       <c r="I130" t="n">
         <v>0</v>
@@ -9859,10 +9617,8 @@
           <t>4110725599</t>
         </is>
       </c>
-      <c r="H131" t="inlineStr">
-        <is>
-          <t>2021-02-12 23:01:19</t>
-        </is>
+      <c r="H131" s="1" t="n">
+        <v>44239.95924768518</v>
       </c>
       <c r="I131" t="n">
         <v>0</v>
@@ -9926,10 +9682,8 @@
           <t>4111558502</t>
         </is>
       </c>
-      <c r="H132" t="inlineStr">
-        <is>
-          <t>2021-02-12 22:57:34</t>
-        </is>
+      <c r="H132" s="1" t="n">
+        <v>44239.95664351852</v>
       </c>
       <c r="I132" t="n">
         <v>0</v>
@@ -10005,10 +9759,8 @@
           <t>4110724731</t>
         </is>
       </c>
-      <c r="H133" t="inlineStr">
-        <is>
-          <t>2021-02-12 22:55:59</t>
-        </is>
+      <c r="H133" s="1" t="n">
+        <v>44239.95554398148</v>
       </c>
       <c r="I133" t="n">
         <v>0</v>
@@ -10076,10 +9828,8 @@
           <t>4111532212</t>
         </is>
       </c>
-      <c r="H134" t="inlineStr">
-        <is>
-          <t>2021-02-12 22:53:13</t>
-        </is>
+      <c r="H134" s="1" t="n">
+        <v>44239.95362268519</v>
       </c>
       <c r="I134" t="n">
         <v>0</v>
@@ -10151,10 +9901,8 @@
           <t>4111491255</t>
         </is>
       </c>
-      <c r="H135" t="inlineStr">
-        <is>
-          <t>2021-02-12 22:45:16</t>
-        </is>
+      <c r="H135" s="1" t="n">
+        <v>44239.94810185185</v>
       </c>
       <c r="I135" t="n">
         <v>2</v>
@@ -10230,10 +9978,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H136" t="inlineStr">
-        <is>
-          <t>2021-02-12 22:42:55</t>
-        </is>
+      <c r="H136" s="1" t="n">
+        <v>44239.94646990741</v>
       </c>
       <c r="I136" t="n">
         <v>2</v>
@@ -10314,10 +10060,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H137" t="inlineStr">
-        <is>
-          <t>2021-02-12 22:42:15</t>
-        </is>
+      <c r="H137" s="1" t="n">
+        <v>44239.94600694445</v>
       </c>
       <c r="I137" t="n">
         <v>428</v>
@@ -10385,10 +10129,8 @@
           <t>4111475033</t>
         </is>
       </c>
-      <c r="H138" t="inlineStr">
-        <is>
-          <t>2021-02-12 22:42:12</t>
-        </is>
+      <c r="H138" s="1" t="n">
+        <v>44239.94597222222</v>
       </c>
       <c r="I138" t="n">
         <v>0</v>
@@ -10456,10 +10198,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H139" t="inlineStr">
-        <is>
-          <t>2021-02-12 22:40:26</t>
-        </is>
+      <c r="H139" s="1" t="n">
+        <v>44239.94474537037</v>
       </c>
       <c r="I139" t="n">
         <v>0</v>
@@ -10531,10 +10271,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H140" t="inlineStr">
-        <is>
-          <t>2021-02-12 22:39:22</t>
-        </is>
+      <c r="H140" s="1" t="n">
+        <v>44239.94400462963</v>
       </c>
       <c r="I140" t="n">
         <v>2</v>
@@ -10610,10 +10348,8 @@
           <t>4110801983</t>
         </is>
       </c>
-      <c r="H141" t="inlineStr">
-        <is>
-          <t>2021-02-12 22:39:17</t>
-        </is>
+      <c r="H141" s="1" t="n">
+        <v>44239.94394675926</v>
       </c>
       <c r="I141" t="n">
         <v>2</v>
@@ -10689,10 +10425,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H142" t="inlineStr">
-        <is>
-          <t>2021-02-12 22:38:03</t>
-        </is>
+      <c r="H142" s="1" t="n">
+        <v>44239.94309027777</v>
       </c>
       <c r="I142" t="n">
         <v>0</v>
@@ -10756,10 +10490,8 @@
           <t>4110820991</t>
         </is>
       </c>
-      <c r="H143" t="inlineStr">
-        <is>
-          <t>2021-02-12 22:35:20</t>
-        </is>
+      <c r="H143" s="1" t="n">
+        <v>44239.9412037037</v>
       </c>
       <c r="I143" t="n">
         <v>0</v>
@@ -10823,10 +10555,8 @@
           <t>4111419633</t>
         </is>
       </c>
-      <c r="H144" t="inlineStr">
-        <is>
-          <t>2021-02-12 22:34:51</t>
-        </is>
+      <c r="H144" s="1" t="n">
+        <v>44239.94086805556</v>
       </c>
       <c r="I144" t="n">
         <v>2</v>
@@ -10890,10 +10620,8 @@
           <t>4111359831</t>
         </is>
       </c>
-      <c r="H145" t="inlineStr">
-        <is>
-          <t>2021-02-12 22:33:41</t>
-        </is>
+      <c r="H145" s="1" t="n">
+        <v>44239.94005787037</v>
       </c>
       <c r="I145" t="n">
         <v>0</v>
@@ -10969,10 +10697,8 @@
           <t>4111415132</t>
         </is>
       </c>
-      <c r="H146" t="inlineStr">
-        <is>
-          <t>2021-02-12 22:32:48</t>
-        </is>
+      <c r="H146" s="1" t="n">
+        <v>44239.93944444445</v>
       </c>
       <c r="I146" t="n">
         <v>14</v>
@@ -11040,10 +10766,8 @@
           <t>4111359831</t>
         </is>
       </c>
-      <c r="H147" t="inlineStr">
-        <is>
-          <t>2021-02-12 22:25:49</t>
-        </is>
+      <c r="H147" s="1" t="n">
+        <v>44239.9345949074</v>
       </c>
       <c r="I147" t="n">
         <v>0</v>
@@ -11111,10 +10835,8 @@
           <t>4111005739</t>
         </is>
       </c>
-      <c r="H148" t="inlineStr">
-        <is>
-          <t>2021-02-12 22:24:05</t>
-        </is>
+      <c r="H148" s="1" t="n">
+        <v>44239.9333912037</v>
       </c>
       <c r="I148" t="n">
         <v>0</v>
@@ -11190,10 +10912,8 @@
           <t>4111340181</t>
         </is>
       </c>
-      <c r="H149" t="inlineStr">
-        <is>
-          <t>2021-02-12 22:21:29</t>
-        </is>
+      <c r="H149" s="1" t="n">
+        <v>44239.93158564815</v>
       </c>
       <c r="I149" t="n">
         <v>1</v>
@@ -11265,10 +10985,8 @@
           <t>4111309465</t>
         </is>
       </c>
-      <c r="H150" t="inlineStr">
-        <is>
-          <t>2021-02-12 22:17:29</t>
-        </is>
+      <c r="H150" s="1" t="n">
+        <v>44239.92880787037</v>
       </c>
       <c r="I150" t="n">
         <v>5</v>
@@ -11336,10 +11054,8 @@
           <t>4111082412</t>
         </is>
       </c>
-      <c r="H151" t="inlineStr">
-        <is>
-          <t>2021-02-12 22:15:34</t>
-        </is>
+      <c r="H151" s="1" t="n">
+        <v>44239.92747685185</v>
       </c>
       <c r="I151" t="n">
         <v>0</v>
@@ -11415,10 +11131,8 @@
           <t>4111300679</t>
         </is>
       </c>
-      <c r="H152" t="inlineStr">
-        <is>
-          <t>2021-02-12 22:14:43</t>
-        </is>
+      <c r="H152" s="1" t="n">
+        <v>44239.92688657407</v>
       </c>
       <c r="I152" t="n">
         <v>0</v>
@@ -11482,10 +11196,8 @@
           <t>4110976116</t>
         </is>
       </c>
-      <c r="H153" t="inlineStr">
-        <is>
-          <t>2021-02-12 22:12:44</t>
-        </is>
+      <c r="H153" s="1" t="n">
+        <v>44239.92550925926</v>
       </c>
       <c r="I153" t="n">
         <v>1</v>
@@ -11557,10 +11269,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H154" t="inlineStr">
-        <is>
-          <t>2021-02-12 22:11:59</t>
-        </is>
+      <c r="H154" s="1" t="n">
+        <v>44239.92498842593</v>
       </c>
       <c r="I154" t="n">
         <v>0</v>
@@ -11624,10 +11334,8 @@
           <t>4111273233</t>
         </is>
       </c>
-      <c r="H155" t="inlineStr">
-        <is>
-          <t>2021-02-12 22:11:08</t>
-        </is>
+      <c r="H155" s="1" t="n">
+        <v>44239.92439814815</v>
       </c>
       <c r="I155" t="n">
         <v>1</v>
@@ -11695,10 +11403,8 @@
           <t>4110976116</t>
         </is>
       </c>
-      <c r="H156" t="inlineStr">
-        <is>
-          <t>2021-02-12 22:09:43</t>
-        </is>
+      <c r="H156" s="1" t="n">
+        <v>44239.92341435186</v>
       </c>
       <c r="I156" t="n">
         <v>0</v>
@@ -11762,10 +11468,8 @@
           <t>4111265256</t>
         </is>
       </c>
-      <c r="H157" t="inlineStr">
-        <is>
-          <t>2021-02-12 22:09:17</t>
-        </is>
+      <c r="H157" s="1" t="n">
+        <v>44239.92311342592</v>
       </c>
       <c r="I157" t="n">
         <v>0</v>
@@ -11829,10 +11533,8 @@
           <t>4111243686</t>
         </is>
       </c>
-      <c r="H158" t="inlineStr">
-        <is>
-          <t>2021-02-12 22:09:05</t>
-        </is>
+      <c r="H158" s="1" t="n">
+        <v>44239.92297453704</v>
       </c>
       <c r="I158" t="n">
         <v>7</v>
@@ -11908,10 +11610,8 @@
           <t>4111262099</t>
         </is>
       </c>
-      <c r="H159" t="inlineStr">
-        <is>
-          <t>2021-02-12 22:08:53</t>
-        </is>
+      <c r="H159" s="1" t="n">
+        <v>44239.92283564815</v>
       </c>
       <c r="I159" t="n">
         <v>1</v>
@@ -11979,10 +11679,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H160" t="inlineStr">
-        <is>
-          <t>2021-02-12 22:08:43</t>
-        </is>
+      <c r="H160" s="1" t="n">
+        <v>44239.92271990741</v>
       </c>
       <c r="I160" t="n">
         <v>48</v>
@@ -12050,10 +11748,8 @@
           <t>4111258059</t>
         </is>
       </c>
-      <c r="H161" t="inlineStr">
-        <is>
-          <t>2021-02-12 22:08:40</t>
-        </is>
+      <c r="H161" s="1" t="n">
+        <v>44239.92268518519</v>
       </c>
       <c r="I161" t="n">
         <v>0</v>
@@ -12117,10 +11813,8 @@
           <t>4111252097</t>
         </is>
       </c>
-      <c r="H162" t="inlineStr">
-        <is>
-          <t>2021-02-12 22:07:39</t>
-        </is>
+      <c r="H162" s="1" t="n">
+        <v>44239.92197916667</v>
       </c>
       <c r="I162" t="n">
         <v>57</v>
@@ -12192,10 +11886,8 @@
           <t>4111243686</t>
         </is>
       </c>
-      <c r="H163" t="inlineStr">
-        <is>
-          <t>2021-02-12 22:06:36</t>
-        </is>
+      <c r="H163" s="1" t="n">
+        <v>44239.92125</v>
       </c>
       <c r="I163" t="n">
         <v>2</v>
@@ -12267,10 +11959,8 @@
           <t>4111005739</t>
         </is>
       </c>
-      <c r="H164" t="inlineStr">
-        <is>
-          <t>2021-02-12 22:06:19</t>
-        </is>
+      <c r="H164" s="1" t="n">
+        <v>44239.92105324074</v>
       </c>
       <c r="I164" t="n">
         <v>0</v>
@@ -12334,10 +12024,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H165" t="inlineStr">
-        <is>
-          <t>2021-02-12 22:06:11</t>
-        </is>
+      <c r="H165" s="1" t="n">
+        <v>44239.92096064815</v>
       </c>
       <c r="I165" t="n">
         <v>1</v>
@@ -12401,10 +12089,8 @@
           <t>4111005739</t>
         </is>
       </c>
-      <c r="H166" t="inlineStr">
-        <is>
-          <t>2021-02-12 22:04:00</t>
-        </is>
+      <c r="H166" s="1" t="n">
+        <v>44239.91944444444</v>
       </c>
       <c r="I166" t="n">
         <v>0</v>
@@ -12472,10 +12158,8 @@
           <t>4111082412</t>
         </is>
       </c>
-      <c r="H167" t="inlineStr">
-        <is>
-          <t>2021-02-12 22:01:38</t>
-        </is>
+      <c r="H167" s="1" t="n">
+        <v>44239.91780092593</v>
       </c>
       <c r="I167" t="n">
         <v>0</v>
@@ -12547,10 +12231,8 @@
           <t>4111177431</t>
         </is>
       </c>
-      <c r="H168" t="inlineStr">
-        <is>
-          <t>2021-02-12 22:01:12</t>
-        </is>
+      <c r="H168" s="1" t="n">
+        <v>44239.9175</v>
       </c>
       <c r="I168" t="n">
         <v>1</v>
@@ -12618,10 +12300,8 @@
           <t>4111207984</t>
         </is>
       </c>
-      <c r="H169" t="inlineStr">
-        <is>
-          <t>2021-02-12 22:00:12</t>
-        </is>
+      <c r="H169" s="1" t="n">
+        <v>44239.91680555556</v>
       </c>
       <c r="I169" t="n">
         <v>4</v>
@@ -12698,10 +12378,8 @@
           <t>4111215062</t>
         </is>
       </c>
-      <c r="H170" t="inlineStr">
-        <is>
-          <t>2021-02-12 22:00:10</t>
-        </is>
+      <c r="H170" s="1" t="n">
+        <v>44239.91678240741</v>
       </c>
       <c r="I170" t="n">
         <v>0</v>
@@ -12777,10 +12455,8 @@
           <t>4111205438</t>
         </is>
       </c>
-      <c r="H171" t="inlineStr">
-        <is>
-          <t>2021-02-12 21:58:50</t>
-        </is>
+      <c r="H171" s="1" t="n">
+        <v>44239.91585648148</v>
       </c>
       <c r="I171" t="n">
         <v>0</v>
@@ -12844,10 +12520,8 @@
           <t>4111195496</t>
         </is>
       </c>
-      <c r="H172" t="inlineStr">
-        <is>
-          <t>2021-02-12 21:57:37</t>
-        </is>
+      <c r="H172" s="1" t="n">
+        <v>44239.91501157408</v>
       </c>
       <c r="I172" t="n">
         <v>1</v>
@@ -12923,10 +12597,8 @@
           <t>4111177431</t>
         </is>
       </c>
-      <c r="H173" t="inlineStr">
-        <is>
-          <t>2021-02-12 21:54:30</t>
-        </is>
+      <c r="H173" s="1" t="n">
+        <v>44239.91284722222</v>
       </c>
       <c r="I173" t="n">
         <v>1</v>
@@ -13002,10 +12674,8 @@
           <t>4110918473</t>
         </is>
       </c>
-      <c r="H174" t="inlineStr">
-        <is>
-          <t>2021-02-12 21:53:19</t>
-        </is>
+      <c r="H174" s="1" t="n">
+        <v>44239.91202546296</v>
       </c>
       <c r="I174" t="n">
         <v>2</v>
@@ -13077,10 +12747,8 @@
           <t>4110739523</t>
         </is>
       </c>
-      <c r="H175" t="inlineStr">
-        <is>
-          <t>2021-02-12 21:51:22</t>
-        </is>
+      <c r="H175" s="1" t="n">
+        <v>44239.9106712963</v>
       </c>
       <c r="I175" t="n">
         <v>0</v>
@@ -13144,10 +12812,8 @@
           <t>4111157089</t>
         </is>
       </c>
-      <c r="H176" t="inlineStr">
-        <is>
-          <t>2021-02-12 21:50:52</t>
-        </is>
+      <c r="H176" s="1" t="n">
+        <v>44239.91032407407</v>
       </c>
       <c r="I176" t="n">
         <v>0</v>
@@ -13211,10 +12877,8 @@
           <t>4110750916</t>
         </is>
       </c>
-      <c r="H177" t="inlineStr">
-        <is>
-          <t>2021-02-12 21:49:18</t>
-        </is>
+      <c r="H177" s="1" t="n">
+        <v>44239.90923611111</v>
       </c>
       <c r="I177" t="n">
         <v>0</v>
@@ -13290,10 +12954,8 @@
           <t>4111137997</t>
         </is>
       </c>
-      <c r="H178" t="inlineStr">
-        <is>
-          <t>2021-02-12 21:48:27</t>
-        </is>
+      <c r="H178" s="1" t="n">
+        <v>44239.90864583333</v>
       </c>
       <c r="I178" t="n">
         <v>0</v>
@@ -13373,10 +13035,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H179" t="inlineStr">
-        <is>
-          <t>2021-02-12 21:47:04</t>
-        </is>
+      <c r="H179" s="1" t="n">
+        <v>44239.90768518519</v>
       </c>
       <c r="I179" t="n">
         <v>4</v>
@@ -13452,10 +13112,8 @@
           <t>4111125876</t>
         </is>
       </c>
-      <c r="H180" t="inlineStr">
-        <is>
-          <t>2021-02-12 21:46:42</t>
-        </is>
+      <c r="H180" s="1" t="n">
+        <v>44239.90743055556</v>
       </c>
       <c r="I180" t="n">
         <v>0</v>
@@ -13523,10 +13181,8 @@
           <t>4111125876</t>
         </is>
       </c>
-      <c r="H181" t="inlineStr">
-        <is>
-          <t>2021-02-12 21:45:11</t>
-        </is>
+      <c r="H181" s="1" t="n">
+        <v>44239.90637731482</v>
       </c>
       <c r="I181" t="n">
         <v>1</v>
@@ -13595,10 +13251,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H182" t="inlineStr">
-        <is>
-          <t>2021-02-12 21:45:01</t>
-        </is>
+      <c r="H182" s="1" t="n">
+        <v>44239.90626157408</v>
       </c>
       <c r="I182" t="n">
         <v>0</v>
@@ -13662,10 +13316,8 @@
           <t>4110847810</t>
         </is>
       </c>
-      <c r="H183" t="inlineStr">
-        <is>
-          <t>2021-02-12 21:44:40</t>
-        </is>
+      <c r="H183" s="1" t="n">
+        <v>44239.90601851852</v>
       </c>
       <c r="I183" t="n">
         <v>0</v>
@@ -13741,10 +13393,8 @@
           <t>4111113110</t>
         </is>
       </c>
-      <c r="H184" t="inlineStr">
-        <is>
-          <t>2021-02-12 21:43:48</t>
-        </is>
+      <c r="H184" s="1" t="n">
+        <v>44239.90541666667</v>
       </c>
       <c r="I184" t="n">
         <v>1</v>
@@ -13820,10 +13470,8 @@
           <t>4111082412</t>
         </is>
       </c>
-      <c r="H185" t="inlineStr">
-        <is>
-          <t>2021-02-12 21:43:04</t>
-        </is>
+      <c r="H185" s="1" t="n">
+        <v>44239.90490740741</v>
       </c>
       <c r="I185" t="n">
         <v>1</v>
@@ -13899,10 +13547,8 @@
           <t>4110712883</t>
         </is>
       </c>
-      <c r="H186" t="inlineStr">
-        <is>
-          <t>2021-02-12 21:42:17</t>
-        </is>
+      <c r="H186" s="1" t="n">
+        <v>44239.90436342593</v>
       </c>
       <c r="I186" t="n">
         <v>0</v>
@@ -13987,10 +13633,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H187" t="inlineStr">
-        <is>
-          <t>2021-02-12 21:41:38</t>
-        </is>
+      <c r="H187" s="1" t="n">
+        <v>44239.90391203704</v>
       </c>
       <c r="I187" t="n">
         <v>27</v>
@@ -14058,10 +13702,8 @@
           <t>4110972281</t>
         </is>
       </c>
-      <c r="H188" t="inlineStr">
-        <is>
-          <t>2021-02-12 21:41:26</t>
-        </is>
+      <c r="H188" s="1" t="n">
+        <v>44239.90377314815</v>
       </c>
       <c r="I188" t="n">
         <v>0</v>
@@ -14125,10 +13767,8 @@
           <t>4110976116</t>
         </is>
       </c>
-      <c r="H189" t="inlineStr">
-        <is>
-          <t>2021-02-12 21:41:24</t>
-        </is>
+      <c r="H189" s="1" t="n">
+        <v>44239.90375</v>
       </c>
       <c r="I189" t="n">
         <v>0</v>
@@ -14204,10 +13844,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H190" t="inlineStr">
-        <is>
-          <t>2021-02-12 21:38:53</t>
-        </is>
+      <c r="H190" s="1" t="n">
+        <v>44239.90200231481</v>
       </c>
       <c r="I190" t="n">
         <v>0</v>
@@ -14271,10 +13909,8 @@
           <t>4111005739</t>
         </is>
       </c>
-      <c r="H191" t="inlineStr">
-        <is>
-          <t>2021-02-12 21:38:33</t>
-        </is>
+      <c r="H191" s="1" t="n">
+        <v>44239.90177083333</v>
       </c>
       <c r="I191" t="n">
         <v>22</v>
@@ -14346,10 +13982,8 @@
           <t>4111082412</t>
         </is>
       </c>
-      <c r="H192" t="inlineStr">
-        <is>
-          <t>2021-02-12 21:38:19</t>
-        </is>
+      <c r="H192" s="1" t="n">
+        <v>44239.9016087963</v>
       </c>
       <c r="I192" t="n">
         <v>0</v>
@@ -14417,10 +14051,8 @@
           <t>4111085711</t>
         </is>
       </c>
-      <c r="H193" t="inlineStr">
-        <is>
-          <t>2021-02-12 21:37:33</t>
-        </is>
+      <c r="H193" s="1" t="n">
+        <v>44239.90107638889</v>
       </c>
       <c r="I193" t="n">
         <v>0</v>
@@ -14484,10 +14116,8 @@
           <t>4111054699</t>
         </is>
       </c>
-      <c r="H194" t="inlineStr">
-        <is>
-          <t>2021-02-12 21:36:09</t>
-        </is>
+      <c r="H194" s="1" t="n">
+        <v>44239.90010416666</v>
       </c>
       <c r="I194" t="n">
         <v>1</v>
@@ -14551,10 +14181,8 @@
           <t>4111054699</t>
         </is>
       </c>
-      <c r="H195" t="inlineStr">
-        <is>
-          <t>2021-02-12 21:35:38</t>
-        </is>
+      <c r="H195" s="1" t="n">
+        <v>44239.89974537037</v>
       </c>
       <c r="I195" t="n">
         <v>0</v>
@@ -14630,10 +14258,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H196" t="inlineStr">
-        <is>
-          <t>2021-02-12 21:35:10</t>
-        </is>
+      <c r="H196" s="1" t="n">
+        <v>44239.89942129629</v>
       </c>
       <c r="I196" t="n">
         <v>0</v>
@@ -14701,10 +14327,8 @@
           <t>4111054699</t>
         </is>
       </c>
-      <c r="H197" t="inlineStr">
-        <is>
-          <t>2021-02-12 21:34:44</t>
-        </is>
+      <c r="H197" s="1" t="n">
+        <v>44239.89912037037</v>
       </c>
       <c r="I197" t="n">
         <v>2</v>
@@ -14780,10 +14404,8 @@
           <t>4111054699</t>
         </is>
       </c>
-      <c r="H198" t="inlineStr">
-        <is>
-          <t>2021-02-12 21:34:07</t>
-        </is>
+      <c r="H198" s="1" t="n">
+        <v>44239.89869212963</v>
       </c>
       <c r="I198" t="n">
         <v>1</v>
@@ -14843,10 +14465,8 @@
           <t>4111048336</t>
         </is>
       </c>
-      <c r="H199" t="inlineStr">
-        <is>
-          <t>2021-02-12 21:32:35</t>
-        </is>
+      <c r="H199" s="1" t="n">
+        <v>44239.89762731481</v>
       </c>
       <c r="I199" t="n">
         <v>7</v>
@@ -14906,10 +14526,8 @@
           <t>4110820991</t>
         </is>
       </c>
-      <c r="H200" t="inlineStr">
-        <is>
-          <t>2021-02-12 21:32:03</t>
-        </is>
+      <c r="H200" s="1" t="n">
+        <v>44239.89725694444</v>
       </c>
       <c r="I200" t="n">
         <v>0</v>
@@ -14977,10 +14595,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H201" t="inlineStr">
-        <is>
-          <t>2021-02-12 21:29:50</t>
-        </is>
+      <c r="H201" s="1" t="n">
+        <v>44239.89571759259</v>
       </c>
       <c r="I201" t="n">
         <v>0</v>
@@ -15044,10 +14660,8 @@
           <t>4111035809</t>
         </is>
       </c>
-      <c r="H202" t="inlineStr">
-        <is>
-          <t>2021-02-12 21:29:30</t>
-        </is>
+      <c r="H202" s="1" t="n">
+        <v>44239.89548611111</v>
       </c>
       <c r="I202" t="n">
         <v>1</v>
@@ -15119,10 +14733,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H203" t="inlineStr">
-        <is>
-          <t>2021-02-12 21:29:19</t>
-        </is>
+      <c r="H203" s="1" t="n">
+        <v>44239.8953587963</v>
       </c>
       <c r="I203" t="n">
         <v>0</v>
@@ -15190,10 +14802,8 @@
           <t>4111031311</t>
         </is>
       </c>
-      <c r="H204" t="inlineStr">
-        <is>
-          <t>2021-02-12 21:29:00</t>
-        </is>
+      <c r="H204" s="1" t="n">
+        <v>44239.89513888889</v>
       </c>
       <c r="I204" t="n">
         <v>0</v>
@@ -15257,10 +14867,8 @@
           <t>4111027985</t>
         </is>
       </c>
-      <c r="H205" t="inlineStr">
-        <is>
-          <t>2021-02-12 21:28:48</t>
-        </is>
+      <c r="H205" s="1" t="n">
+        <v>44239.895</v>
       </c>
       <c r="I205" t="n">
         <v>0</v>
@@ -15328,10 +14936,8 @@
           <t>4110847810</t>
         </is>
       </c>
-      <c r="H206" t="inlineStr">
-        <is>
-          <t>2021-02-12 21:28:25</t>
-        </is>
+      <c r="H206" s="1" t="n">
+        <v>44239.8947337963</v>
       </c>
       <c r="I206" t="n">
         <v>0</v>
@@ -15407,10 +15013,8 @@
           <t>4111027011</t>
         </is>
       </c>
-      <c r="H207" t="inlineStr">
-        <is>
-          <t>2021-02-12 21:28:18</t>
-        </is>
+      <c r="H207" s="1" t="n">
+        <v>44239.89465277778</v>
       </c>
       <c r="I207" t="n">
         <v>0</v>
@@ -15485,10 +15089,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H208" t="inlineStr">
-        <is>
-          <t>2021-02-12 21:27:45</t>
-        </is>
+      <c r="H208" s="1" t="n">
+        <v>44239.89427083333</v>
       </c>
       <c r="I208" t="n">
         <v>0</v>
@@ -15548,10 +15150,8 @@
           <t>4111022103</t>
         </is>
       </c>
-      <c r="H209" t="inlineStr">
-        <is>
-          <t>2021-02-12 21:27:28</t>
-        </is>
+      <c r="H209" s="1" t="n">
+        <v>44239.89407407407</v>
       </c>
       <c r="I209" t="n">
         <v>0</v>
@@ -15623,10 +15223,8 @@
           <t>4111014768</t>
         </is>
       </c>
-      <c r="H210" t="inlineStr">
-        <is>
-          <t>2021-02-12 21:27:12</t>
-        </is>
+      <c r="H210" s="1" t="n">
+        <v>44239.89388888889</v>
       </c>
       <c r="I210" t="n">
         <v>0</v>
@@ -15700,10 +15298,8 @@
           <t>4110776539</t>
         </is>
       </c>
-      <c r="H211" t="inlineStr">
-        <is>
-          <t>2021-02-12 21:26:12</t>
-        </is>
+      <c r="H211" s="1" t="n">
+        <v>44239.89319444444</v>
       </c>
       <c r="I211" t="n">
         <v>0</v>
@@ -15777,10 +15373,8 @@
           <t>4110752384</t>
         </is>
       </c>
-      <c r="H212" t="inlineStr">
-        <is>
-          <t>2021-02-12 21:25:38</t>
-        </is>
+      <c r="H212" s="1" t="n">
+        <v>44239.89280092593</v>
       </c>
       <c r="I212" t="n">
         <v>4</v>
@@ -15852,10 +15446,8 @@
           <t>4110847810</t>
         </is>
       </c>
-      <c r="H213" t="inlineStr">
-        <is>
-          <t>2021-02-12 21:25:24</t>
-        </is>
+      <c r="H213" s="1" t="n">
+        <v>44239.89263888889</v>
       </c>
       <c r="I213" t="n">
         <v>0</v>
@@ -15919,10 +15511,8 @@
           <t>4110972195</t>
         </is>
       </c>
-      <c r="H214" t="inlineStr">
-        <is>
-          <t>2021-02-12 21:25:17</t>
-        </is>
+      <c r="H214" s="1" t="n">
+        <v>44239.89255787037</v>
       </c>
       <c r="I214" t="n">
         <v>26</v>
@@ -15994,10 +15584,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H215" t="inlineStr">
-        <is>
-          <t>2021-02-12 21:25:15</t>
-        </is>
+      <c r="H215" s="1" t="n">
+        <v>44239.89253472222</v>
       </c>
       <c r="I215" t="n">
         <v>0</v>
@@ -16069,10 +15657,8 @@
           <t>4111003083</t>
         </is>
       </c>
-      <c r="H216" t="inlineStr">
-        <is>
-          <t>2021-02-12 21:24:36</t>
-        </is>
+      <c r="H216" s="1" t="n">
+        <v>44239.89208333333</v>
       </c>
       <c r="I216" t="n">
         <v>0</v>
@@ -16148,10 +15734,8 @@
           <t>4111005739</t>
         </is>
       </c>
-      <c r="H217" t="inlineStr">
-        <is>
-          <t>2021-02-12 21:23:56</t>
-        </is>
+      <c r="H217" s="1" t="n">
+        <v>44239.89162037037</v>
       </c>
       <c r="I217" t="n">
         <v>1</v>
@@ -16219,10 +15803,8 @@
           <t>4110766080</t>
         </is>
       </c>
-      <c r="H218" t="inlineStr">
-        <is>
-          <t>2021-02-12 21:22:47</t>
-        </is>
+      <c r="H218" s="1" t="n">
+        <v>44239.89082175926</v>
       </c>
       <c r="I218" t="n">
         <v>3</v>
@@ -16298,10 +15880,8 @@
           <t>4110993577</t>
         </is>
       </c>
-      <c r="H219" t="inlineStr">
-        <is>
-          <t>2021-02-12 21:22:45</t>
-        </is>
+      <c r="H219" s="1" t="n">
+        <v>44239.89079861111</v>
       </c>
       <c r="I219" t="n">
         <v>51</v>
@@ -16377,10 +15957,8 @@
           <t>4110987543</t>
         </is>
       </c>
-      <c r="H220" t="inlineStr">
-        <is>
-          <t>2021-02-12 21:21:37</t>
-        </is>
+      <c r="H220" s="1" t="n">
+        <v>44239.89001157408</v>
       </c>
       <c r="I220" t="n">
         <v>0</v>
@@ -16452,10 +16030,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H221" t="inlineStr">
-        <is>
-          <t>2021-02-12 21:20:48</t>
-        </is>
+      <c r="H221" s="1" t="n">
+        <v>44239.88944444444</v>
       </c>
       <c r="I221" t="n">
         <v>1</v>
@@ -16519,10 +16095,8 @@
           <t>4110981772</t>
         </is>
       </c>
-      <c r="H222" t="inlineStr">
-        <is>
-          <t>2021-02-12 21:20:36</t>
-        </is>
+      <c r="H222" s="1" t="n">
+        <v>44239.88930555555</v>
       </c>
       <c r="I222" t="n">
         <v>0</v>
@@ -16586,10 +16160,8 @@
           <t>4110856710</t>
         </is>
       </c>
-      <c r="H223" t="inlineStr">
-        <is>
-          <t>2021-02-12 21:19:05</t>
-        </is>
+      <c r="H223" s="1" t="n">
+        <v>44239.88825231481</v>
       </c>
       <c r="I223" t="n">
         <v>0</v>
@@ -16665,10 +16237,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H224" t="inlineStr">
-        <is>
-          <t>2021-02-12 21:19:03</t>
-        </is>
+      <c r="H224" s="1" t="n">
+        <v>44239.88822916667</v>
       </c>
       <c r="I224" t="n">
         <v>0</v>
@@ -16736,10 +16306,8 @@
           <t>4110972281</t>
         </is>
       </c>
-      <c r="H225" t="inlineStr">
-        <is>
-          <t>2021-02-12 21:18:49</t>
-        </is>
+      <c r="H225" s="1" t="n">
+        <v>44239.88806712963</v>
       </c>
       <c r="I225" t="n">
         <v>7</v>
@@ -16815,10 +16383,8 @@
           <t>4110972195</t>
         </is>
       </c>
-      <c r="H226" t="inlineStr">
-        <is>
-          <t>2021-02-12 21:18:46</t>
-        </is>
+      <c r="H226" s="1" t="n">
+        <v>44239.88803240741</v>
       </c>
       <c r="I226" t="n">
         <v>0</v>
@@ -16894,10 +16460,8 @@
           <t>4110976116</t>
         </is>
       </c>
-      <c r="H227" t="inlineStr">
-        <is>
-          <t>2021-02-12 21:18:42</t>
-        </is>
+      <c r="H227" s="1" t="n">
+        <v>44239.88798611111</v>
       </c>
       <c r="I227" t="n">
         <v>4</v>
@@ -16969,10 +16533,8 @@
           <t>4110967881</t>
         </is>
       </c>
-      <c r="H228" t="inlineStr">
-        <is>
-          <t>2021-02-12 21:18:38</t>
-        </is>
+      <c r="H228" s="1" t="n">
+        <v>44239.88793981481</v>
       </c>
       <c r="I228" t="n">
         <v>0</v>
@@ -17048,10 +16610,8 @@
           <t>4110820991</t>
         </is>
       </c>
-      <c r="H229" t="inlineStr">
-        <is>
-          <t>2021-02-12 21:17:40</t>
-        </is>
+      <c r="H229" s="1" t="n">
+        <v>44239.88726851852</v>
       </c>
       <c r="I229" t="n">
         <v>0</v>
@@ -17126,10 +16686,8 @@
           <t>4110965886</t>
         </is>
       </c>
-      <c r="H230" t="inlineStr">
-        <is>
-          <t>2021-02-12 21:17:37</t>
-        </is>
+      <c r="H230" s="1" t="n">
+        <v>44239.8872337963</v>
       </c>
       <c r="I230" t="n">
         <v>1</v>
@@ -17205,10 +16763,8 @@
           <t>4110847810</t>
         </is>
       </c>
-      <c r="H231" t="inlineStr">
-        <is>
-          <t>2021-02-12 21:17:28</t>
-        </is>
+      <c r="H231" s="1" t="n">
+        <v>44239.88712962963</v>
       </c>
       <c r="I231" t="n">
         <v>0</v>
@@ -17268,10 +16824,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H232" t="inlineStr">
-        <is>
-          <t>2021-02-12 21:16:56</t>
-        </is>
+      <c r="H232" s="1" t="n">
+        <v>44239.88675925926</v>
       </c>
       <c r="I232" t="n">
         <v>0</v>
@@ -17339,10 +16893,8 @@
           <t>4110956915</t>
         </is>
       </c>
-      <c r="H233" t="inlineStr">
-        <is>
-          <t>2021-02-12 21:15:59</t>
-        </is>
+      <c r="H233" s="1" t="n">
+        <v>44239.88609953703</v>
       </c>
       <c r="I233" t="n">
         <v>0</v>
@@ -17406,10 +16958,8 @@
           <t>4110951537</t>
         </is>
       </c>
-      <c r="H234" t="inlineStr">
-        <is>
-          <t>2021-02-12 21:15:19</t>
-        </is>
+      <c r="H234" s="1" t="n">
+        <v>44239.88563657407</v>
       </c>
       <c r="I234" t="n">
         <v>1</v>
@@ -17486,10 +17036,8 @@
           <t>4110743351</t>
         </is>
       </c>
-      <c r="H235" t="inlineStr">
-        <is>
-          <t>2021-02-12 21:15:14</t>
-        </is>
+      <c r="H235" s="1" t="n">
+        <v>44239.8855787037</v>
       </c>
       <c r="I235" t="n">
         <v>0</v>
@@ -17561,10 +17109,8 @@
           <t>4110724170</t>
         </is>
       </c>
-      <c r="H236" t="inlineStr">
-        <is>
-          <t>2021-02-12 21:15:10</t>
-        </is>
+      <c r="H236" s="1" t="n">
+        <v>44239.88553240741</v>
       </c>
       <c r="I236" t="n">
         <v>0</v>
@@ -17633,10 +17179,8 @@
           <t>4110939757</t>
         </is>
       </c>
-      <c r="H237" t="inlineStr">
-        <is>
-          <t>2021-02-12 21:14:26</t>
-        </is>
+      <c r="H237" s="1" t="n">
+        <v>44239.88502314815</v>
       </c>
       <c r="I237" t="n">
         <v>0</v>
@@ -17696,10 +17240,8 @@
           <t>4110743351</t>
         </is>
       </c>
-      <c r="H238" t="inlineStr">
-        <is>
-          <t>2021-02-12 21:13:35</t>
-        </is>
+      <c r="H238" s="1" t="n">
+        <v>44239.88443287037</v>
       </c>
       <c r="I238" t="n">
         <v>0</v>
@@ -17771,10 +17313,8 @@
           <t>4110937892</t>
         </is>
       </c>
-      <c r="H239" t="inlineStr">
-        <is>
-          <t>2021-02-12 21:13:29</t>
-        </is>
+      <c r="H239" s="1" t="n">
+        <v>44239.88436342592</v>
       </c>
       <c r="I239" t="n">
         <v>0</v>
@@ -17850,10 +17390,8 @@
           <t>4110743351</t>
         </is>
       </c>
-      <c r="H240" t="inlineStr">
-        <is>
-          <t>2021-02-12 21:12:24</t>
-        </is>
+      <c r="H240" s="1" t="n">
+        <v>44239.88361111111</v>
       </c>
       <c r="I240" t="n">
         <v>0</v>
@@ -17929,10 +17467,8 @@
           <t>4110934226</t>
         </is>
       </c>
-      <c r="H241" t="inlineStr">
-        <is>
-          <t>2021-02-12 21:12:07</t>
-        </is>
+      <c r="H241" s="1" t="n">
+        <v>44239.88341435185</v>
       </c>
       <c r="I241" t="n">
         <v>2</v>
@@ -18004,10 +17540,8 @@
           <t>4110804929</t>
         </is>
       </c>
-      <c r="H242" t="inlineStr">
-        <is>
-          <t>2021-02-12 21:11:52</t>
-        </is>
+      <c r="H242" s="1" t="n">
+        <v>44239.88324074074</v>
       </c>
       <c r="I242" t="n">
         <v>0</v>
@@ -18079,10 +17613,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H243" t="inlineStr">
-        <is>
-          <t>2021-02-12 21:11:28</t>
-        </is>
+      <c r="H243" s="1" t="n">
+        <v>44239.88296296296</v>
       </c>
       <c r="I243" t="n">
         <v>13</v>
@@ -18154,10 +17686,8 @@
           <t>4110724659</t>
         </is>
       </c>
-      <c r="H244" t="inlineStr">
-        <is>
-          <t>2021-02-12 21:11:21</t>
-        </is>
+      <c r="H244" s="1" t="n">
+        <v>44239.88288194445</v>
       </c>
       <c r="I244" t="n">
         <v>0</v>
@@ -18233,10 +17763,8 @@
           <t>4110724170</t>
         </is>
       </c>
-      <c r="H245" t="inlineStr">
-        <is>
-          <t>2021-02-12 21:10:06</t>
-        </is>
+      <c r="H245" s="1" t="n">
+        <v>44239.88201388889</v>
       </c>
       <c r="I245" t="n">
         <v>0</v>
@@ -18300,10 +17828,8 @@
           <t>4110925674</t>
         </is>
       </c>
-      <c r="H246" t="inlineStr">
-        <is>
-          <t>2021-02-12 21:10:02</t>
-        </is>
+      <c r="H246" s="1" t="n">
+        <v>44239.88196759259</v>
       </c>
       <c r="I246" t="n">
         <v>0</v>
@@ -18367,10 +17893,8 @@
           <t>4110746238</t>
         </is>
       </c>
-      <c r="H247" t="inlineStr">
-        <is>
-          <t>2021-02-12 21:09:52</t>
-        </is>
+      <c r="H247" s="1" t="n">
+        <v>44239.88185185185</v>
       </c>
       <c r="I247" t="n">
         <v>0</v>
@@ -18443,10 +17967,8 @@
           <t>4110919189</t>
         </is>
       </c>
-      <c r="H248" t="inlineStr">
-        <is>
-          <t>2021-02-12 21:09:23</t>
-        </is>
+      <c r="H248" s="1" t="n">
+        <v>44239.88151620371</v>
       </c>
       <c r="I248" t="n">
         <v>0</v>
@@ -18511,10 +18033,8 @@
           <t>4110914139</t>
         </is>
       </c>
-      <c r="H249" t="inlineStr">
-        <is>
-          <t>2021-02-12 21:09:13</t>
-        </is>
+      <c r="H249" s="1" t="n">
+        <v>44239.88140046296</v>
       </c>
       <c r="I249" t="n">
         <v>2</v>
@@ -18590,10 +18110,8 @@
           <t>4110909446</t>
         </is>
       </c>
-      <c r="H250" t="inlineStr">
-        <is>
-          <t>2021-02-12 21:09:07</t>
-        </is>
+      <c r="H250" s="1" t="n">
+        <v>44239.88133101852</v>
       </c>
       <c r="I250" t="n">
         <v>43</v>
@@ -18661,10 +18179,8 @@
           <t>4110918473</t>
         </is>
       </c>
-      <c r="H251" t="inlineStr">
-        <is>
-          <t>2021-02-12 21:08:59</t>
-        </is>
+      <c r="H251" s="1" t="n">
+        <v>44239.88123842593</v>
       </c>
       <c r="I251" t="n">
         <v>4</v>
@@ -18732,10 +18248,8 @@
           <t>4110908176</t>
         </is>
       </c>
-      <c r="H252" t="inlineStr">
-        <is>
-          <t>2021-02-12 21:08:27</t>
-        </is>
+      <c r="H252" s="1" t="n">
+        <v>44239.88086805555</v>
       </c>
       <c r="I252" t="n">
         <v>7</v>
@@ -18808,10 +18322,8 @@
           <t>4110743351</t>
         </is>
       </c>
-      <c r="H253" t="inlineStr">
-        <is>
-          <t>2021-02-12 21:08:12</t>
-        </is>
+      <c r="H253" s="1" t="n">
+        <v>44239.88069444444</v>
       </c>
       <c r="I253" t="n">
         <v>0</v>
@@ -18879,10 +18391,8 @@
           <t>4110794276</t>
         </is>
       </c>
-      <c r="H254" t="inlineStr">
-        <is>
-          <t>2021-02-12 21:08:05</t>
-        </is>
+      <c r="H254" s="1" t="n">
+        <v>44239.88061342593</v>
       </c>
       <c r="I254" t="n">
         <v>1</v>
@@ -18946,10 +18456,8 @@
           <t>4110725599</t>
         </is>
       </c>
-      <c r="H255" t="inlineStr">
-        <is>
-          <t>2021-02-12 21:07:47</t>
-        </is>
+      <c r="H255" s="1" t="n">
+        <v>44239.88040509259</v>
       </c>
       <c r="I255" t="n">
         <v>0</v>
@@ -19009,10 +18517,8 @@
           <t>4110754241</t>
         </is>
       </c>
-      <c r="H256" t="inlineStr">
-        <is>
-          <t>2021-02-12 21:07:37</t>
-        </is>
+      <c r="H256" s="1" t="n">
+        <v>44239.88028935185</v>
       </c>
       <c r="I256" t="n">
         <v>1</v>
@@ -19088,10 +18594,8 @@
           <t>4110866257</t>
         </is>
       </c>
-      <c r="H257" t="inlineStr">
-        <is>
-          <t>2021-02-12 21:06:27</t>
-        </is>
+      <c r="H257" s="1" t="n">
+        <v>44239.87947916667</v>
       </c>
       <c r="I257" t="n">
         <v>0</v>
@@ -19159,10 +18663,8 @@
           <t>4110898480</t>
         </is>
       </c>
-      <c r="H258" t="inlineStr">
-        <is>
-          <t>2021-02-12 21:06:13</t>
-        </is>
+      <c r="H258" s="1" t="n">
+        <v>44239.87931712963</v>
       </c>
       <c r="I258" t="n">
         <v>0</v>
@@ -19230,10 +18732,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H259" t="inlineStr">
-        <is>
-          <t>2021-02-12 21:05:16</t>
-        </is>
+      <c r="H259" s="1" t="n">
+        <v>44239.8786574074</v>
       </c>
       <c r="I259" t="n">
         <v>1</v>
@@ -19301,10 +18801,8 @@
           <t>4110743351</t>
         </is>
       </c>
-      <c r="H260" t="inlineStr">
-        <is>
-          <t>2021-02-12 21:05:02</t>
-        </is>
+      <c r="H260" s="1" t="n">
+        <v>44239.87849537037</v>
       </c>
       <c r="I260" t="n">
         <v>0</v>
@@ -19368,10 +18866,8 @@
           <t>4110754241</t>
         </is>
       </c>
-      <c r="H261" t="inlineStr">
-        <is>
-          <t>2021-02-12 21:05:02</t>
-        </is>
+      <c r="H261" s="1" t="n">
+        <v>44239.87849537037</v>
       </c>
       <c r="I261" t="n">
         <v>0</v>
@@ -19439,10 +18935,8 @@
           <t>4110891306</t>
         </is>
       </c>
-      <c r="H262" t="inlineStr">
-        <is>
-          <t>2021-02-12 21:04:57</t>
-        </is>
+      <c r="H262" s="1" t="n">
+        <v>44239.8784375</v>
       </c>
       <c r="I262" t="n">
         <v>0</v>
@@ -19510,10 +19004,8 @@
           <t>4110895791</t>
         </is>
       </c>
-      <c r="H263" t="inlineStr">
-        <is>
-          <t>2021-02-12 21:04:45</t>
-        </is>
+      <c r="H263" s="1" t="n">
+        <v>44239.87829861111</v>
       </c>
       <c r="I263" t="n">
         <v>3</v>
@@ -19589,10 +19081,8 @@
           <t>4110804929</t>
         </is>
       </c>
-      <c r="H264" t="inlineStr">
-        <is>
-          <t>2021-02-12 21:04:08</t>
-        </is>
+      <c r="H264" s="1" t="n">
+        <v>44239.87787037037</v>
       </c>
       <c r="I264" t="n">
         <v>3</v>
@@ -19677,10 +19167,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H265" t="inlineStr">
-        <is>
-          <t>2021-02-12 21:03:49</t>
-        </is>
+      <c r="H265" s="1" t="n">
+        <v>44239.87765046296</v>
       </c>
       <c r="I265" t="n">
         <v>0</v>
@@ -19740,10 +19228,8 @@
           <t>4110883715</t>
         </is>
       </c>
-      <c r="H266" t="inlineStr">
-        <is>
-          <t>2021-02-12 21:03:42</t>
-        </is>
+      <c r="H266" s="1" t="n">
+        <v>44239.87756944444</v>
       </c>
       <c r="I266" t="n">
         <v>5</v>
@@ -19811,10 +19297,8 @@
           <t>4110883657</t>
         </is>
       </c>
-      <c r="H267" t="inlineStr">
-        <is>
-          <t>2021-02-12 21:03:41</t>
-        </is>
+      <c r="H267" s="1" t="n">
+        <v>44239.87755787037</v>
       </c>
       <c r="I267" t="n">
         <v>0</v>
@@ -19882,10 +19366,8 @@
           <t>4110767759</t>
         </is>
       </c>
-      <c r="H268" t="inlineStr">
-        <is>
-          <t>2021-02-12 21:03:39</t>
-        </is>
+      <c r="H268" s="1" t="n">
+        <v>44239.87753472223</v>
       </c>
       <c r="I268" t="n">
         <v>0</v>
@@ -19961,10 +19443,8 @@
           <t>4110883070</t>
         </is>
       </c>
-      <c r="H269" t="inlineStr">
-        <is>
-          <t>2021-02-12 21:03:22</t>
-        </is>
+      <c r="H269" s="1" t="n">
+        <v>44239.87733796296</v>
       </c>
       <c r="I269" t="n">
         <v>0</v>
@@ -20030,10 +19510,8 @@
           <t>4110804929</t>
         </is>
       </c>
-      <c r="H270" t="inlineStr">
-        <is>
-          <t>2021-02-12 21:03:09</t>
-        </is>
+      <c r="H270" s="1" t="n">
+        <v>44239.8771875</v>
       </c>
       <c r="I270" t="n">
         <v>7</v>
@@ -20112,10 +19590,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H271" t="inlineStr">
-        <is>
-          <t>2021-02-12 21:02:59</t>
-        </is>
+      <c r="H271" s="1" t="n">
+        <v>44239.87707175926</v>
       </c>
       <c r="I271" t="n">
         <v>9</v>
@@ -20183,10 +19659,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H272" t="inlineStr">
-        <is>
-          <t>2021-02-12 21:02:45</t>
-        </is>
+      <c r="H272" s="1" t="n">
+        <v>44239.87690972222</v>
       </c>
       <c r="I272" t="n">
         <v>2</v>
@@ -20255,10 +19729,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H273" t="inlineStr">
-        <is>
-          <t>2021-02-12 21:02:36</t>
-        </is>
+      <c r="H273" s="1" t="n">
+        <v>44239.87680555556</v>
       </c>
       <c r="I273" t="n">
         <v>1</v>
@@ -20324,10 +19796,8 @@
           <t>4110804929</t>
         </is>
       </c>
-      <c r="H274" t="inlineStr">
-        <is>
-          <t>2021-02-12 21:02:24</t>
-        </is>
+      <c r="H274" s="1" t="n">
+        <v>44239.87666666666</v>
       </c>
       <c r="I274" t="n">
         <v>35</v>
@@ -20399,10 +19869,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H275" t="inlineStr">
-        <is>
-          <t>2021-02-12 21:00:59</t>
-        </is>
+      <c r="H275" s="1" t="n">
+        <v>44239.87568287037</v>
       </c>
       <c r="I275" t="n">
         <v>0</v>
@@ -20478,10 +19946,8 @@
           <t>4110873294</t>
         </is>
       </c>
-      <c r="H276" t="inlineStr">
-        <is>
-          <t>2021-02-12 21:00:49</t>
-        </is>
+      <c r="H276" s="1" t="n">
+        <v>44239.87556712963</v>
       </c>
       <c r="I276" t="n">
         <v>0</v>
@@ -20560,10 +20026,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H277" t="inlineStr">
-        <is>
-          <t>2021-02-12 21:00:32</t>
-        </is>
+      <c r="H277" s="1" t="n">
+        <v>44239.87537037037</v>
       </c>
       <c r="I277" t="n">
         <v>0</v>
@@ -20631,10 +20095,8 @@
           <t>4110856710</t>
         </is>
       </c>
-      <c r="H278" t="inlineStr">
-        <is>
-          <t>2021-02-12 21:00:10</t>
-        </is>
+      <c r="H278" s="1" t="n">
+        <v>44239.87511574074</v>
       </c>
       <c r="I278" t="n">
         <v>0</v>
@@ -20702,10 +20164,8 @@
           <t>4110862204</t>
         </is>
       </c>
-      <c r="H279" t="inlineStr">
-        <is>
-          <t>2021-02-12 21:00:01</t>
-        </is>
+      <c r="H279" s="1" t="n">
+        <v>44239.87501157408</v>
       </c>
       <c r="I279" t="n">
         <v>0</v>
@@ -20777,10 +20237,8 @@
           <t>4110820991</t>
         </is>
       </c>
-      <c r="H280" t="inlineStr">
-        <is>
-          <t>2021-02-12 20:59:59</t>
-        </is>
+      <c r="H280" s="1" t="n">
+        <v>44239.87498842592</v>
       </c>
       <c r="I280" t="n">
         <v>8</v>
@@ -20856,10 +20314,8 @@
           <t>4110743351</t>
         </is>
       </c>
-      <c r="H281" t="inlineStr">
-        <is>
-          <t>2021-02-12 20:59:58</t>
-        </is>
+      <c r="H281" s="1" t="n">
+        <v>44239.87497685185</v>
       </c>
       <c r="I281" t="n">
         <v>1</v>
@@ -20927,10 +20383,8 @@
           <t>4110856710</t>
         </is>
       </c>
-      <c r="H282" t="inlineStr">
-        <is>
-          <t>2021-02-12 20:59:55</t>
-        </is>
+      <c r="H282" s="1" t="n">
+        <v>44239.87494212963</v>
       </c>
       <c r="I282" t="n">
         <v>0</v>
@@ -20998,10 +20452,8 @@
           <t>4110861733</t>
         </is>
       </c>
-      <c r="H283" t="inlineStr">
-        <is>
-          <t>2021-02-12 20:59:47</t>
-        </is>
+      <c r="H283" s="1" t="n">
+        <v>44239.87484953704</v>
       </c>
       <c r="I283" t="n">
         <v>0</v>
@@ -21065,10 +20517,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H284" t="inlineStr">
-        <is>
-          <t>2021-02-12 20:59:42</t>
-        </is>
+      <c r="H284" s="1" t="n">
+        <v>44239.87479166667</v>
       </c>
       <c r="I284" t="n">
         <v>1</v>
@@ -21136,10 +20586,8 @@
           <t>4110866257</t>
         </is>
       </c>
-      <c r="H285" t="inlineStr">
-        <is>
-          <t>2021-02-12 20:59:37</t>
-        </is>
+      <c r="H285" s="1" t="n">
+        <v>44239.8747337963</v>
       </c>
       <c r="I285" t="n">
         <v>0</v>
@@ -21207,10 +20655,8 @@
           <t>4110766080</t>
         </is>
       </c>
-      <c r="H286" t="inlineStr">
-        <is>
-          <t>2021-02-12 20:59:30</t>
-        </is>
+      <c r="H286" s="1" t="n">
+        <v>44239.87465277778</v>
       </c>
       <c r="I286" t="n">
         <v>0</v>
@@ -21278,10 +20724,8 @@
           <t>4110865945</t>
         </is>
       </c>
-      <c r="H287" t="inlineStr">
-        <is>
-          <t>2021-02-12 20:59:27</t>
-        </is>
+      <c r="H287" s="1" t="n">
+        <v>44239.87461805555</v>
       </c>
       <c r="I287" t="n">
         <v>0</v>
@@ -21349,10 +20793,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H288" t="inlineStr">
-        <is>
-          <t>2021-02-12 20:59:05</t>
-        </is>
+      <c r="H288" s="1" t="n">
+        <v>44239.87436342592</v>
       </c>
       <c r="I288" t="n">
         <v>0</v>
@@ -21424,10 +20866,8 @@
           <t>4110860141</t>
         </is>
       </c>
-      <c r="H289" t="inlineStr">
-        <is>
-          <t>2021-02-12 20:58:52</t>
-        </is>
+      <c r="H289" s="1" t="n">
+        <v>44239.87421296296</v>
       </c>
       <c r="I289" t="n">
         <v>0</v>
@@ -21504,10 +20944,8 @@
           <t>4110766080</t>
         </is>
       </c>
-      <c r="H290" t="inlineStr">
-        <is>
-          <t>2021-02-12 20:58:44</t>
-        </is>
+      <c r="H290" s="1" t="n">
+        <v>44239.87412037037</v>
       </c>
       <c r="I290" t="n">
         <v>6</v>
@@ -21579,10 +21017,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H291" t="inlineStr">
-        <is>
-          <t>2021-02-12 20:58:39</t>
-        </is>
+      <c r="H291" s="1" t="n">
+        <v>44239.8740625</v>
       </c>
       <c r="I291" t="n">
         <v>28</v>
@@ -21654,10 +21090,8 @@
           <t>4110853768</t>
         </is>
       </c>
-      <c r="H292" t="inlineStr">
-        <is>
-          <t>2021-02-12 20:58:14</t>
-        </is>
+      <c r="H292" s="1" t="n">
+        <v>44239.87377314815</v>
       </c>
       <c r="I292" t="n">
         <v>49</v>
@@ -21721,10 +21155,8 @@
           <t>4110791727</t>
         </is>
       </c>
-      <c r="H293" t="inlineStr">
-        <is>
-          <t>2021-02-12 20:58:08</t>
-        </is>
+      <c r="H293" s="1" t="n">
+        <v>44239.87370370371</v>
       </c>
       <c r="I293" t="n">
         <v>0</v>
@@ -21800,10 +21232,8 @@
           <t>4110820991</t>
         </is>
       </c>
-      <c r="H294" t="inlineStr">
-        <is>
-          <t>2021-02-12 20:57:49</t>
-        </is>
+      <c r="H294" s="1" t="n">
+        <v>44239.8734837963</v>
       </c>
       <c r="I294" t="n">
         <v>0</v>
@@ -21879,10 +21309,8 @@
           <t>4110766080</t>
         </is>
       </c>
-      <c r="H295" t="inlineStr">
-        <is>
-          <t>2021-02-12 20:57:44</t>
-        </is>
+      <c r="H295" s="1" t="n">
+        <v>44239.87342592593</v>
       </c>
       <c r="I295" t="n">
         <v>0</v>
@@ -21954,10 +21382,8 @@
           <t>4110847810</t>
         </is>
       </c>
-      <c r="H296" t="inlineStr">
-        <is>
-          <t>2021-02-12 20:57:34</t>
-        </is>
+      <c r="H296" s="1" t="n">
+        <v>44239.87331018518</v>
       </c>
       <c r="I296" t="n">
         <v>0</v>
@@ -22033,10 +21459,8 @@
           <t>4110724170</t>
         </is>
       </c>
-      <c r="H297" t="inlineStr">
-        <is>
-          <t>2021-02-12 20:57:27</t>
-        </is>
+      <c r="H297" s="1" t="n">
+        <v>44239.87322916667</v>
       </c>
       <c r="I297" t="n">
         <v>0</v>
@@ -22112,10 +21536,8 @@
           <t>4110852271</t>
         </is>
       </c>
-      <c r="H298" t="inlineStr">
-        <is>
-          <t>2021-02-12 20:57:25</t>
-        </is>
+      <c r="H298" s="1" t="n">
+        <v>44239.87320601852</v>
       </c>
       <c r="I298" t="n">
         <v>1</v>
@@ -22192,10 +21614,8 @@
           <t>4110856710</t>
         </is>
       </c>
-      <c r="H299" t="inlineStr">
-        <is>
-          <t>2021-02-12 20:57:23</t>
-        </is>
+      <c r="H299" s="1" t="n">
+        <v>44239.87318287037</v>
       </c>
       <c r="I299" t="n">
         <v>0</v>
@@ -22271,10 +21691,8 @@
           <t>4110773183</t>
         </is>
       </c>
-      <c r="H300" t="inlineStr">
-        <is>
-          <t>2021-02-12 20:57:04</t>
-        </is>
+      <c r="H300" s="1" t="n">
+        <v>44239.87296296296</v>
       </c>
       <c r="I300" t="n">
         <v>0</v>
@@ -22338,10 +21756,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H301" t="inlineStr">
-        <is>
-          <t>2021-02-12 20:57:01</t>
-        </is>
+      <c r="H301" s="1" t="n">
+        <v>44239.87292824074</v>
       </c>
       <c r="I301" t="n">
         <v>0</v>
@@ -22405,10 +21821,8 @@
           <t>4110712883</t>
         </is>
       </c>
-      <c r="H302" t="inlineStr">
-        <is>
-          <t>2021-02-12 20:56:54</t>
-        </is>
+      <c r="H302" s="1" t="n">
+        <v>44239.87284722222</v>
       </c>
       <c r="I302" t="n">
         <v>0</v>
@@ -22480,10 +21894,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H303" t="inlineStr">
-        <is>
-          <t>2021-02-12 20:56:52</t>
-        </is>
+      <c r="H303" s="1" t="n">
+        <v>44239.87282407407</v>
       </c>
       <c r="I303" t="n">
         <v>586</v>
@@ -22555,10 +21967,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H304" t="inlineStr">
-        <is>
-          <t>2021-02-12 20:56:41</t>
-        </is>
+      <c r="H304" s="1" t="n">
+        <v>44239.87269675926</v>
       </c>
       <c r="I304" t="n">
         <v>0</v>
@@ -22630,10 +22040,8 @@
           <t>4110855311</t>
         </is>
       </c>
-      <c r="H305" t="inlineStr">
-        <is>
-          <t>2021-02-12 20:56:41</t>
-        </is>
+      <c r="H305" s="1" t="n">
+        <v>44239.87269675926</v>
       </c>
       <c r="I305" t="n">
         <v>0</v>
@@ -22709,10 +22117,8 @@
           <t>4110773183</t>
         </is>
       </c>
-      <c r="H306" t="inlineStr">
-        <is>
-          <t>2021-02-12 20:56:28</t>
-        </is>
+      <c r="H306" s="1" t="n">
+        <v>44239.8725462963</v>
       </c>
       <c r="I306" t="n">
         <v>0</v>
@@ -22788,10 +22194,8 @@
           <t>4110842902</t>
         </is>
       </c>
-      <c r="H307" t="inlineStr">
-        <is>
-          <t>2021-02-12 20:55:25</t>
-        </is>
+      <c r="H307" s="1" t="n">
+        <v>44239.87181712963</v>
       </c>
       <c r="I307" t="n">
         <v>3</v>
@@ -22863,10 +22267,8 @@
           <t>4110842819</t>
         </is>
       </c>
-      <c r="H308" t="inlineStr">
-        <is>
-          <t>2021-02-12 20:55:22</t>
-        </is>
+      <c r="H308" s="1" t="n">
+        <v>44239.8717824074</v>
       </c>
       <c r="I308" t="n">
         <v>0</v>
@@ -22942,10 +22344,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H309" t="inlineStr">
-        <is>
-          <t>2021-02-12 20:55:12</t>
-        </is>
+      <c r="H309" s="1" t="n">
+        <v>44239.87166666667</v>
       </c>
       <c r="I309" t="n">
         <v>0</v>
@@ -23021,10 +22421,8 @@
           <t>4110751941</t>
         </is>
       </c>
-      <c r="H310" t="inlineStr">
-        <is>
-          <t>2021-02-12 20:54:56</t>
-        </is>
+      <c r="H310" s="1" t="n">
+        <v>44239.87148148148</v>
       </c>
       <c r="I310" t="n">
         <v>0</v>
@@ -23100,10 +22498,8 @@
           <t>4110837222</t>
         </is>
       </c>
-      <c r="H311" t="inlineStr">
-        <is>
-          <t>2021-02-12 20:54:39</t>
-        </is>
+      <c r="H311" s="1" t="n">
+        <v>44239.87128472222</v>
       </c>
       <c r="I311" t="n">
         <v>0</v>
@@ -23171,10 +22567,8 @@
           <t>4110841379</t>
         </is>
       </c>
-      <c r="H312" t="inlineStr">
-        <is>
-          <t>2021-02-12 20:54:38</t>
-        </is>
+      <c r="H312" s="1" t="n">
+        <v>44239.87127314815</v>
       </c>
       <c r="I312" t="n">
         <v>0</v>
@@ -23250,10 +22644,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H313" t="inlineStr">
-        <is>
-          <t>2021-02-12 20:54:33</t>
-        </is>
+      <c r="H313" s="1" t="n">
+        <v>44239.87121527778</v>
       </c>
       <c r="I313" t="n">
         <v>0</v>
@@ -23321,10 +22713,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H314" t="inlineStr">
-        <is>
-          <t>2021-02-12 20:54:29</t>
-        </is>
+      <c r="H314" s="1" t="n">
+        <v>44239.87116898148</v>
       </c>
       <c r="I314" t="n">
         <v>0</v>
@@ -23396,10 +22786,8 @@
           <t>4110797886</t>
         </is>
       </c>
-      <c r="H315" t="inlineStr">
-        <is>
-          <t>2021-02-12 20:54:21</t>
-        </is>
+      <c r="H315" s="1" t="n">
+        <v>44239.87107638889</v>
       </c>
       <c r="I315" t="n">
         <v>1</v>
@@ -23475,10 +22863,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H316" t="inlineStr">
-        <is>
-          <t>2021-02-12 20:54:20</t>
-        </is>
+      <c r="H316" s="1" t="n">
+        <v>44239.87106481481</v>
       </c>
       <c r="I316" t="n">
         <v>0</v>
@@ -23546,10 +22932,8 @@
           <t>4110820991</t>
         </is>
       </c>
-      <c r="H317" t="inlineStr">
-        <is>
-          <t>2021-02-12 20:54:16</t>
-        </is>
+      <c r="H317" s="1" t="n">
+        <v>44239.87101851852</v>
       </c>
       <c r="I317" t="n">
         <v>1</v>
@@ -23613,10 +22997,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H318" t="inlineStr">
-        <is>
-          <t>2021-02-12 20:54:12</t>
-        </is>
+      <c r="H318" s="1" t="n">
+        <v>44239.87097222222</v>
       </c>
       <c r="I318" t="n">
         <v>2</v>
@@ -23684,10 +23066,8 @@
           <t>4110836245</t>
         </is>
       </c>
-      <c r="H319" t="inlineStr">
-        <is>
-          <t>2021-02-12 20:54:07</t>
-        </is>
+      <c r="H319" s="1" t="n">
+        <v>44239.87091435185</v>
       </c>
       <c r="I319" t="n">
         <v>38</v>
@@ -23759,10 +23139,8 @@
           <t>4110766080</t>
         </is>
       </c>
-      <c r="H320" t="inlineStr">
-        <is>
-          <t>2021-02-12 20:53:57</t>
-        </is>
+      <c r="H320" s="1" t="n">
+        <v>44239.87079861111</v>
       </c>
       <c r="I320" t="n">
         <v>0</v>
@@ -23831,10 +23209,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H321" t="inlineStr">
-        <is>
-          <t>2021-02-12 20:53:53</t>
-        </is>
+      <c r="H321" s="1" t="n">
+        <v>44239.87075231481</v>
       </c>
       <c r="I321" t="n">
         <v>0</v>
@@ -23902,10 +23278,8 @@
           <t>4110804929</t>
         </is>
       </c>
-      <c r="H322" t="inlineStr">
-        <is>
-          <t>2021-02-12 20:53:52</t>
-        </is>
+      <c r="H322" s="1" t="n">
+        <v>44239.87074074074</v>
       </c>
       <c r="I322" t="n">
         <v>11</v>
@@ -23969,10 +23343,8 @@
           <t>4110835233</t>
         </is>
       </c>
-      <c r="H323" t="inlineStr">
-        <is>
-          <t>2021-02-12 20:53:35</t>
-        </is>
+      <c r="H323" s="1" t="n">
+        <v>44239.87054398148</v>
       </c>
       <c r="I323" t="n">
         <v>0</v>
@@ -24048,10 +23420,8 @@
           <t>4110820991</t>
         </is>
       </c>
-      <c r="H324" t="inlineStr">
-        <is>
-          <t>2021-02-12 20:53:35</t>
-        </is>
+      <c r="H324" s="1" t="n">
+        <v>44239.87054398148</v>
       </c>
       <c r="I324" t="n">
         <v>0</v>
@@ -24128,10 +23498,8 @@
           <t>4110785857</t>
         </is>
       </c>
-      <c r="H325" t="inlineStr">
-        <is>
-          <t>2021-02-12 20:53:32</t>
-        </is>
+      <c r="H325" s="1" t="n">
+        <v>44239.87050925926</v>
       </c>
       <c r="I325" t="n">
         <v>0</v>
@@ -24207,10 +23575,8 @@
           <t>4110820991</t>
         </is>
       </c>
-      <c r="H326" t="inlineStr">
-        <is>
-          <t>2021-02-12 20:53:31</t>
-        </is>
+      <c r="H326" s="1" t="n">
+        <v>44239.87049768519</v>
       </c>
       <c r="I326" t="n">
         <v>0</v>
@@ -24286,10 +23652,8 @@
           <t>4110830340</t>
         </is>
       </c>
-      <c r="H327" t="inlineStr">
-        <is>
-          <t>2021-02-12 20:53:25</t>
-        </is>
+      <c r="H327" s="1" t="n">
+        <v>44239.87042824074</v>
       </c>
       <c r="I327" t="n">
         <v>13</v>
@@ -24361,10 +23725,8 @@
           <t>4110804929</t>
         </is>
       </c>
-      <c r="H328" t="inlineStr">
-        <is>
-          <t>2021-02-12 20:53:23</t>
-        </is>
+      <c r="H328" s="1" t="n">
+        <v>44239.8704050926</v>
       </c>
       <c r="I328" t="n">
         <v>2</v>
@@ -24440,10 +23802,8 @@
           <t>4110804929</t>
         </is>
       </c>
-      <c r="H329" t="inlineStr">
-        <is>
-          <t>2021-02-12 20:53:22</t>
-        </is>
+      <c r="H329" s="1" t="n">
+        <v>44239.87039351852</v>
       </c>
       <c r="I329" t="n">
         <v>0</v>
@@ -24507,10 +23867,8 @@
           <t>4110804929</t>
         </is>
       </c>
-      <c r="H330" t="inlineStr">
-        <is>
-          <t>2021-02-12 20:53:11</t>
-        </is>
+      <c r="H330" s="1" t="n">
+        <v>44239.8702662037</v>
       </c>
       <c r="I330" t="n">
         <v>0</v>
@@ -24574,10 +23932,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H331" t="inlineStr">
-        <is>
-          <t>2021-02-12 20:53:05</t>
-        </is>
+      <c r="H331" s="1" t="n">
+        <v>44239.87019675926</v>
       </c>
       <c r="I331" t="n">
         <v>568</v>
@@ -24653,10 +24009,8 @@
           <t>4110823841</t>
         </is>
       </c>
-      <c r="H332" t="inlineStr">
-        <is>
-          <t>2021-02-12 20:52:49</t>
-        </is>
+      <c r="H332" s="1" t="n">
+        <v>44239.87001157407</v>
       </c>
       <c r="I332" t="n">
         <v>0</v>
@@ -24724,10 +24078,8 @@
           <t>4110766080</t>
         </is>
       </c>
-      <c r="H333" t="inlineStr">
-        <is>
-          <t>2021-02-12 20:52:42</t>
-        </is>
+      <c r="H333" s="1" t="n">
+        <v>44239.86993055556</v>
       </c>
       <c r="I333" t="n">
         <v>4</v>
@@ -24799,10 +24151,8 @@
           <t>4110743351</t>
         </is>
       </c>
-      <c r="H334" t="inlineStr">
-        <is>
-          <t>2021-02-12 20:52:37</t>
-        </is>
+      <c r="H334" s="1" t="n">
+        <v>44239.86987268519</v>
       </c>
       <c r="I334" t="n">
         <v>0</v>
@@ -24878,10 +24228,8 @@
           <t>4110823441</t>
         </is>
       </c>
-      <c r="H335" t="inlineStr">
-        <is>
-          <t>2021-02-12 20:52:36</t>
-        </is>
+      <c r="H335" s="1" t="n">
+        <v>44239.86986111111</v>
       </c>
       <c r="I335" t="n">
         <v>24</v>
@@ -24953,10 +24301,8 @@
           <t>4110804929</t>
         </is>
       </c>
-      <c r="H336" t="inlineStr">
-        <is>
-          <t>2021-02-12 20:52:32</t>
-        </is>
+      <c r="H336" s="1" t="n">
+        <v>44239.86981481482</v>
       </c>
       <c r="I336" t="n">
         <v>7</v>
@@ -25028,10 +24374,8 @@
           <t>4110820991</t>
         </is>
       </c>
-      <c r="H337" t="inlineStr">
-        <is>
-          <t>2021-02-12 20:52:20</t>
-        </is>
+      <c r="H337" s="1" t="n">
+        <v>44239.86967592593</v>
       </c>
       <c r="I337" t="n">
         <v>26</v>
@@ -25107,10 +24451,8 @@
           <t>4110807114</t>
         </is>
       </c>
-      <c r="H338" t="inlineStr">
-        <is>
-          <t>2021-02-12 20:52:17</t>
-        </is>
+      <c r="H338" s="1" t="n">
+        <v>44239.8696412037</v>
       </c>
       <c r="I338" t="n">
         <v>0</v>
@@ -25174,10 +24516,8 @@
           <t>4110807114</t>
         </is>
       </c>
-      <c r="H339" t="inlineStr">
-        <is>
-          <t>2021-02-12 20:52:13</t>
-        </is>
+      <c r="H339" s="1" t="n">
+        <v>44239.86959490741</v>
       </c>
       <c r="I339" t="n">
         <v>0</v>
@@ -25253,10 +24593,8 @@
           <t>4110818050</t>
         </is>
       </c>
-      <c r="H340" t="inlineStr">
-        <is>
-          <t>2021-02-12 20:52:09</t>
-        </is>
+      <c r="H340" s="1" t="n">
+        <v>44239.86954861111</v>
       </c>
       <c r="I340" t="n">
         <v>0</v>
@@ -25332,10 +24670,8 @@
           <t>4110786900</t>
         </is>
       </c>
-      <c r="H341" t="inlineStr">
-        <is>
-          <t>2021-02-12 20:51:59</t>
-        </is>
+      <c r="H341" s="1" t="n">
+        <v>44239.86943287037</v>
       </c>
       <c r="I341" t="n">
         <v>0</v>
@@ -25395,10 +24731,8 @@
           <t>4110826012</t>
         </is>
       </c>
-      <c r="H342" t="inlineStr">
-        <is>
-          <t>2021-02-12 20:51:54</t>
-        </is>
+      <c r="H342" s="1" t="n">
+        <v>44239.869375</v>
       </c>
       <c r="I342" t="n">
         <v>0</v>
@@ -25470,10 +24804,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H343" t="inlineStr">
-        <is>
-          <t>2021-02-12 20:51:53</t>
-        </is>
+      <c r="H343" s="1" t="n">
+        <v>44239.86936342593</v>
       </c>
       <c r="I343" t="n">
         <v>0</v>
@@ -25541,10 +24873,8 @@
           <t>4110797886</t>
         </is>
       </c>
-      <c r="H344" t="inlineStr">
-        <is>
-          <t>2021-02-12 20:51:49</t>
-        </is>
+      <c r="H344" s="1" t="n">
+        <v>44239.86931712963</v>
       </c>
       <c r="I344" t="n">
         <v>2</v>
@@ -25608,10 +24938,8 @@
           <t>4110776539</t>
         </is>
       </c>
-      <c r="H345" t="inlineStr">
-        <is>
-          <t>2021-02-12 20:51:48</t>
-        </is>
+      <c r="H345" s="1" t="n">
+        <v>44239.86930555556</v>
       </c>
       <c r="I345" t="n">
         <v>0</v>
@@ -25679,10 +25007,8 @@
           <t>4110807114</t>
         </is>
       </c>
-      <c r="H346" t="inlineStr">
-        <is>
-          <t>2021-02-12 20:51:47</t>
-        </is>
+      <c r="H346" s="1" t="n">
+        <v>44239.86929398148</v>
       </c>
       <c r="I346" t="n">
         <v>0</v>
@@ -25750,10 +25076,8 @@
           <t>4110754241</t>
         </is>
       </c>
-      <c r="H347" t="inlineStr">
-        <is>
-          <t>2021-02-12 20:51:43</t>
-        </is>
+      <c r="H347" s="1" t="n">
+        <v>44239.86924768519</v>
       </c>
       <c r="I347" t="n">
         <v>2</v>
@@ -25829,10 +25153,8 @@
           <t>4110821566</t>
         </is>
       </c>
-      <c r="H348" t="inlineStr">
-        <is>
-          <t>2021-02-12 20:51:34</t>
-        </is>
+      <c r="H348" s="1" t="n">
+        <v>44239.86914351852</v>
       </c>
       <c r="I348" t="n">
         <v>0</v>
@@ -25904,10 +25226,8 @@
           <t>4110787997</t>
         </is>
       </c>
-      <c r="H349" t="inlineStr">
-        <is>
-          <t>2021-02-12 20:51:31</t>
-        </is>
+      <c r="H349" s="1" t="n">
+        <v>44239.86910879629</v>
       </c>
       <c r="I349" t="n">
         <v>4</v>
@@ -25980,10 +25300,8 @@
           <t>4110816915</t>
         </is>
       </c>
-      <c r="H350" t="inlineStr">
-        <is>
-          <t>2021-02-12 20:51:30</t>
-        </is>
+      <c r="H350" s="1" t="n">
+        <v>44239.86909722222</v>
       </c>
       <c r="I350" t="n">
         <v>1</v>
@@ -26055,10 +25373,8 @@
           <t>4110776539</t>
         </is>
       </c>
-      <c r="H351" t="inlineStr">
-        <is>
-          <t>2021-02-12 20:51:23</t>
-        </is>
+      <c r="H351" s="1" t="n">
+        <v>44239.8690162037</v>
       </c>
       <c r="I351" t="n">
         <v>1</v>
@@ -26134,10 +25450,8 @@
           <t>4110807114</t>
         </is>
       </c>
-      <c r="H352" t="inlineStr">
-        <is>
-          <t>2021-02-12 20:51:21</t>
-        </is>
+      <c r="H352" s="1" t="n">
+        <v>44239.86899305556</v>
       </c>
       <c r="I352" t="n">
         <v>0</v>
@@ -26213,10 +25527,8 @@
           <t>4110807114</t>
         </is>
       </c>
-      <c r="H353" t="inlineStr">
-        <is>
-          <t>2021-02-12 20:51:17</t>
-        </is>
+      <c r="H353" s="1" t="n">
+        <v>44239.86894675926</v>
       </c>
       <c r="I353" t="n">
         <v>0</v>
@@ -26280,10 +25592,8 @@
           <t>4110807114</t>
         </is>
       </c>
-      <c r="H354" t="inlineStr">
-        <is>
-          <t>2021-02-12 20:51:06</t>
-        </is>
+      <c r="H354" s="1" t="n">
+        <v>44239.86881944445</v>
       </c>
       <c r="I354" t="n">
         <v>0</v>
@@ -26351,10 +25661,8 @@
           <t>4110786900</t>
         </is>
       </c>
-      <c r="H355" t="inlineStr">
-        <is>
-          <t>2021-02-12 20:51:05</t>
-        </is>
+      <c r="H355" s="1" t="n">
+        <v>44239.86880787037</v>
       </c>
       <c r="I355" t="n">
         <v>0</v>
@@ -26418,10 +25726,8 @@
           <t>4110807114</t>
         </is>
       </c>
-      <c r="H356" t="inlineStr">
-        <is>
-          <t>2021-02-12 20:50:54</t>
-        </is>
+      <c r="H356" s="1" t="n">
+        <v>44239.86868055556</v>
       </c>
       <c r="I356" t="n">
         <v>1</v>
@@ -26489,10 +25795,8 @@
           <t>4110807114</t>
         </is>
       </c>
-      <c r="H357" t="inlineStr">
-        <is>
-          <t>2021-02-12 20:50:54</t>
-        </is>
+      <c r="H357" s="1" t="n">
+        <v>44239.86868055556</v>
       </c>
       <c r="I357" t="n">
         <v>0</v>
@@ -26556,10 +25860,8 @@
           <t>4110820270</t>
         </is>
       </c>
-      <c r="H358" t="inlineStr">
-        <is>
-          <t>2021-02-12 20:50:52</t>
-        </is>
+      <c r="H358" s="1" t="n">
+        <v>44239.86865740741</v>
       </c>
       <c r="I358" t="n">
         <v>54</v>
@@ -26635,10 +25937,8 @@
           <t>4110807114</t>
         </is>
       </c>
-      <c r="H359" t="inlineStr">
-        <is>
-          <t>2021-02-12 20:50:47</t>
-        </is>
+      <c r="H359" s="1" t="n">
+        <v>44239.86859953704</v>
       </c>
       <c r="I359" t="n">
         <v>0</v>
@@ -26706,10 +26006,8 @@
           <t>4110807114</t>
         </is>
       </c>
-      <c r="H360" t="inlineStr">
-        <is>
-          <t>2021-02-12 20:50:44</t>
-        </is>
+      <c r="H360" s="1" t="n">
+        <v>44239.86856481482</v>
       </c>
       <c r="I360" t="n">
         <v>0</v>
@@ -26781,10 +26079,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H361" t="inlineStr">
-        <is>
-          <t>2021-02-12 20:50:42</t>
-        </is>
+      <c r="H361" s="1" t="n">
+        <v>44239.86854166666</v>
       </c>
       <c r="I361" t="n">
         <v>0</v>
@@ -26852,10 +26148,8 @@
           <t>4110743351</t>
         </is>
       </c>
-      <c r="H362" t="inlineStr">
-        <is>
-          <t>2021-02-12 20:50:42</t>
-        </is>
+      <c r="H362" s="1" t="n">
+        <v>44239.86854166666</v>
       </c>
       <c r="I362" t="n">
         <v>0</v>
@@ -26919,10 +26213,8 @@
           <t>4110807114</t>
         </is>
       </c>
-      <c r="H363" t="inlineStr">
-        <is>
-          <t>2021-02-12 20:50:40</t>
-        </is>
+      <c r="H363" s="1" t="n">
+        <v>44239.86851851852</v>
       </c>
       <c r="I363" t="n">
         <v>0</v>
@@ -26986,10 +26278,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H364" t="inlineStr">
-        <is>
-          <t>2021-02-12 20:50:36</t>
-        </is>
+      <c r="H364" s="1" t="n">
+        <v>44239.86847222222</v>
       </c>
       <c r="I364" t="n">
         <v>0</v>
@@ -27053,10 +26343,8 @@
           <t>4110807114</t>
         </is>
       </c>
-      <c r="H365" t="inlineStr">
-        <is>
-          <t>2021-02-12 20:50:36</t>
-        </is>
+      <c r="H365" s="1" t="n">
+        <v>44239.86847222222</v>
       </c>
       <c r="I365" t="n">
         <v>0</v>
@@ -27132,10 +26420,8 @@
           <t>4110779345</t>
         </is>
       </c>
-      <c r="H366" t="inlineStr">
-        <is>
-          <t>2021-02-12 20:50:35</t>
-        </is>
+      <c r="H366" s="1" t="n">
+        <v>44239.86846064815</v>
       </c>
       <c r="I366" t="n">
         <v>0</v>
@@ -27211,10 +26497,8 @@
           <t>4110807114</t>
         </is>
       </c>
-      <c r="H367" t="inlineStr">
-        <is>
-          <t>2021-02-12 20:50:33</t>
-        </is>
+      <c r="H367" s="1" t="n">
+        <v>44239.8684375</v>
       </c>
       <c r="I367" t="n">
         <v>0</v>
@@ -27282,10 +26566,8 @@
           <t>4110807114</t>
         </is>
       </c>
-      <c r="H368" t="inlineStr">
-        <is>
-          <t>2021-02-12 20:50:33</t>
-        </is>
+      <c r="H368" s="1" t="n">
+        <v>44239.8684375</v>
       </c>
       <c r="I368" t="n">
         <v>0</v>
@@ -27353,10 +26635,8 @@
           <t>4110809623</t>
         </is>
       </c>
-      <c r="H369" t="inlineStr">
-        <is>
-          <t>2021-02-12 20:50:32</t>
-        </is>
+      <c r="H369" s="1" t="n">
+        <v>44239.86842592592</v>
       </c>
       <c r="I369" t="n">
         <v>1</v>
@@ -27424,10 +26704,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H370" t="inlineStr">
-        <is>
-          <t>2021-02-12 20:50:28</t>
-        </is>
+      <c r="H370" s="1" t="n">
+        <v>44239.86837962963</v>
       </c>
       <c r="I370" t="n">
         <v>0</v>
@@ -27503,10 +26781,8 @@
           <t>4110807114</t>
         </is>
       </c>
-      <c r="H371" t="inlineStr">
-        <is>
-          <t>2021-02-12 20:50:23</t>
-        </is>
+      <c r="H371" s="1" t="n">
+        <v>44239.86832175926</v>
       </c>
       <c r="I371" t="n">
         <v>0</v>
@@ -27582,10 +26858,8 @@
           <t>4110804890</t>
         </is>
       </c>
-      <c r="H372" t="inlineStr">
-        <is>
-          <t>2021-02-12 20:50:23</t>
-        </is>
+      <c r="H372" s="1" t="n">
+        <v>44239.86832175926</v>
       </c>
       <c r="I372" t="n">
         <v>1</v>
@@ -27657,10 +26931,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H373" t="inlineStr">
-        <is>
-          <t>2021-02-12 20:50:15</t>
-        </is>
+      <c r="H373" s="1" t="n">
+        <v>44239.86822916667</v>
       </c>
       <c r="I373" t="n">
         <v>126</v>
@@ -27736,10 +27008,8 @@
           <t>4110790279</t>
         </is>
       </c>
-      <c r="H374" t="inlineStr">
-        <is>
-          <t>2021-02-12 20:50:14</t>
-        </is>
+      <c r="H374" s="1" t="n">
+        <v>44239.86821759259</v>
       </c>
       <c r="I374" t="n">
         <v>1</v>
@@ -27799,10 +27069,8 @@
           <t>4110804629</t>
         </is>
       </c>
-      <c r="H375" t="inlineStr">
-        <is>
-          <t>2021-02-12 20:50:14</t>
-        </is>
+      <c r="H375" s="1" t="n">
+        <v>44239.86821759259</v>
       </c>
       <c r="I375" t="n">
         <v>0</v>
@@ -27866,10 +27134,8 @@
           <t>4110787997</t>
         </is>
       </c>
-      <c r="H376" t="inlineStr">
-        <is>
-          <t>2021-02-12 20:50:12</t>
-        </is>
+      <c r="H376" s="1" t="n">
+        <v>44239.86819444445</v>
       </c>
       <c r="I376" t="n">
         <v>4</v>
@@ -27945,10 +27211,8 @@
           <t>4110752811</t>
         </is>
       </c>
-      <c r="H377" t="inlineStr">
-        <is>
-          <t>2021-02-12 20:49:54</t>
-        </is>
+      <c r="H377" s="1" t="n">
+        <v>44239.86798611111</v>
       </c>
       <c r="I377" t="n">
         <v>0</v>
@@ -28020,10 +27284,8 @@
           <t>4110786900</t>
         </is>
       </c>
-      <c r="H378" t="inlineStr">
-        <is>
-          <t>2021-02-12 20:49:52</t>
-        </is>
+      <c r="H378" s="1" t="n">
+        <v>44239.86796296296</v>
       </c>
       <c r="I378" t="n">
         <v>0</v>
@@ -28083,10 +27345,8 @@
           <t>4110752384</t>
         </is>
       </c>
-      <c r="H379" t="inlineStr">
-        <is>
-          <t>2021-02-12 20:49:52</t>
-        </is>
+      <c r="H379" s="1" t="n">
+        <v>44239.86796296296</v>
       </c>
       <c r="I379" t="n">
         <v>1</v>
@@ -28158,10 +27418,8 @@
           <t>4110779345</t>
         </is>
       </c>
-      <c r="H380" t="inlineStr">
-        <is>
-          <t>2021-02-12 20:49:41</t>
-        </is>
+      <c r="H380" s="1" t="n">
+        <v>44239.86783564815</v>
       </c>
       <c r="I380" t="n">
         <v>0</v>
@@ -28229,10 +27487,8 @@
           <t>4110779345</t>
         </is>
       </c>
-      <c r="H381" t="inlineStr">
-        <is>
-          <t>2021-02-12 20:49:18</t>
-        </is>
+      <c r="H381" s="1" t="n">
+        <v>44239.86756944445</v>
       </c>
       <c r="I381" t="n">
         <v>0</v>
@@ -28308,10 +27564,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H382" t="inlineStr">
-        <is>
-          <t>2021-02-12 20:49:16</t>
-        </is>
+      <c r="H382" s="1" t="n">
+        <v>44239.86754629629</v>
       </c>
       <c r="I382" t="n">
         <v>0</v>
@@ -28380,10 +27634,8 @@
           <t>4110779345</t>
         </is>
       </c>
-      <c r="H383" t="inlineStr">
-        <is>
-          <t>2021-02-12 20:49:12</t>
-        </is>
+      <c r="H383" s="1" t="n">
+        <v>44239.8675</v>
       </c>
       <c r="I383" t="n">
         <v>0</v>
@@ -28459,10 +27711,8 @@
           <t>4110801983</t>
         </is>
       </c>
-      <c r="H384" t="inlineStr">
-        <is>
-          <t>2021-02-12 20:48:48</t>
-        </is>
+      <c r="H384" s="1" t="n">
+        <v>44239.86722222222</v>
       </c>
       <c r="I384" t="n">
         <v>12</v>
@@ -28538,10 +27788,8 @@
           <t>4110779345</t>
         </is>
       </c>
-      <c r="H385" t="inlineStr">
-        <is>
-          <t>2021-02-12 20:48:46</t>
-        </is>
+      <c r="H385" s="1" t="n">
+        <v>44239.86719907408</v>
       </c>
       <c r="I385" t="n">
         <v>0</v>
@@ -28609,10 +27857,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H386" t="inlineStr">
-        <is>
-          <t>2021-02-12 20:48:41</t>
-        </is>
+      <c r="H386" s="1" t="n">
+        <v>44239.8671412037</v>
       </c>
       <c r="I386" t="n">
         <v>0</v>
@@ -28690,10 +27936,8 @@
           <t>4110790279</t>
         </is>
       </c>
-      <c r="H387" t="inlineStr">
-        <is>
-          <t>2021-02-12 20:48:35</t>
-        </is>
+      <c r="H387" s="1" t="n">
+        <v>44239.86707175926</v>
       </c>
       <c r="I387" t="n">
         <v>0</v>
@@ -28757,10 +28001,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H388" t="inlineStr">
-        <is>
-          <t>2021-02-12 20:48:30</t>
-        </is>
+      <c r="H388" s="1" t="n">
+        <v>44239.86701388889</v>
       </c>
       <c r="I388" t="n">
         <v>1</v>
@@ -28836,10 +28078,8 @@
           <t>4110779345</t>
         </is>
       </c>
-      <c r="H389" t="inlineStr">
-        <is>
-          <t>2021-02-12 20:48:29</t>
-        </is>
+      <c r="H389" s="1" t="n">
+        <v>44239.86700231482</v>
       </c>
       <c r="I389" t="n">
         <v>0</v>
@@ -28911,10 +28151,8 @@
           <t>4110779345</t>
         </is>
       </c>
-      <c r="H390" t="inlineStr">
-        <is>
-          <t>2021-02-12 20:48:19</t>
-        </is>
+      <c r="H390" s="1" t="n">
+        <v>44239.86688657408</v>
       </c>
       <c r="I390" t="n">
         <v>0</v>
@@ -28990,10 +28228,8 @@
           <t>4110798535</t>
         </is>
       </c>
-      <c r="H391" t="inlineStr">
-        <is>
-          <t>2021-02-12 20:48:03</t>
-        </is>
+      <c r="H391" s="1" t="n">
+        <v>44239.86670138889</v>
       </c>
       <c r="I391" t="n">
         <v>0</v>
@@ -29061,10 +28297,8 @@
           <t>4110779345</t>
         </is>
       </c>
-      <c r="H392" t="inlineStr">
-        <is>
-          <t>2021-02-12 20:48:02</t>
-        </is>
+      <c r="H392" s="1" t="n">
+        <v>44239.86668981481</v>
       </c>
       <c r="I392" t="n">
         <v>0</v>
@@ -29136,10 +28370,8 @@
           <t>4110790279</t>
         </is>
       </c>
-      <c r="H393" t="inlineStr">
-        <is>
-          <t>2021-02-12 20:47:59</t>
-        </is>
+      <c r="H393" s="1" t="n">
+        <v>44239.86665509259</v>
       </c>
       <c r="I393" t="n">
         <v>0</v>
@@ -29215,10 +28447,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H394" t="inlineStr">
-        <is>
-          <t>2021-02-12 20:47:53</t>
-        </is>
+      <c r="H394" s="1" t="n">
+        <v>44239.86658564815</v>
       </c>
       <c r="I394" t="n">
         <v>0</v>
@@ -29286,10 +28516,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H395" t="inlineStr">
-        <is>
-          <t>2021-02-12 20:47:48</t>
-        </is>
+      <c r="H395" s="1" t="n">
+        <v>44239.86652777778</v>
       </c>
       <c r="I395" t="n">
         <v>0</v>
@@ -29365,10 +28593,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H396" t="inlineStr">
-        <is>
-          <t>2021-02-12 20:47:47</t>
-        </is>
+      <c r="H396" s="1" t="n">
+        <v>44239.86651620371</v>
       </c>
       <c r="I396" t="n">
         <v>0</v>
@@ -29444,10 +28670,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H397" t="inlineStr">
-        <is>
-          <t>2021-02-12 20:47:39</t>
-        </is>
+      <c r="H397" s="1" t="n">
+        <v>44239.86642361111</v>
       </c>
       <c r="I397" t="n">
         <v>1088</v>
@@ -29515,10 +28739,8 @@
           <t>4110779345</t>
         </is>
       </c>
-      <c r="H398" t="inlineStr">
-        <is>
-          <t>2021-02-12 20:47:36</t>
-        </is>
+      <c r="H398" s="1" t="n">
+        <v>44239.86638888889</v>
       </c>
       <c r="I398" t="n">
         <v>1</v>
@@ -29582,10 +28804,8 @@
           <t>4110794276</t>
         </is>
       </c>
-      <c r="H399" t="inlineStr">
-        <is>
-          <t>2021-02-12 20:47:34</t>
-        </is>
+      <c r="H399" s="1" t="n">
+        <v>44239.86636574074</v>
       </c>
       <c r="I399" t="n">
         <v>54</v>
@@ -29661,10 +28881,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H400" t="inlineStr">
-        <is>
-          <t>2021-02-12 20:47:12</t>
-        </is>
+      <c r="H400" s="1" t="n">
+        <v>44239.86611111111</v>
       </c>
       <c r="I400" t="n">
         <v>0</v>
@@ -29740,10 +28958,8 @@
           <t>4110790279</t>
         </is>
       </c>
-      <c r="H401" t="inlineStr">
-        <is>
-          <t>2021-02-12 20:47:11</t>
-        </is>
+      <c r="H401" s="1" t="n">
+        <v>44239.86609953704</v>
       </c>
       <c r="I401" t="n">
         <v>0</v>
@@ -29803,10 +29019,8 @@
           <t>4110796868</t>
         </is>
       </c>
-      <c r="H402" t="inlineStr">
-        <is>
-          <t>2021-02-12 20:47:10</t>
-        </is>
+      <c r="H402" s="1" t="n">
+        <v>44239.86608796296</v>
       </c>
       <c r="I402" t="n">
         <v>0</v>
@@ -29874,10 +29088,8 @@
           <t>4110796599</t>
         </is>
       </c>
-      <c r="H403" t="inlineStr">
-        <is>
-          <t>2021-02-12 20:47:02</t>
-        </is>
+      <c r="H403" s="1" t="n">
+        <v>44239.86599537037</v>
       </c>
       <c r="I403" t="n">
         <v>0</v>
@@ -29949,10 +29161,8 @@
           <t>4110788719</t>
         </is>
       </c>
-      <c r="H404" t="inlineStr">
-        <is>
-          <t>2021-02-12 20:47:01</t>
-        </is>
+      <c r="H404" s="1" t="n">
+        <v>44239.8659837963</v>
       </c>
       <c r="I404" t="n">
         <v>0</v>
@@ -30024,10 +29234,8 @@
           <t>4110793214</t>
         </is>
       </c>
-      <c r="H405" t="inlineStr">
-        <is>
-          <t>2021-02-12 20:46:59</t>
-        </is>
+      <c r="H405" s="1" t="n">
+        <v>44239.86596064815</v>
       </c>
       <c r="I405" t="n">
         <v>0</v>
@@ -30099,10 +29307,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H406" t="inlineStr">
-        <is>
-          <t>2021-02-12 20:46:56</t>
-        </is>
+      <c r="H406" s="1" t="n">
+        <v>44239.86592592593</v>
       </c>
       <c r="I406" t="n">
         <v>0</v>
@@ -30170,10 +29376,8 @@
           <t>4110796217</t>
         </is>
       </c>
-      <c r="H407" t="inlineStr">
-        <is>
-          <t>2021-02-12 20:46:50</t>
-        </is>
+      <c r="H407" s="1" t="n">
+        <v>44239.86585648148</v>
       </c>
       <c r="I407" t="n">
         <v>8</v>
@@ -30249,10 +29453,8 @@
           <t>4110788277</t>
         </is>
       </c>
-      <c r="H408" t="inlineStr">
-        <is>
-          <t>2021-02-12 20:46:46</t>
-        </is>
+      <c r="H408" s="1" t="n">
+        <v>44239.86581018518</v>
       </c>
       <c r="I408" t="n">
         <v>0</v>
@@ -30316,10 +29518,8 @@
           <t>4110779345</t>
         </is>
       </c>
-      <c r="H409" t="inlineStr">
-        <is>
-          <t>2021-02-12 20:46:46</t>
-        </is>
+      <c r="H409" s="1" t="n">
+        <v>44239.86581018518</v>
       </c>
       <c r="I409" t="n">
         <v>0</v>
@@ -30383,10 +29583,8 @@
           <t>4110779345</t>
         </is>
       </c>
-      <c r="H410" t="inlineStr">
-        <is>
-          <t>2021-02-12 20:46:43</t>
-        </is>
+      <c r="H410" s="1" t="n">
+        <v>44239.86577546296</v>
       </c>
       <c r="I410" t="n">
         <v>1</v>
@@ -30462,10 +29660,8 @@
           <t>4110773183</t>
         </is>
       </c>
-      <c r="H411" t="inlineStr">
-        <is>
-          <t>2021-02-12 20:46:43</t>
-        </is>
+      <c r="H411" s="1" t="n">
+        <v>44239.86577546296</v>
       </c>
       <c r="I411" t="n">
         <v>0</v>
@@ -30529,10 +29725,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H412" t="inlineStr">
-        <is>
-          <t>2021-02-12 20:46:38</t>
-        </is>
+      <c r="H412" s="1" t="n">
+        <v>44239.86571759259</v>
       </c>
       <c r="I412" t="n">
         <v>26</v>
@@ -30596,10 +29790,8 @@
           <t>4110779345</t>
         </is>
       </c>
-      <c r="H413" t="inlineStr">
-        <is>
-          <t>2021-02-12 20:46:35</t>
-        </is>
+      <c r="H413" s="1" t="n">
+        <v>44239.86568287037</v>
       </c>
       <c r="I413" t="n">
         <v>1</v>
@@ -30663,10 +29855,8 @@
           <t>4110779345</t>
         </is>
       </c>
-      <c r="H414" t="inlineStr">
-        <is>
-          <t>2021-02-12 20:46:34</t>
-        </is>
+      <c r="H414" s="1" t="n">
+        <v>44239.8656712963</v>
       </c>
       <c r="I414" t="n">
         <v>0</v>
@@ -30742,10 +29932,8 @@
           <t>4110774035</t>
         </is>
       </c>
-      <c r="H415" t="inlineStr">
-        <is>
-          <t>2021-02-12 20:46:30</t>
-        </is>
+      <c r="H415" s="1" t="n">
+        <v>44239.865625</v>
       </c>
       <c r="I415" t="n">
         <v>0</v>
@@ -30805,10 +29993,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H416" t="inlineStr">
-        <is>
-          <t>2021-02-12 20:46:22</t>
-        </is>
+      <c r="H416" s="1" t="n">
+        <v>44239.86553240741</v>
       </c>
       <c r="I416" t="n">
         <v>0</v>
@@ -30876,10 +30062,8 @@
           <t>4110779345</t>
         </is>
       </c>
-      <c r="H417" t="inlineStr">
-        <is>
-          <t>2021-02-12 20:46:22</t>
-        </is>
+      <c r="H417" s="1" t="n">
+        <v>44239.86553240741</v>
       </c>
       <c r="I417" t="n">
         <v>0</v>
@@ -30947,10 +30131,8 @@
           <t>4110779345</t>
         </is>
       </c>
-      <c r="H418" t="inlineStr">
-        <is>
-          <t>2021-02-12 20:46:16</t>
-        </is>
+      <c r="H418" s="1" t="n">
+        <v>44239.86546296296</v>
       </c>
       <c r="I418" t="n">
         <v>2</v>
@@ -31026,10 +30208,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H419" t="inlineStr">
-        <is>
-          <t>2021-02-12 20:46:13</t>
-        </is>
+      <c r="H419" s="1" t="n">
+        <v>44239.86542824074</v>
       </c>
       <c r="I419" t="n">
         <v>1</v>
@@ -31101,10 +30281,8 @@
           <t>4110743351</t>
         </is>
       </c>
-      <c r="H420" t="inlineStr">
-        <is>
-          <t>2021-02-12 20:46:12</t>
-        </is>
+      <c r="H420" s="1" t="n">
+        <v>44239.86541666667</v>
       </c>
       <c r="I420" t="n">
         <v>0</v>
@@ -31176,10 +30354,8 @@
           <t>4110779345</t>
         </is>
       </c>
-      <c r="H421" t="inlineStr">
-        <is>
-          <t>2021-02-12 20:46:11</t>
-        </is>
+      <c r="H421" s="1" t="n">
+        <v>44239.86540509259</v>
       </c>
       <c r="I421" t="n">
         <v>0</v>
@@ -31251,10 +30427,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H422" t="inlineStr">
-        <is>
-          <t>2021-02-12 20:46:06</t>
-        </is>
+      <c r="H422" s="1" t="n">
+        <v>44239.86534722222</v>
       </c>
       <c r="I422" t="n">
         <v>233</v>
@@ -31326,10 +30500,8 @@
           <t>4110779345</t>
         </is>
       </c>
-      <c r="H423" t="inlineStr">
-        <is>
-          <t>2021-02-12 20:46:04</t>
-        </is>
+      <c r="H423" s="1" t="n">
+        <v>44239.86532407408</v>
       </c>
       <c r="I423" t="n">
         <v>0</v>
@@ -31393,10 +30565,8 @@
           <t>4110786900</t>
         </is>
       </c>
-      <c r="H424" t="inlineStr">
-        <is>
-          <t>2021-02-12 20:46:00</t>
-        </is>
+      <c r="H424" s="1" t="n">
+        <v>44239.86527777778</v>
       </c>
       <c r="I424" t="n">
         <v>0</v>
@@ -31464,10 +30634,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H425" t="inlineStr">
-        <is>
-          <t>2021-02-12 20:45:57</t>
-        </is>
+      <c r="H425" s="1" t="n">
+        <v>44239.86524305555</v>
       </c>
       <c r="I425" t="n">
         <v>51</v>
@@ -31543,10 +30711,8 @@
           <t>4110779345</t>
         </is>
       </c>
-      <c r="H426" t="inlineStr">
-        <is>
-          <t>2021-02-12 20:45:56</t>
-        </is>
+      <c r="H426" s="1" t="n">
+        <v>44239.86523148148</v>
       </c>
       <c r="I426" t="n">
         <v>7</v>
@@ -31618,10 +30784,8 @@
           <t>4110740608</t>
         </is>
       </c>
-      <c r="H427" t="inlineStr">
-        <is>
-          <t>2021-02-12 20:45:51</t>
-        </is>
+      <c r="H427" s="1" t="n">
+        <v>44239.86517361111</v>
       </c>
       <c r="I427" t="n">
         <v>0</v>
@@ -31697,10 +30861,8 @@
           <t>4110779732</t>
         </is>
       </c>
-      <c r="H428" t="inlineStr">
-        <is>
-          <t>2021-02-12 20:45:37</t>
-        </is>
+      <c r="H428" s="1" t="n">
+        <v>44239.86501157407</v>
       </c>
       <c r="I428" t="n">
         <v>1</v>
@@ -31768,10 +30930,8 @@
           <t>4110752384</t>
         </is>
       </c>
-      <c r="H429" t="inlineStr">
-        <is>
-          <t>2021-02-12 20:45:33</t>
-        </is>
+      <c r="H429" s="1" t="n">
+        <v>44239.86496527777</v>
       </c>
       <c r="I429" t="n">
         <v>2</v>
@@ -31847,10 +31007,8 @@
           <t>4110783734</t>
         </is>
       </c>
-      <c r="H430" t="inlineStr">
-        <is>
-          <t>2021-02-12 20:45:33</t>
-        </is>
+      <c r="H430" s="1" t="n">
+        <v>44239.86496527777</v>
       </c>
       <c r="I430" t="n">
         <v>0</v>
@@ -31918,10 +31076,8 @@
           <t>4110785857</t>
         </is>
       </c>
-      <c r="H431" t="inlineStr">
-        <is>
-          <t>2021-02-12 20:45:27</t>
-        </is>
+      <c r="H431" s="1" t="n">
+        <v>44239.86489583334</v>
       </c>
       <c r="I431" t="n">
         <v>0</v>
@@ -31989,10 +31145,8 @@
           <t>4110790279</t>
         </is>
       </c>
-      <c r="H432" t="inlineStr">
-        <is>
-          <t>2021-02-12 20:45:25</t>
-        </is>
+      <c r="H432" s="1" t="n">
+        <v>44239.86487268518</v>
       </c>
       <c r="I432" t="n">
         <v>0</v>
@@ -32056,10 +31210,8 @@
           <t>4110743351</t>
         </is>
       </c>
-      <c r="H433" t="inlineStr">
-        <is>
-          <t>2021-02-12 20:45:11</t>
-        </is>
+      <c r="H433" s="1" t="n">
+        <v>44239.86471064815</v>
       </c>
       <c r="I433" t="n">
         <v>0</v>
@@ -32125,10 +31277,8 @@
           <t>4110766080</t>
         </is>
       </c>
-      <c r="H434" t="inlineStr">
-        <is>
-          <t>2021-02-12 20:45:10</t>
-        </is>
+      <c r="H434" s="1" t="n">
+        <v>44239.86469907407</v>
       </c>
       <c r="I434" t="n">
         <v>4</v>
@@ -32196,10 +31346,8 @@
           <t>4110779732</t>
         </is>
       </c>
-      <c r="H435" t="inlineStr">
-        <is>
-          <t>2021-02-12 20:45:08</t>
-        </is>
+      <c r="H435" s="1" t="n">
+        <v>44239.86467592593</v>
       </c>
       <c r="I435" t="n">
         <v>0</v>
@@ -32269,10 +31417,8 @@
           <t>4110779345</t>
         </is>
       </c>
-      <c r="H436" t="inlineStr">
-        <is>
-          <t>2021-02-12 20:44:56</t>
-        </is>
+      <c r="H436" s="1" t="n">
+        <v>44239.86453703704</v>
       </c>
       <c r="I436" t="n">
         <v>6</v>
@@ -32332,10 +31478,8 @@
           <t>4110774560</t>
         </is>
       </c>
-      <c r="H437" t="inlineStr">
-        <is>
-          <t>2021-02-12 20:44:46</t>
-        </is>
+      <c r="H437" s="1" t="n">
+        <v>44239.8644212963</v>
       </c>
       <c r="I437" t="n">
         <v>3</v>
@@ -32407,10 +31551,8 @@
           <t>4110766080</t>
         </is>
       </c>
-      <c r="H438" t="inlineStr">
-        <is>
-          <t>2021-02-12 20:44:43</t>
-        </is>
+      <c r="H438" s="1" t="n">
+        <v>44239.86438657407</v>
       </c>
       <c r="I438" t="n">
         <v>0</v>
@@ -32478,10 +31620,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H439" t="inlineStr">
-        <is>
-          <t>2021-02-12 20:44:42</t>
-        </is>
+      <c r="H439" s="1" t="n">
+        <v>44239.864375</v>
       </c>
       <c r="I439" t="n">
         <v>0</v>
@@ -32553,10 +31693,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H440" t="inlineStr">
-        <is>
-          <t>2021-02-12 20:44:42</t>
-        </is>
+      <c r="H440" s="1" t="n">
+        <v>44239.864375</v>
       </c>
       <c r="I440" t="n">
         <v>79</v>
@@ -32628,10 +31766,8 @@
           <t>4110756573</t>
         </is>
       </c>
-      <c r="H441" t="inlineStr">
-        <is>
-          <t>2021-02-12 20:44:41</t>
-        </is>
+      <c r="H441" s="1" t="n">
+        <v>44239.86436342593</v>
       </c>
       <c r="I441" t="n">
         <v>6</v>
@@ -32699,10 +31835,8 @@
           <t>4110774035</t>
         </is>
       </c>
-      <c r="H442" t="inlineStr">
-        <is>
-          <t>2021-02-12 20:44:30</t>
-        </is>
+      <c r="H442" s="1" t="n">
+        <v>44239.86423611111</v>
       </c>
       <c r="I442" t="n">
         <v>0</v>
@@ -32781,10 +31915,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H443" t="inlineStr">
-        <is>
-          <t>2021-02-12 20:44:27</t>
-        </is>
+      <c r="H443" s="1" t="n">
+        <v>44239.86420138889</v>
       </c>
       <c r="I443" t="n">
         <v>24</v>
@@ -32848,10 +31980,8 @@
           <t>4110773183</t>
         </is>
       </c>
-      <c r="H444" t="inlineStr">
-        <is>
-          <t>2021-02-12 20:44:02</t>
-        </is>
+      <c r="H444" s="1" t="n">
+        <v>44239.86391203704</v>
       </c>
       <c r="I444" t="n">
         <v>1</v>
@@ -32927,10 +32057,8 @@
           <t>4110752384</t>
         </is>
       </c>
-      <c r="H445" t="inlineStr">
-        <is>
-          <t>2021-02-12 20:43:58</t>
-        </is>
+      <c r="H445" s="1" t="n">
+        <v>44239.86386574074</v>
       </c>
       <c r="I445" t="n">
         <v>0</v>
@@ -33006,10 +32134,8 @@
           <t>4110754241</t>
         </is>
       </c>
-      <c r="H446" t="inlineStr">
-        <is>
-          <t>2021-02-12 20:43:52</t>
-        </is>
+      <c r="H446" s="1" t="n">
+        <v>44239.8637962963</v>
       </c>
       <c r="I446" t="n">
         <v>9</v>
@@ -33085,10 +32211,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H447" t="inlineStr">
-        <is>
-          <t>2021-02-12 20:43:45</t>
-        </is>
+      <c r="H447" s="1" t="n">
+        <v>44239.86371527778</v>
       </c>
       <c r="I447" t="n">
         <v>0</v>
@@ -33156,10 +32280,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H448" t="inlineStr">
-        <is>
-          <t>2021-02-12 20:43:45</t>
-        </is>
+      <c r="H448" s="1" t="n">
+        <v>44239.86371527778</v>
       </c>
       <c r="I448" t="n">
         <v>0</v>
@@ -33227,10 +32349,8 @@
           <t>4110752384</t>
         </is>
       </c>
-      <c r="H449" t="inlineStr">
-        <is>
-          <t>2021-02-12 20:43:33</t>
-        </is>
+      <c r="H449" s="1" t="n">
+        <v>44239.86357638889</v>
       </c>
       <c r="I449" t="n">
         <v>3</v>
@@ -33303,10 +32423,8 @@
           <t>4110776539</t>
         </is>
       </c>
-      <c r="H450" t="inlineStr">
-        <is>
-          <t>2021-02-12 20:43:24</t>
-        </is>
+      <c r="H450" s="1" t="n">
+        <v>44239.86347222222</v>
       </c>
       <c r="I450" t="n">
         <v>1</v>
@@ -33366,10 +32484,8 @@
           <t>4110769422</t>
         </is>
       </c>
-      <c r="H451" t="inlineStr">
-        <is>
-          <t>2021-02-12 20:43:22</t>
-        </is>
+      <c r="H451" s="1" t="n">
+        <v>44239.86344907407</v>
       </c>
       <c r="I451" t="n">
         <v>0</v>
@@ -33433,10 +32549,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H452" t="inlineStr">
-        <is>
-          <t>2021-02-12 20:42:59</t>
-        </is>
+      <c r="H452" s="1" t="n">
+        <v>44239.86318287037</v>
       </c>
       <c r="I452" t="n">
         <v>0</v>
@@ -33512,10 +32626,8 @@
           <t>4110766080</t>
         </is>
       </c>
-      <c r="H453" t="inlineStr">
-        <is>
-          <t>2021-02-12 20:42:54</t>
-        </is>
+      <c r="H453" s="1" t="n">
+        <v>44239.863125</v>
       </c>
       <c r="I453" t="n">
         <v>4</v>
@@ -33587,10 +32699,8 @@
           <t>4110766080</t>
         </is>
       </c>
-      <c r="H454" t="inlineStr">
-        <is>
-          <t>2021-02-12 20:42:51</t>
-        </is>
+      <c r="H454" s="1" t="n">
+        <v>44239.86309027778</v>
       </c>
       <c r="I454" t="n">
         <v>1</v>
@@ -33654,10 +32764,8 @@
           <t>4110743351</t>
         </is>
       </c>
-      <c r="H455" t="inlineStr">
-        <is>
-          <t>2021-02-12 20:42:48</t>
-        </is>
+      <c r="H455" s="1" t="n">
+        <v>44239.86305555556</v>
       </c>
       <c r="I455" t="n">
         <v>0</v>
@@ -33729,10 +32837,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H456" t="inlineStr">
-        <is>
-          <t>2021-02-12 20:42:46</t>
-        </is>
+      <c r="H456" s="1" t="n">
+        <v>44239.8630324074</v>
       </c>
       <c r="I456" t="n">
         <v>0</v>
@@ -33808,10 +32914,8 @@
           <t>4110766080</t>
         </is>
       </c>
-      <c r="H457" t="inlineStr">
-        <is>
-          <t>2021-02-12 20:42:45</t>
-        </is>
+      <c r="H457" s="1" t="n">
+        <v>44239.86302083333</v>
       </c>
       <c r="I457" t="n">
         <v>1</v>
@@ -33887,10 +32991,8 @@
           <t>4110768169</t>
         </is>
       </c>
-      <c r="H458" t="inlineStr">
-        <is>
-          <t>2021-02-12 20:42:44</t>
-        </is>
+      <c r="H458" s="1" t="n">
+        <v>44239.86300925926</v>
       </c>
       <c r="I458" t="n">
         <v>3</v>
@@ -33966,10 +33068,8 @@
           <t>4110743351</t>
         </is>
       </c>
-      <c r="H459" t="inlineStr">
-        <is>
-          <t>2021-02-12 20:42:41</t>
-        </is>
+      <c r="H459" s="1" t="n">
+        <v>44239.86297453703</v>
       </c>
       <c r="I459" t="n">
         <v>1</v>
@@ -34037,10 +33137,8 @@
           <t>4110767759</t>
         </is>
       </c>
-      <c r="H460" t="inlineStr">
-        <is>
-          <t>2021-02-12 20:42:31</t>
-        </is>
+      <c r="H460" s="1" t="n">
+        <v>44239.8628587963</v>
       </c>
       <c r="I460" t="n">
         <v>2</v>
@@ -34108,10 +33206,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H461" t="inlineStr">
-        <is>
-          <t>2021-02-12 20:42:20</t>
-        </is>
+      <c r="H461" s="1" t="n">
+        <v>44239.86273148148</v>
       </c>
       <c r="I461" t="n">
         <v>0</v>
@@ -34183,10 +33279,8 @@
           <t>4110770044</t>
         </is>
       </c>
-      <c r="H462" t="inlineStr">
-        <is>
-          <t>2021-02-12 20:42:17</t>
-        </is>
+      <c r="H462" s="1" t="n">
+        <v>44239.86269675926</v>
       </c>
       <c r="I462" t="n">
         <v>0</v>
@@ -34250,10 +33344,8 @@
           <t>4110752384</t>
         </is>
       </c>
-      <c r="H463" t="inlineStr">
-        <is>
-          <t>2021-02-12 20:42:13</t>
-        </is>
+      <c r="H463" s="1" t="n">
+        <v>44239.86265046296</v>
       </c>
       <c r="I463" t="n">
         <v>12</v>
@@ -34329,10 +33421,8 @@
           <t>4110740608</t>
         </is>
       </c>
-      <c r="H464" t="inlineStr">
-        <is>
-          <t>2021-02-12 20:42:12</t>
-        </is>
+      <c r="H464" s="1" t="n">
+        <v>44239.86263888889</v>
       </c>
       <c r="I464" t="n">
         <v>0</v>
@@ -34400,10 +33490,8 @@
           <t>4110759861</t>
         </is>
       </c>
-      <c r="H465" t="inlineStr">
-        <is>
-          <t>2021-02-12 20:42:11</t>
-        </is>
+      <c r="H465" s="1" t="n">
+        <v>44239.86262731482</v>
       </c>
       <c r="I465" t="n">
         <v>0</v>
@@ -34475,10 +33563,8 @@
           <t>4110743351</t>
         </is>
       </c>
-      <c r="H466" t="inlineStr">
-        <is>
-          <t>2021-02-12 20:42:10</t>
-        </is>
+      <c r="H466" s="1" t="n">
+        <v>44239.86261574074</v>
       </c>
       <c r="I466" t="n">
         <v>3</v>
@@ -34546,10 +33632,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H467" t="inlineStr">
-        <is>
-          <t>2021-02-12 20:41:52</t>
-        </is>
+      <c r="H467" s="1" t="n">
+        <v>44239.86240740741</v>
       </c>
       <c r="I467" t="n">
         <v>0</v>
@@ -34617,10 +33701,8 @@
           <t>4110766080</t>
         </is>
       </c>
-      <c r="H468" t="inlineStr">
-        <is>
-          <t>2021-02-12 20:41:38</t>
-        </is>
+      <c r="H468" s="1" t="n">
+        <v>44239.86224537037</v>
       </c>
       <c r="I468" t="n">
         <v>0</v>
@@ -34688,10 +33770,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H469" t="inlineStr">
-        <is>
-          <t>2021-02-12 20:41:33</t>
-        </is>
+      <c r="H469" s="1" t="n">
+        <v>44239.8621875</v>
       </c>
       <c r="I469" t="n">
         <v>0</v>
@@ -34751,10 +33831,8 @@
           <t>4110746238</t>
         </is>
       </c>
-      <c r="H470" t="inlineStr">
-        <is>
-          <t>2021-02-12 20:41:32</t>
-        </is>
+      <c r="H470" s="1" t="n">
+        <v>44239.86217592593</v>
       </c>
       <c r="I470" t="n">
         <v>0</v>
@@ -34827,10 +33905,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H471" t="inlineStr">
-        <is>
-          <t>2021-02-12 20:41:28</t>
-        </is>
+      <c r="H471" s="1" t="n">
+        <v>44239.86212962963</v>
       </c>
       <c r="I471" t="n">
         <v>0</v>
@@ -34902,10 +33978,8 @@
           <t>4110758560</t>
         </is>
       </c>
-      <c r="H472" t="inlineStr">
-        <is>
-          <t>2021-02-12 20:41:26</t>
-        </is>
+      <c r="H472" s="1" t="n">
+        <v>44239.86210648148</v>
       </c>
       <c r="I472" t="n">
         <v>1</v>
@@ -34973,10 +34047,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H473" t="inlineStr">
-        <is>
-          <t>2021-02-12 20:41:24</t>
-        </is>
+      <c r="H473" s="1" t="n">
+        <v>44239.86208333333</v>
       </c>
       <c r="I473" t="n">
         <v>2</v>
@@ -35044,10 +34116,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H474" t="inlineStr">
-        <is>
-          <t>2021-02-12 20:41:23</t>
-        </is>
+      <c r="H474" s="1" t="n">
+        <v>44239.86207175926</v>
       </c>
       <c r="I474" t="n">
         <v>0</v>
@@ -35119,10 +34189,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H475" t="inlineStr">
-        <is>
-          <t>2021-02-12 20:41:23</t>
-        </is>
+      <c r="H475" s="1" t="n">
+        <v>44239.86207175926</v>
       </c>
       <c r="I475" t="n">
         <v>0</v>
@@ -35194,10 +34262,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H476" t="inlineStr">
-        <is>
-          <t>2021-02-12 20:41:03</t>
-        </is>
+      <c r="H476" s="1" t="n">
+        <v>44239.86184027778</v>
       </c>
       <c r="I476" t="n">
         <v>103</v>
@@ -35261,10 +34327,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H477" t="inlineStr">
-        <is>
-          <t>2021-02-12 20:40:50</t>
-        </is>
+      <c r="H477" s="1" t="n">
+        <v>44239.86168981482</v>
       </c>
       <c r="I477" t="n">
         <v>0</v>
@@ -35332,10 +34396,8 @@
           <t>4110761766</t>
         </is>
       </c>
-      <c r="H478" t="inlineStr">
-        <is>
-          <t>2021-02-12 20:40:49</t>
-        </is>
+      <c r="H478" s="1" t="n">
+        <v>44239.86167824074</v>
       </c>
       <c r="I478" t="n">
         <v>0</v>
@@ -35411,10 +34473,8 @@
           <t>4110751941</t>
         </is>
       </c>
-      <c r="H479" t="inlineStr">
-        <is>
-          <t>2021-02-12 20:40:43</t>
-        </is>
+      <c r="H479" s="1" t="n">
+        <v>44239.86160879629</v>
       </c>
       <c r="I479" t="n">
         <v>1</v>
@@ -35490,10 +34550,8 @@
           <t>4110743351</t>
         </is>
       </c>
-      <c r="H480" t="inlineStr">
-        <is>
-          <t>2021-02-12 20:40:41</t>
-        </is>
+      <c r="H480" s="1" t="n">
+        <v>44239.86158564815</v>
       </c>
       <c r="I480" t="n">
         <v>5</v>
@@ -35569,10 +34627,8 @@
           <t>4110761407</t>
         </is>
       </c>
-      <c r="H481" t="inlineStr">
-        <is>
-          <t>2021-02-12 20:40:36</t>
-        </is>
+      <c r="H481" s="1" t="n">
+        <v>44239.86152777778</v>
       </c>
       <c r="I481" t="n">
         <v>0</v>
@@ -35645,10 +34701,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H482" t="inlineStr">
-        <is>
-          <t>2021-02-12 20:40:32</t>
-        </is>
+      <c r="H482" s="1" t="n">
+        <v>44239.86148148148</v>
       </c>
       <c r="I482" t="n">
         <v>5</v>
@@ -35708,10 +34762,8 @@
           <t>4110743351</t>
         </is>
       </c>
-      <c r="H483" t="inlineStr">
-        <is>
-          <t>2021-02-12 20:40:30</t>
-        </is>
+      <c r="H483" s="1" t="n">
+        <v>44239.86145833333</v>
       </c>
       <c r="I483" t="n">
         <v>8</v>
@@ -35783,10 +34835,8 @@
           <t>4110756573</t>
         </is>
       </c>
-      <c r="H484" t="inlineStr">
-        <is>
-          <t>2021-02-12 20:40:21</t>
-        </is>
+      <c r="H484" s="1" t="n">
+        <v>44239.86135416666</v>
       </c>
       <c r="I484" t="n">
         <v>0</v>
@@ -35858,10 +34908,8 @@
           <t>4110740608</t>
         </is>
       </c>
-      <c r="H485" t="inlineStr">
-        <is>
-          <t>2021-02-12 20:40:20</t>
-        </is>
+      <c r="H485" s="1" t="n">
+        <v>44239.86134259259</v>
       </c>
       <c r="I485" t="n">
         <v>1</v>
@@ -35930,10 +34978,8 @@
           <t>4110760710</t>
         </is>
       </c>
-      <c r="H486" t="inlineStr">
-        <is>
-          <t>2021-02-12 20:40:14</t>
-        </is>
+      <c r="H486" s="1" t="n">
+        <v>44239.86127314815</v>
       </c>
       <c r="I486" t="n">
         <v>1</v>
@@ -35993,10 +35039,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H487" t="inlineStr">
-        <is>
-          <t>2021-02-12 20:40:07</t>
-        </is>
+      <c r="H487" s="1" t="n">
+        <v>44239.86119212963</v>
       </c>
       <c r="I487" t="n">
         <v>0</v>
@@ -36068,10 +35112,8 @@
           <t>4110756102</t>
         </is>
       </c>
-      <c r="H488" t="inlineStr">
-        <is>
-          <t>2021-02-12 20:40:06</t>
-        </is>
+      <c r="H488" s="1" t="n">
+        <v>44239.86118055556</v>
       </c>
       <c r="I488" t="n">
         <v>0</v>
@@ -36144,10 +35186,8 @@
           <t>4110752811</t>
         </is>
       </c>
-      <c r="H489" t="inlineStr">
-        <is>
-          <t>2021-02-12 20:39:59</t>
-        </is>
+      <c r="H489" s="1" t="n">
+        <v>44239.86109953704</v>
       </c>
       <c r="I489" t="n">
         <v>1</v>
@@ -36223,10 +35263,8 @@
           <t>4110740608</t>
         </is>
       </c>
-      <c r="H490" t="inlineStr">
-        <is>
-          <t>2021-02-12 20:39:55</t>
-        </is>
+      <c r="H490" s="1" t="n">
+        <v>44239.86105324074</v>
       </c>
       <c r="I490" t="n">
         <v>1</v>
@@ -36295,10 +35333,8 @@
           <t>4110755710</t>
         </is>
       </c>
-      <c r="H491" t="inlineStr">
-        <is>
-          <t>2021-02-12 20:39:52</t>
-        </is>
+      <c r="H491" s="1" t="n">
+        <v>44239.86101851852</v>
       </c>
       <c r="I491" t="n">
         <v>0</v>
@@ -36368,10 +35404,8 @@
           <t>4110752384</t>
         </is>
       </c>
-      <c r="H492" t="inlineStr">
-        <is>
-          <t>2021-02-12 20:39:46</t>
-        </is>
+      <c r="H492" s="1" t="n">
+        <v>44239.86094907407</v>
       </c>
       <c r="I492" t="n">
         <v>2</v>
@@ -36431,10 +35465,8 @@
           <t>4110752250</t>
         </is>
       </c>
-      <c r="H493" t="inlineStr">
-        <is>
-          <t>2021-02-12 20:39:41</t>
-        </is>
+      <c r="H493" s="1" t="n">
+        <v>44239.8608912037</v>
       </c>
       <c r="I493" t="n">
         <v>1</v>
@@ -36506,10 +35538,8 @@
           <t>4110740608</t>
         </is>
       </c>
-      <c r="H494" t="inlineStr">
-        <is>
-          <t>2021-02-12 20:39:35</t>
-        </is>
+      <c r="H494" s="1" t="n">
+        <v>44239.86082175926</v>
       </c>
       <c r="I494" t="n">
         <v>0</v>
@@ -36577,10 +35607,8 @@
           <t>4110751941</t>
         </is>
       </c>
-      <c r="H495" t="inlineStr">
-        <is>
-          <t>2021-02-12 20:39:32</t>
-        </is>
+      <c r="H495" s="1" t="n">
+        <v>44239.86078703704</v>
       </c>
       <c r="I495" t="n">
         <v>53</v>
@@ -36653,10 +35681,8 @@
           <t>4110751917</t>
         </is>
       </c>
-      <c r="H496" t="inlineStr">
-        <is>
-          <t>2021-02-12 20:39:31</t>
-        </is>
+      <c r="H496" s="1" t="n">
+        <v>44239.86077546296</v>
       </c>
       <c r="I496" t="n">
         <v>2</v>
@@ -36732,10 +35758,8 @@
           <t>4110744847</t>
         </is>
       </c>
-      <c r="H497" t="inlineStr">
-        <is>
-          <t>2021-02-12 20:39:24</t>
-        </is>
+      <c r="H497" s="1" t="n">
+        <v>44239.86069444445</v>
       </c>
       <c r="I497" t="n">
         <v>0</v>
@@ -36803,10 +35827,8 @@
           <t>4110744724</t>
         </is>
       </c>
-      <c r="H498" t="inlineStr">
-        <is>
-          <t>2021-02-12 20:39:20</t>
-        </is>
+      <c r="H498" s="1" t="n">
+        <v>44239.86064814815</v>
       </c>
       <c r="I498" t="n">
         <v>0</v>
@@ -36874,10 +35896,8 @@
           <t>4110744741</t>
         </is>
       </c>
-      <c r="H499" t="inlineStr">
-        <is>
-          <t>2021-02-12 20:39:20</t>
-        </is>
+      <c r="H499" s="1" t="n">
+        <v>44239.86064814815</v>
       </c>
       <c r="I499" t="n">
         <v>3</v>
@@ -36941,10 +35961,8 @@
           <t>4110748979</t>
         </is>
       </c>
-      <c r="H500" t="inlineStr">
-        <is>
-          <t>2021-02-12 20:39:17</t>
-        </is>
+      <c r="H500" s="1" t="n">
+        <v>44239.86061342592</v>
       </c>
       <c r="I500" t="n">
         <v>27</v>
@@ -37004,10 +36022,8 @@
           <t>4110751365</t>
         </is>
       </c>
-      <c r="H501" t="inlineStr">
-        <is>
-          <t>2021-02-12 20:39:14</t>
-        </is>
+      <c r="H501" s="1" t="n">
+        <v>44239.8605787037</v>
       </c>
       <c r="I501" t="n">
         <v>2</v>
@@ -37083,10 +36099,8 @@
           <t>4110748673</t>
         </is>
       </c>
-      <c r="H502" t="inlineStr">
-        <is>
-          <t>2021-02-12 20:39:08</t>
-        </is>
+      <c r="H502" s="1" t="n">
+        <v>44239.86050925926</v>
       </c>
       <c r="I502" t="n">
         <v>0</v>
@@ -37154,10 +36168,8 @@
           <t>4110750916</t>
         </is>
       </c>
-      <c r="H503" t="inlineStr">
-        <is>
-          <t>2021-02-12 20:39:02</t>
-        </is>
+      <c r="H503" s="1" t="n">
+        <v>44239.86043981482</v>
       </c>
       <c r="I503" t="n">
         <v>21</v>
@@ -37233,10 +36245,8 @@
           <t>4110750901</t>
         </is>
       </c>
-      <c r="H504" t="inlineStr">
-        <is>
-          <t>2021-02-12 20:39:01</t>
-        </is>
+      <c r="H504" s="1" t="n">
+        <v>44239.86042824074</v>
       </c>
       <c r="I504" t="n">
         <v>48</v>
@@ -37300,10 +36310,8 @@
           <t>4110739861</t>
         </is>
       </c>
-      <c r="H505" t="inlineStr">
-        <is>
-          <t>2021-02-12 20:38:31</t>
-        </is>
+      <c r="H505" s="1" t="n">
+        <v>44239.86008101852</v>
       </c>
       <c r="I505" t="n">
         <v>11</v>
@@ -37381,10 +36389,8 @@
           <t>4110747356</t>
         </is>
       </c>
-      <c r="H506" t="inlineStr">
-        <is>
-          <t>2021-02-12 20:38:26</t>
-        </is>
+      <c r="H506" s="1" t="n">
+        <v>44239.86002314815</v>
       </c>
       <c r="I506" t="n">
         <v>156</v>
@@ -37444,10 +36450,8 @@
           <t>4110739523</t>
         </is>
       </c>
-      <c r="H507" t="inlineStr">
-        <is>
-          <t>2021-02-12 20:38:21</t>
-        </is>
+      <c r="H507" s="1" t="n">
+        <v>44239.85996527778</v>
       </c>
       <c r="I507" t="n">
         <v>5</v>
@@ -37519,10 +36523,8 @@
           <t>4110740608</t>
         </is>
       </c>
-      <c r="H508" t="inlineStr">
-        <is>
-          <t>2021-02-12 20:38:20</t>
-        </is>
+      <c r="H508" s="1" t="n">
+        <v>44239.8599537037</v>
       </c>
       <c r="I508" t="n">
         <v>0</v>
@@ -37590,10 +36592,8 @@
           <t>4110739407</t>
         </is>
       </c>
-      <c r="H509" t="inlineStr">
-        <is>
-          <t>2021-02-12 20:38:18</t>
-        </is>
+      <c r="H509" s="1" t="n">
+        <v>44239.85993055555</v>
       </c>
       <c r="I509" t="n">
         <v>1</v>
@@ -37669,10 +36669,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H510" t="inlineStr">
-        <is>
-          <t>2021-02-12 20:38:12</t>
-        </is>
+      <c r="H510" s="1" t="n">
+        <v>44239.85986111111</v>
       </c>
       <c r="I510" t="n">
         <v>1</v>
@@ -37744,10 +36742,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H511" t="inlineStr">
-        <is>
-          <t>2021-02-12 20:38:06</t>
-        </is>
+      <c r="H511" s="1" t="n">
+        <v>44239.85979166667</v>
       </c>
       <c r="I511" t="n">
         <v>0</v>
@@ -37811,10 +36807,8 @@
           <t>4110724659</t>
         </is>
       </c>
-      <c r="H512" t="inlineStr">
-        <is>
-          <t>2021-02-12 20:37:56</t>
-        </is>
+      <c r="H512" s="1" t="n">
+        <v>44239.85967592592</v>
       </c>
       <c r="I512" t="n">
         <v>16</v>
@@ -37888,10 +36882,8 @@
           <t>4110746238</t>
         </is>
       </c>
-      <c r="H513" t="inlineStr">
-        <is>
-          <t>2021-02-12 20:37:50</t>
-        </is>
+      <c r="H513" s="1" t="n">
+        <v>44239.85960648148</v>
       </c>
       <c r="I513" t="n">
         <v>2</v>
@@ -37951,10 +36943,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H514" t="inlineStr">
-        <is>
-          <t>2021-02-12 20:37:48</t>
-        </is>
+      <c r="H514" s="1" t="n">
+        <v>44239.85958333333</v>
       </c>
       <c r="I514" t="n">
         <v>0</v>
@@ -38026,10 +37016,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H515" t="inlineStr">
-        <is>
-          <t>2021-02-12 20:37:47</t>
-        </is>
+      <c r="H515" s="1" t="n">
+        <v>44239.85957175926</v>
       </c>
       <c r="I515" t="n">
         <v>0</v>
@@ -38089,10 +37077,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H516" t="inlineStr">
-        <is>
-          <t>2021-02-12 20:37:38</t>
-        </is>
+      <c r="H516" s="1" t="n">
+        <v>44239.85946759259</v>
       </c>
       <c r="I516" t="n">
         <v>5</v>
@@ -38164,10 +37150,8 @@
           <t>4110741167</t>
         </is>
       </c>
-      <c r="H517" t="inlineStr">
-        <is>
-          <t>2021-02-12 20:37:26</t>
-        </is>
+      <c r="H517" s="1" t="n">
+        <v>44239.8593287037</v>
       </c>
       <c r="I517" t="n">
         <v>7</v>
@@ -38243,10 +37227,8 @@
           <t>4110734970</t>
         </is>
       </c>
-      <c r="H518" t="inlineStr">
-        <is>
-          <t>2021-02-12 20:37:09</t>
-        </is>
+      <c r="H518" s="1" t="n">
+        <v>44239.85913194445</v>
       </c>
       <c r="I518" t="n">
         <v>4</v>
@@ -38325,10 +37307,8 @@
           <t>4110740608</t>
         </is>
       </c>
-      <c r="H519" t="inlineStr">
-        <is>
-          <t>2021-02-12 20:37:06</t>
-        </is>
+      <c r="H519" s="1" t="n">
+        <v>44239.85909722222</v>
       </c>
       <c r="I519" t="n">
         <v>3</v>
@@ -38388,10 +37368,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H520" t="inlineStr">
-        <is>
-          <t>2021-02-12 20:36:51</t>
-        </is>
+      <c r="H520" s="1" t="n">
+        <v>44239.85892361111</v>
       </c>
       <c r="I520" t="n">
         <v>1</v>
@@ -38455,10 +37433,8 @@
           <t>4110734222</t>
         </is>
       </c>
-      <c r="H521" t="inlineStr">
-        <is>
-          <t>2021-02-12 20:36:45</t>
-        </is>
+      <c r="H521" s="1" t="n">
+        <v>44239.85885416667</v>
       </c>
       <c r="I521" t="n">
         <v>2</v>
@@ -38530,10 +37506,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H522" t="inlineStr">
-        <is>
-          <t>2021-02-12 20:36:44</t>
-        </is>
+      <c r="H522" s="1" t="n">
+        <v>44239.85884259259</v>
       </c>
       <c r="I522" t="n">
         <v>0</v>
@@ -38605,10 +37579,8 @@
           <t>4110734173</t>
         </is>
       </c>
-      <c r="H523" t="inlineStr">
-        <is>
-          <t>2021-02-12 20:36:43</t>
-        </is>
+      <c r="H523" s="1" t="n">
+        <v>44239.85883101852</v>
       </c>
       <c r="I523" t="n">
         <v>3</v>
@@ -38672,10 +37644,8 @@
           <t>4110734124</t>
         </is>
       </c>
-      <c r="H524" t="inlineStr">
-        <is>
-          <t>2021-02-12 20:36:42</t>
-        </is>
+      <c r="H524" s="1" t="n">
+        <v>44239.85881944445</v>
       </c>
       <c r="I524" t="n">
         <v>3</v>
@@ -38751,10 +37721,8 @@
           <t>4110709868</t>
         </is>
       </c>
-      <c r="H525" t="inlineStr">
-        <is>
-          <t>2021-02-12 20:36:42</t>
-        </is>
+      <c r="H525" s="1" t="n">
+        <v>44239.85881944445</v>
       </c>
       <c r="I525" t="n">
         <v>1</v>
@@ -38826,10 +37794,8 @@
           <t>4110724659</t>
         </is>
       </c>
-      <c r="H526" t="inlineStr">
-        <is>
-          <t>2021-02-12 20:36:37</t>
-        </is>
+      <c r="H526" s="1" t="n">
+        <v>44239.85876157408</v>
       </c>
       <c r="I526" t="n">
         <v>10</v>
@@ -38901,10 +37867,8 @@
           <t>4110733857</t>
         </is>
       </c>
-      <c r="H527" t="inlineStr">
-        <is>
-          <t>2021-02-12 20:36:35</t>
-        </is>
+      <c r="H527" s="1" t="n">
+        <v>44239.85873842592</v>
       </c>
       <c r="I527" t="n">
         <v>135</v>
@@ -38976,10 +37940,8 @@
           <t>4110729602</t>
         </is>
       </c>
-      <c r="H528" t="inlineStr">
-        <is>
-          <t>2021-02-12 20:36:32</t>
-        </is>
+      <c r="H528" s="1" t="n">
+        <v>44239.85870370371</v>
       </c>
       <c r="I528" t="n">
         <v>1</v>
@@ -39051,10 +38013,8 @@
           <t>4110725599</t>
         </is>
       </c>
-      <c r="H529" t="inlineStr">
-        <is>
-          <t>2021-02-12 20:36:32</t>
-        </is>
+      <c r="H529" s="1" t="n">
+        <v>44239.85870370371</v>
       </c>
       <c r="I529" t="n">
         <v>3</v>
@@ -39129,10 +38089,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H530" t="inlineStr">
-        <is>
-          <t>2021-02-12 20:36:26</t>
-        </is>
+      <c r="H530" s="1" t="n">
+        <v>44239.85863425926</v>
       </c>
       <c r="I530" t="n">
         <v>81</v>
@@ -39208,10 +38166,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H531" t="inlineStr">
-        <is>
-          <t>2021-02-12 20:36:17</t>
-        </is>
+      <c r="H531" s="1" t="n">
+        <v>44239.85853009259</v>
       </c>
       <c r="I531" t="n">
         <v>0</v>
@@ -39294,10 +38250,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H532" t="inlineStr">
-        <is>
-          <t>2021-02-12 20:36:16</t>
-        </is>
+      <c r="H532" s="1" t="n">
+        <v>44239.85851851852</v>
       </c>
       <c r="I532" t="n">
         <v>2</v>
@@ -39373,10 +38327,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H533" t="inlineStr">
-        <is>
-          <t>2021-02-12 20:36:14</t>
-        </is>
+      <c r="H533" s="1" t="n">
+        <v>44239.85849537037</v>
       </c>
       <c r="I533" t="n">
         <v>0</v>
@@ -39448,10 +38400,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H534" t="inlineStr">
-        <is>
-          <t>2021-02-12 20:36:14</t>
-        </is>
+      <c r="H534" s="1" t="n">
+        <v>44239.85849537037</v>
       </c>
       <c r="I534" t="n">
         <v>1</v>
@@ -39519,10 +38469,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H535" t="inlineStr">
-        <is>
-          <t>2021-02-12 20:36:11</t>
-        </is>
+      <c r="H535" s="1" t="n">
+        <v>44239.85846064815</v>
       </c>
       <c r="I535" t="n">
         <v>1</v>
@@ -39598,10 +38546,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H536" t="inlineStr">
-        <is>
-          <t>2021-02-12 20:36:08</t>
-        </is>
+      <c r="H536" s="1" t="n">
+        <v>44239.85842592592</v>
       </c>
       <c r="I536" t="n">
         <v>0</v>
@@ -39677,10 +38623,8 @@
           <t>4110724731</t>
         </is>
       </c>
-      <c r="H537" t="inlineStr">
-        <is>
-          <t>2021-02-12 20:35:55</t>
-        </is>
+      <c r="H537" s="1" t="n">
+        <v>44239.85827546296</v>
       </c>
       <c r="I537" t="n">
         <v>24</v>
@@ -39756,10 +38700,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H538" t="inlineStr">
-        <is>
-          <t>2021-02-12 20:35:51</t>
-        </is>
+      <c r="H538" s="1" t="n">
+        <v>44239.85822916667</v>
       </c>
       <c r="I538" t="n">
         <v>46</v>
@@ -39827,10 +38769,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H539" t="inlineStr">
-        <is>
-          <t>2021-02-12 20:35:45</t>
-        </is>
+      <c r="H539" s="1" t="n">
+        <v>44239.85815972222</v>
       </c>
       <c r="I539" t="n">
         <v>0</v>
@@ -39894,10 +38834,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H540" t="inlineStr">
-        <is>
-          <t>2021-02-12 20:35:44</t>
-        </is>
+      <c r="H540" s="1" t="n">
+        <v>44239.85814814815</v>
       </c>
       <c r="I540" t="n">
         <v>16</v>
@@ -39969,10 +38907,8 @@
           <t>4110715111</t>
         </is>
       </c>
-      <c r="H541" t="inlineStr">
-        <is>
-          <t>2021-02-12 20:35:37</t>
-        </is>
+      <c r="H541" s="1" t="n">
+        <v>44239.85806712963</v>
       </c>
       <c r="I541" t="n">
         <v>0</v>
@@ -40040,10 +38976,8 @@
           <t>4110724170</t>
         </is>
       </c>
-      <c r="H542" t="inlineStr">
-        <is>
-          <t>2021-02-12 20:35:37</t>
-        </is>
+      <c r="H542" s="1" t="n">
+        <v>44239.85806712963</v>
       </c>
       <c r="I542" t="n">
         <v>19</v>
@@ -40112,10 +39046,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H543" t="inlineStr">
-        <is>
-          <t>2021-02-12 20:35:35</t>
-        </is>
+      <c r="H543" s="1" t="n">
+        <v>44239.85804398148</v>
       </c>
       <c r="I543" t="n">
         <v>504</v>
@@ -40191,10 +39123,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H544" t="inlineStr">
-        <is>
-          <t>2021-02-12 20:35:32</t>
-        </is>
+      <c r="H544" s="1" t="n">
+        <v>44239.85800925926</v>
       </c>
       <c r="I544" t="n">
         <v>29</v>
@@ -40277,10 +39207,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H545" t="inlineStr">
-        <is>
-          <t>2021-02-12 20:35:27</t>
-        </is>
+      <c r="H545" s="1" t="n">
+        <v>44239.85795138889</v>
       </c>
       <c r="I545" t="n">
         <v>407</v>
@@ -40356,10 +39284,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H546" t="inlineStr">
-        <is>
-          <t>2021-02-12 20:35:15</t>
-        </is>
+      <c r="H546" s="1" t="n">
+        <v>44239.8578125</v>
       </c>
       <c r="I546" t="n">
         <v>0</v>
@@ -40419,10 +39345,8 @@
           <t>4110731499</t>
         </is>
       </c>
-      <c r="H547" t="inlineStr">
-        <is>
-          <t>2021-02-12 20:35:13</t>
-        </is>
+      <c r="H547" s="1" t="n">
+        <v>44239.85778935185</v>
       </c>
       <c r="I547" t="n">
         <v>2</v>
@@ -40482,10 +39406,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H548" t="inlineStr">
-        <is>
-          <t>2021-02-12 20:35:12</t>
-        </is>
+      <c r="H548" s="1" t="n">
+        <v>44239.85777777778</v>
       </c>
       <c r="I548" t="n">
         <v>9</v>
@@ -40549,10 +39471,8 @@
           <t>4110723114</t>
         </is>
       </c>
-      <c r="H549" t="inlineStr">
-        <is>
-          <t>2021-02-12 20:35:03</t>
-        </is>
+      <c r="H549" s="1" t="n">
+        <v>44239.85767361111</v>
       </c>
       <c r="I549" t="n">
         <v>0</v>
@@ -40620,10 +39540,8 @@
           <t>4110709868</t>
         </is>
       </c>
-      <c r="H550" t="inlineStr">
-        <is>
-          <t>2021-02-12 20:34:56</t>
-        </is>
+      <c r="H550" s="1" t="n">
+        <v>44239.85759259259</v>
       </c>
       <c r="I550" t="n">
         <v>4</v>
@@ -40695,10 +39613,8 @@
           <t>4110722629</t>
         </is>
       </c>
-      <c r="H551" t="inlineStr">
-        <is>
-          <t>2021-02-12 20:34:47</t>
-        </is>
+      <c r="H551" s="1" t="n">
+        <v>44239.85748842593</v>
       </c>
       <c r="I551" t="n">
         <v>1</v>
@@ -40762,10 +39678,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H552" t="inlineStr">
-        <is>
-          <t>2021-02-12 20:34:39</t>
-        </is>
+      <c r="H552" s="1" t="n">
+        <v>44239.85739583334</v>
       </c>
       <c r="I552" t="n">
         <v>0</v>
@@ -40841,10 +39755,8 @@
           <t>4110726067</t>
         </is>
       </c>
-      <c r="H553" t="inlineStr">
-        <is>
-          <t>2021-02-12 20:34:32</t>
-        </is>
+      <c r="H553" s="1" t="n">
+        <v>44239.85731481481</v>
       </c>
       <c r="I553" t="n">
         <v>1</v>
@@ -40920,10 +39832,8 @@
           <t>4110726070</t>
         </is>
       </c>
-      <c r="H554" t="inlineStr">
-        <is>
-          <t>2021-02-12 20:34:32</t>
-        </is>
+      <c r="H554" s="1" t="n">
+        <v>44239.85731481481</v>
       </c>
       <c r="I554" t="n">
         <v>0</v>
@@ -40983,10 +39893,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H555" t="inlineStr">
-        <is>
-          <t>2021-02-12 20:34:31</t>
-        </is>
+      <c r="H555" s="1" t="n">
+        <v>44239.85730324074</v>
       </c>
       <c r="I555" t="n">
         <v>0</v>
@@ -41054,10 +39962,8 @@
           <t>4110725701</t>
         </is>
       </c>
-      <c r="H556" t="inlineStr">
-        <is>
-          <t>2021-02-12 20:34:20</t>
-        </is>
+      <c r="H556" s="1" t="n">
+        <v>44239.85717592593</v>
       </c>
       <c r="I556" t="n">
         <v>0</v>
@@ -41125,10 +40031,8 @@
           <t>4110725599</t>
         </is>
       </c>
-      <c r="H557" t="inlineStr">
-        <is>
-          <t>2021-02-12 20:34:17</t>
-        </is>
+      <c r="H557" s="1" t="n">
+        <v>44239.85714120371</v>
       </c>
       <c r="I557" t="n">
         <v>0</v>
@@ -41204,10 +40108,8 @@
           <t>4110725575</t>
         </is>
       </c>
-      <c r="H558" t="inlineStr">
-        <is>
-          <t>2021-02-12 20:34:16</t>
-        </is>
+      <c r="H558" s="1" t="n">
+        <v>44239.85712962963</v>
       </c>
       <c r="I558" t="n">
         <v>3</v>
@@ -41275,10 +40177,8 @@
           <t>4110719725</t>
         </is>
       </c>
-      <c r="H559" t="inlineStr">
-        <is>
-          <t>2021-02-12 20:34:11</t>
-        </is>
+      <c r="H559" s="1" t="n">
+        <v>44239.85707175926</v>
       </c>
       <c r="I559" t="n">
         <v>3</v>
@@ -41349,10 +40249,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H560" t="inlineStr">
-        <is>
-          <t>2021-02-12 20:34:04</t>
-        </is>
+      <c r="H560" s="1" t="n">
+        <v>44239.85699074074</v>
       </c>
       <c r="I560" t="n">
         <v>0</v>
@@ -41416,10 +40314,8 @@
           <t>4110721253</t>
         </is>
       </c>
-      <c r="H561" t="inlineStr">
-        <is>
-          <t>2021-02-12 20:34:04</t>
-        </is>
+      <c r="H561" s="1" t="n">
+        <v>44239.85699074074</v>
       </c>
       <c r="I561" t="n">
         <v>8</v>
@@ -41495,10 +40391,8 @@
           <t>4110725149</t>
         </is>
       </c>
-      <c r="H562" t="inlineStr">
-        <is>
-          <t>2021-02-12 20:34:01</t>
-        </is>
+      <c r="H562" s="1" t="n">
+        <v>44239.85695601852</v>
       </c>
       <c r="I562" t="n">
         <v>6</v>
@@ -41566,10 +40460,8 @@
           <t>4110721051</t>
         </is>
       </c>
-      <c r="H563" t="inlineStr">
-        <is>
-          <t>2021-02-12 20:33:58</t>
-        </is>
+      <c r="H563" s="1" t="n">
+        <v>44239.8569212963</v>
       </c>
       <c r="I563" t="n">
         <v>0</v>
@@ -41633,10 +40525,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H564" t="inlineStr">
-        <is>
-          <t>2021-02-12 20:33:54</t>
-        </is>
+      <c r="H564" s="1" t="n">
+        <v>44239.856875</v>
       </c>
       <c r="I564" t="n">
         <v>434</v>
@@ -41707,10 +40597,8 @@
           <t>4110720900</t>
         </is>
       </c>
-      <c r="H565" t="inlineStr">
-        <is>
-          <t>2021-02-12 20:33:53</t>
-        </is>
+      <c r="H565" s="1" t="n">
+        <v>44239.85686342593</v>
       </c>
       <c r="I565" t="n">
         <v>6</v>
@@ -41775,10 +40663,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H566" t="inlineStr">
-        <is>
-          <t>2021-02-12 20:33:50</t>
-        </is>
+      <c r="H566" s="1" t="n">
+        <v>44239.85682870371</v>
       </c>
       <c r="I566" t="n">
         <v>12</v>
@@ -41854,10 +40740,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H567" t="inlineStr">
-        <is>
-          <t>2021-02-12 20:33:50</t>
-        </is>
+      <c r="H567" s="1" t="n">
+        <v>44239.85682870371</v>
       </c>
       <c r="I567" t="n">
         <v>0</v>
@@ -41929,10 +40813,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H568" t="inlineStr">
-        <is>
-          <t>2021-02-12 20:33:41</t>
-        </is>
+      <c r="H568" s="1" t="n">
+        <v>44239.85672453704</v>
       </c>
       <c r="I568" t="n">
         <v>0</v>
@@ -41996,10 +40878,8 @@
           <t>4110718705</t>
         </is>
       </c>
-      <c r="H569" t="inlineStr">
-        <is>
-          <t>2021-02-12 20:33:36</t>
-        </is>
+      <c r="H569" s="1" t="n">
+        <v>44239.85666666667</v>
       </c>
       <c r="I569" t="n">
         <v>1</v>
@@ -42067,10 +40947,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H570" t="inlineStr">
-        <is>
-          <t>2021-02-12 20:33:32</t>
-        </is>
+      <c r="H570" s="1" t="n">
+        <v>44239.85662037037</v>
       </c>
       <c r="I570" t="n">
         <v>0</v>
@@ -42138,10 +41016,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H571" t="inlineStr">
-        <is>
-          <t>2021-02-12 20:33:31</t>
-        </is>
+      <c r="H571" s="1" t="n">
+        <v>44239.8566087963</v>
       </c>
       <c r="I571" t="n">
         <v>1</v>
@@ -42201,10 +41077,8 @@
           <t>4110720188</t>
         </is>
       </c>
-      <c r="H572" t="inlineStr">
-        <is>
-          <t>2021-02-12 20:33:31</t>
-        </is>
+      <c r="H572" s="1" t="n">
+        <v>44239.8566087963</v>
       </c>
       <c r="I572" t="n">
         <v>1</v>
@@ -42268,10 +41142,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H573" t="inlineStr">
-        <is>
-          <t>2021-02-12 20:33:28</t>
-        </is>
+      <c r="H573" s="1" t="n">
+        <v>44239.85657407407</v>
       </c>
       <c r="I573" t="n">
         <v>1</v>
@@ -42347,10 +41219,8 @@
           <t>4110720017</t>
         </is>
       </c>
-      <c r="H574" t="inlineStr">
-        <is>
-          <t>2021-02-12 20:33:26</t>
-        </is>
+      <c r="H574" s="1" t="n">
+        <v>44239.85655092593</v>
       </c>
       <c r="I574" t="n">
         <v>5</v>
@@ -42427,10 +41297,8 @@
           <t>4110714001</t>
         </is>
       </c>
-      <c r="H575" t="inlineStr">
-        <is>
-          <t>2021-02-12 20:33:22</t>
-        </is>
+      <c r="H575" s="1" t="n">
+        <v>44239.85650462963</v>
       </c>
       <c r="I575" t="n">
         <v>223</v>
@@ -42503,10 +41371,8 @@
           <t>4110709868</t>
         </is>
       </c>
-      <c r="H576" t="inlineStr">
-        <is>
-          <t>2021-02-12 20:33:21</t>
-        </is>
+      <c r="H576" s="1" t="n">
+        <v>44239.85649305556</v>
       </c>
       <c r="I576" t="n">
         <v>102</v>
@@ -42578,10 +41444,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H577" t="inlineStr">
-        <is>
-          <t>2021-02-12 20:33:18</t>
-        </is>
+      <c r="H577" s="1" t="n">
+        <v>44239.85645833334</v>
       </c>
       <c r="I577" t="n">
         <v>710</v>
@@ -42653,10 +41517,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H578" t="inlineStr">
-        <is>
-          <t>2021-02-12 20:33:13</t>
-        </is>
+      <c r="H578" s="1" t="n">
+        <v>44239.85640046297</v>
       </c>
       <c r="I578" t="n">
         <v>0</v>
@@ -42720,10 +41582,8 @@
           <t>4110718013</t>
         </is>
       </c>
-      <c r="H579" t="inlineStr">
-        <is>
-          <t>2021-02-12 20:33:13</t>
-        </is>
+      <c r="H579" s="1" t="n">
+        <v>44239.85640046297</v>
       </c>
       <c r="I579" t="n">
         <v>32</v>
@@ -42799,10 +41659,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H580" t="inlineStr">
-        <is>
-          <t>2021-02-12 20:33:12</t>
-        </is>
+      <c r="H580" s="1" t="n">
+        <v>44239.85638888889</v>
       </c>
       <c r="I580" t="n">
         <v>0</v>
@@ -42866,10 +41724,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H581" t="inlineStr">
-        <is>
-          <t>2021-02-12 20:33:10</t>
-        </is>
+      <c r="H581" s="1" t="n">
+        <v>44239.85636574074</v>
       </c>
       <c r="I581" t="n">
         <v>0</v>
@@ -42945,10 +41801,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H582" t="inlineStr">
-        <is>
-          <t>2021-02-12 20:33:08</t>
-        </is>
+      <c r="H582" s="1" t="n">
+        <v>44239.85634259259</v>
       </c>
       <c r="I582" t="n">
         <v>2</v>
@@ -43013,10 +41867,8 @@
           <t>4110713516</t>
         </is>
       </c>
-      <c r="H583" t="inlineStr">
-        <is>
-          <t>2021-02-12 20:33:07</t>
-        </is>
+      <c r="H583" s="1" t="n">
+        <v>44239.85633101852</v>
       </c>
       <c r="I583" t="n">
         <v>8</v>
@@ -43088,10 +41940,8 @@
           <t>4110717639</t>
         </is>
       </c>
-      <c r="H584" t="inlineStr">
-        <is>
-          <t>2021-02-12 20:33:00</t>
-        </is>
+      <c r="H584" s="1" t="n">
+        <v>44239.85625</v>
       </c>
       <c r="I584" t="n">
         <v>417</v>
@@ -43167,10 +42017,8 @@
           <t>4110717591</t>
         </is>
       </c>
-      <c r="H585" t="inlineStr">
-        <is>
-          <t>2021-02-12 20:32:59</t>
-        </is>
+      <c r="H585" s="1" t="n">
+        <v>44239.85623842593</v>
       </c>
       <c r="I585" t="n">
         <v>0</v>
@@ -43238,10 +42086,8 @@
           <t>4110709107</t>
         </is>
       </c>
-      <c r="H586" t="inlineStr">
-        <is>
-          <t>2021-02-12 20:32:58</t>
-        </is>
+      <c r="H586" s="1" t="n">
+        <v>44239.85622685185</v>
       </c>
       <c r="I586" t="n">
         <v>20</v>
@@ -43301,10 +42147,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H587" t="inlineStr">
-        <is>
-          <t>2021-02-12 20:32:56</t>
-        </is>
+      <c r="H587" s="1" t="n">
+        <v>44239.8562037037</v>
       </c>
       <c r="I587" t="n">
         <v>0</v>
@@ -43376,10 +42220,8 @@
           <t>4110713032</t>
         </is>
       </c>
-      <c r="H588" t="inlineStr">
-        <is>
-          <t>2021-02-12 20:32:52</t>
-        </is>
+      <c r="H588" s="1" t="n">
+        <v>44239.8561574074</v>
       </c>
       <c r="I588" t="n">
         <v>40</v>
@@ -43451,10 +42293,8 @@
           <t>4110712883</t>
         </is>
       </c>
-      <c r="H589" t="inlineStr">
-        <is>
-          <t>2021-02-12 20:32:47</t>
-        </is>
+      <c r="H589" s="1" t="n">
+        <v>44239.85609953704</v>
       </c>
       <c r="I589" t="n">
         <v>182</v>
@@ -43526,10 +42366,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H590" t="inlineStr">
-        <is>
-          <t>2021-02-12 20:32:41</t>
-        </is>
+      <c r="H590" s="1" t="n">
+        <v>44239.85603009259</v>
       </c>
       <c r="I590" t="n">
         <v>9</v>
@@ -43601,10 +42439,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H591" t="inlineStr">
-        <is>
-          <t>2021-02-12 20:32:40</t>
-        </is>
+      <c r="H591" s="1" t="n">
+        <v>44239.85601851852</v>
       </c>
       <c r="I591" t="n">
         <v>0</v>
@@ -43680,10 +42516,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H592" t="inlineStr">
-        <is>
-          <t>2021-02-12 20:32:40</t>
-        </is>
+      <c r="H592" s="1" t="n">
+        <v>44239.85601851852</v>
       </c>
       <c r="I592" t="n">
         <v>1</v>
@@ -43759,10 +42593,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H593" t="inlineStr">
-        <is>
-          <t>2021-02-12 20:32:37</t>
-        </is>
+      <c r="H593" s="1" t="n">
+        <v>44239.8559837963</v>
       </c>
       <c r="I593" t="n">
         <v>12</v>
@@ -43826,10 +42658,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H594" t="inlineStr">
-        <is>
-          <t>2021-02-12 20:32:34</t>
-        </is>
+      <c r="H594" s="1" t="n">
+        <v>44239.85594907407</v>
       </c>
       <c r="I594" t="n">
         <v>0</v>
@@ -43901,10 +42731,8 @@
           <t>4110708344</t>
         </is>
       </c>
-      <c r="H595" t="inlineStr">
-        <is>
-          <t>2021-02-12 20:32:34</t>
-        </is>
+      <c r="H595" s="1" t="n">
+        <v>44239.85594907407</v>
       </c>
       <c r="I595" t="n">
         <v>16</v>
@@ -43968,10 +42796,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H596" t="inlineStr">
-        <is>
-          <t>2021-02-12 20:32:32</t>
-        </is>
+      <c r="H596" s="1" t="n">
+        <v>44239.85592592593</v>
       </c>
       <c r="I596" t="n">
         <v>0</v>
@@ -44047,10 +42873,8 @@
           <t>4110712438</t>
         </is>
       </c>
-      <c r="H597" t="inlineStr">
-        <is>
-          <t>2021-02-12 20:32:32</t>
-        </is>
+      <c r="H597" s="1" t="n">
+        <v>44239.85592592593</v>
       </c>
       <c r="I597" t="n">
         <v>13</v>
@@ -44114,10 +42938,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H598" t="inlineStr">
-        <is>
-          <t>2021-02-12 20:32:23</t>
-        </is>
+      <c r="H598" s="1" t="n">
+        <v>44239.85582175926</v>
       </c>
       <c r="I598" t="n">
         <v>0</v>
@@ -44185,10 +43007,8 @@
           <t>4110712119</t>
         </is>
       </c>
-      <c r="H599" t="inlineStr">
-        <is>
-          <t>2021-02-12 20:32:22</t>
-        </is>
+      <c r="H599" s="1" t="n">
+        <v>44239.85581018519</v>
       </c>
       <c r="I599" t="n">
         <v>2</v>
@@ -44264,10 +43084,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H600" t="inlineStr">
-        <is>
-          <t>2021-02-12 20:32:21</t>
-        </is>
+      <c r="H600" s="1" t="n">
+        <v>44239.85579861111</v>
       </c>
       <c r="I600" t="n">
         <v>0</v>
@@ -44339,10 +43157,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H601" t="inlineStr">
-        <is>
-          <t>2021-02-12 20:32:20</t>
-        </is>
+      <c r="H601" s="1" t="n">
+        <v>44239.85578703704</v>
       </c>
       <c r="I601" t="n">
         <v>0</v>
@@ -44414,10 +43230,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H602" t="inlineStr">
-        <is>
-          <t>2021-02-12 20:32:18</t>
-        </is>
+      <c r="H602" s="1" t="n">
+        <v>44239.85576388889</v>
       </c>
       <c r="I602" t="n">
         <v>410</v>
@@ -44489,10 +43303,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H603" t="inlineStr">
-        <is>
-          <t>2021-02-12 20:32:12</t>
-        </is>
+      <c r="H603" s="1" t="n">
+        <v>44239.85569444444</v>
       </c>
       <c r="I603" t="n">
         <v>0</v>
@@ -44560,10 +43372,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H604" t="inlineStr">
-        <is>
-          <t>2021-02-12 20:32:07</t>
-        </is>
+      <c r="H604" s="1" t="n">
+        <v>44239.85563657407</v>
       </c>
       <c r="I604" t="n">
         <v>1</v>
@@ -44637,10 +43447,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H605" t="inlineStr">
-        <is>
-          <t>2021-02-12 20:32:06</t>
-        </is>
+      <c r="H605" s="1" t="n">
+        <v>44239.855625</v>
       </c>
       <c r="I605" t="n">
         <v>0</v>
@@ -44716,10 +43524,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H606" t="inlineStr">
-        <is>
-          <t>2021-02-12 20:32:05</t>
-        </is>
+      <c r="H606" s="1" t="n">
+        <v>44239.85561342593</v>
       </c>
       <c r="I606" t="n">
         <v>1</v>
@@ -44795,10 +43601,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H607" t="inlineStr">
-        <is>
-          <t>2021-02-12 20:32:05</t>
-        </is>
+      <c r="H607" s="1" t="n">
+        <v>44239.85561342593</v>
       </c>
       <c r="I607" t="n">
         <v>3</v>
@@ -44874,10 +43678,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H608" t="inlineStr">
-        <is>
-          <t>2021-02-12 20:32:04</t>
-        </is>
+      <c r="H608" s="1" t="n">
+        <v>44239.85560185185</v>
       </c>
       <c r="I608" t="n">
         <v>175</v>
@@ -44949,10 +43751,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H609" t="inlineStr">
-        <is>
-          <t>2021-02-12 20:32:04</t>
-        </is>
+      <c r="H609" s="1" t="n">
+        <v>44239.85560185185</v>
       </c>
       <c r="I609" t="n">
         <v>3492</v>
@@ -45024,10 +43824,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H610" t="inlineStr">
-        <is>
-          <t>2021-02-12 20:32:03</t>
-        </is>
+      <c r="H610" s="1" t="n">
+        <v>44239.85559027778</v>
       </c>
       <c r="I610" t="n">
         <v>0</v>
@@ -45095,10 +43893,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H611" t="inlineStr">
-        <is>
-          <t>2021-02-12 20:32:02</t>
-        </is>
+      <c r="H611" s="1" t="n">
+        <v>44239.8555787037</v>
       </c>
       <c r="I611" t="n">
         <v>0</v>
@@ -45170,10 +43966,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H612" t="inlineStr">
-        <is>
-          <t>2021-02-12 20:32:02</t>
-        </is>
+      <c r="H612" s="1" t="n">
+        <v>44239.8555787037</v>
       </c>
       <c r="I612" t="n">
         <v>62</v>
@@ -45237,10 +44031,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H613" t="inlineStr">
-        <is>
-          <t>2021-02-12 20:32:02</t>
-        </is>
+      <c r="H613" s="1" t="n">
+        <v>44239.8555787037</v>
       </c>
       <c r="I613" t="n">
         <v>0</v>
@@ -45312,10 +44104,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H614" t="inlineStr">
-        <is>
-          <t>2021-02-12 20:32:00</t>
-        </is>
+      <c r="H614" s="1" t="n">
+        <v>44239.85555555556</v>
       </c>
       <c r="I614" t="n">
         <v>1</v>
@@ -45385,10 +44175,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H615" t="inlineStr">
-        <is>
-          <t>2021-02-12 20:31:59</t>
-        </is>
+      <c r="H615" s="1" t="n">
+        <v>44239.85554398148</v>
       </c>
       <c r="I615" t="n">
         <v>0</v>
@@ -45456,10 +44244,8 @@
           <t>4110711427</t>
         </is>
       </c>
-      <c r="H616" t="inlineStr">
-        <is>
-          <t>2021-02-12 20:31:59</t>
-        </is>
+      <c r="H616" s="1" t="n">
+        <v>44239.85554398148</v>
       </c>
       <c r="I616" t="n">
         <v>14</v>
@@ -45527,10 +44313,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H617" t="inlineStr">
-        <is>
-          <t>2021-02-12 20:31:58</t>
-        </is>
+      <c r="H617" s="1" t="n">
+        <v>44239.8555324074</v>
       </c>
       <c r="I617" t="n">
         <v>1</v>
@@ -45598,10 +44382,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H618" t="inlineStr">
-        <is>
-          <t>2021-02-12 20:31:58</t>
-        </is>
+      <c r="H618" s="1" t="n">
+        <v>44239.8555324074</v>
       </c>
       <c r="I618" t="n">
         <v>0</v>
@@ -45661,10 +44443,8 @@
           <t>4110707151</t>
         </is>
       </c>
-      <c r="H619" t="inlineStr">
-        <is>
-          <t>2021-02-12 20:31:57</t>
-        </is>
+      <c r="H619" s="1" t="n">
+        <v>44239.85552083333</v>
       </c>
       <c r="I619" t="n">
         <v>0</v>
@@ -45732,10 +44512,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H620" t="inlineStr">
-        <is>
-          <t>2021-02-12 20:31:56</t>
-        </is>
+      <c r="H620" s="1" t="n">
+        <v>44239.85550925926</v>
       </c>
       <c r="I620" t="n">
         <v>0</v>
@@ -45811,10 +44589,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H621" t="inlineStr">
-        <is>
-          <t>2021-02-12 20:31:56</t>
-        </is>
+      <c r="H621" s="1" t="n">
+        <v>44239.85550925926</v>
       </c>
       <c r="I621" t="n">
         <v>0</v>
@@ -45890,10 +44666,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H622" t="inlineStr">
-        <is>
-          <t>2021-02-12 20:31:48</t>
-        </is>
+      <c r="H622" s="1" t="n">
+        <v>44239.85541666667</v>
       </c>
       <c r="I622" t="n">
         <v>2</v>
@@ -45961,10 +44735,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H623" t="inlineStr">
-        <is>
-          <t>2021-02-12 20:31:48</t>
-        </is>
+      <c r="H623" s="1" t="n">
+        <v>44239.85541666667</v>
       </c>
       <c r="I623" t="n">
         <v>0</v>
@@ -46028,10 +44800,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H624" t="inlineStr">
-        <is>
-          <t>2021-02-12 20:31:46</t>
-        </is>
+      <c r="H624" s="1" t="n">
+        <v>44239.85539351852</v>
       </c>
       <c r="I624" t="n">
         <v>0</v>
@@ -46103,10 +44873,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H625" t="inlineStr">
-        <is>
-          <t>2021-02-12 20:31:45</t>
-        </is>
+      <c r="H625" s="1" t="n">
+        <v>44239.85538194444</v>
       </c>
       <c r="I625" t="n">
         <v>0</v>
@@ -46170,10 +44938,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H626" t="inlineStr">
-        <is>
-          <t>2021-02-12 20:31:43</t>
-        </is>
+      <c r="H626" s="1" t="n">
+        <v>44239.8553587963</v>
       </c>
       <c r="I626" t="n">
         <v>0</v>
@@ -46241,10 +45007,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H627" t="inlineStr">
-        <is>
-          <t>2021-02-12 20:31:43</t>
-        </is>
+      <c r="H627" s="1" t="n">
+        <v>44239.8553587963</v>
       </c>
       <c r="I627" t="n">
         <v>1</v>
@@ -46320,10 +45084,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H628" t="inlineStr">
-        <is>
-          <t>2021-02-12 20:31:40</t>
-        </is>
+      <c r="H628" s="1" t="n">
+        <v>44239.85532407407</v>
       </c>
       <c r="I628" t="n">
         <v>1</v>
@@ -46387,10 +45149,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H629" t="inlineStr">
-        <is>
-          <t>2021-02-12 20:31:39</t>
-        </is>
+      <c r="H629" s="1" t="n">
+        <v>44239.8553125</v>
       </c>
       <c r="I629" t="n">
         <v>1</v>
@@ -46454,10 +45214,8 @@
           <t>4110715111</t>
         </is>
       </c>
-      <c r="H630" t="inlineStr">
-        <is>
-          <t>2021-02-12 20:31:37</t>
-        </is>
+      <c r="H630" s="1" t="n">
+        <v>44239.85528935185</v>
       </c>
       <c r="I630" t="n">
         <v>0</v>
@@ -46525,10 +45283,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H631" t="inlineStr">
-        <is>
-          <t>2021-02-12 20:31:35</t>
-        </is>
+      <c r="H631" s="1" t="n">
+        <v>44239.8552662037</v>
       </c>
       <c r="I631" t="n">
         <v>2</v>
@@ -46596,10 +45352,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H632" t="inlineStr">
-        <is>
-          <t>2021-02-12 20:31:35</t>
-        </is>
+      <c r="H632" s="1" t="n">
+        <v>44239.8552662037</v>
       </c>
       <c r="I632" t="n">
         <v>0</v>
@@ -46667,10 +45421,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H633" t="inlineStr">
-        <is>
-          <t>2021-02-12 20:31:34</t>
-        </is>
+      <c r="H633" s="1" t="n">
+        <v>44239.85525462963</v>
       </c>
       <c r="I633" t="n">
         <v>2</v>
@@ -46746,10 +45498,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H634" t="inlineStr">
-        <is>
-          <t>2021-02-12 20:31:27</t>
-        </is>
+      <c r="H634" s="1" t="n">
+        <v>44239.85517361111</v>
       </c>
       <c r="I634" t="n">
         <v>0</v>
@@ -46809,10 +45559,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H635" t="inlineStr">
-        <is>
-          <t>2021-02-12 20:31:27</t>
-        </is>
+      <c r="H635" s="1" t="n">
+        <v>44239.85517361111</v>
       </c>
       <c r="I635" t="n">
         <v>142</v>
@@ -46884,10 +45632,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H636" t="inlineStr">
-        <is>
-          <t>2021-02-12 20:31:26</t>
-        </is>
+      <c r="H636" s="1" t="n">
+        <v>44239.85516203703</v>
       </c>
       <c r="I636" t="n">
         <v>34</v>
@@ -46951,10 +45697,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H637" t="inlineStr">
-        <is>
-          <t>2021-02-12 20:31:20</t>
-        </is>
+      <c r="H637" s="1" t="n">
+        <v>44239.8550925926</v>
       </c>
       <c r="I637" t="n">
         <v>1</v>
